--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E9857-4A82-7F43-9068-8CE8744BBE68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071113FF-F4CC-9B4C-8A6F-7D9CAF603C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="33760" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,9 +184,6 @@
     <t>Hauteur maxi du systeme</t>
   </si>
   <si>
-    <t>Hauteur maxi de la cloison</t>
-  </si>
-  <si>
     <t>Unite hauteur maxi</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>Matieres premieres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauteur maxi de la cloison </t>
   </si>
 </sst>
 </file>
@@ -870,11 +870,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="55" max="55" width="25.1640625" customWidth="1"/>
+    <col min="56" max="56" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:143" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -1040,268 +1044,268 @@
         <v>53</v>
       </c>
       <c r="BD1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:143" x14ac:dyDescent="0.2">
@@ -1309,130 +1313,130 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CX2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DD2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DE2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DF2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DG2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DH2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DI2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DK2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DL2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DM2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DN2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DO2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DP2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DQ2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DR2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DS2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DT2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DU2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DV2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DW2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DX2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DY2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DZ2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EA2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EB2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EC2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="ED2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EE2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EF2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EG2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EH2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EI2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EJ2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EK2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="EL2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:143" x14ac:dyDescent="0.2">
@@ -1440,112 +1444,112 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CX3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DD3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DE3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DF3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DG3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DH3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DI3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DK3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DL3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DM3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DN3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DO3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DP3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DQ3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DR3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DS3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DT3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DU3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DV3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DW3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DX3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DY3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="DZ3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EA3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EB3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EC3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="ED3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EE3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EF3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EG3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EH3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EI3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EJ3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EK3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="EL3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:143" x14ac:dyDescent="0.2">
@@ -1553,112 +1557,112 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CX4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DD4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DE4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DF4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DG4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DH4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DI4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DK4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DL4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DM4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DN4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DO4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DP4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DQ4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DR4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DS4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DT4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DU4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DV4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DW4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DX4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DY4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DZ4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EA4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EB4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EC4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="ED4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EE4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EG4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EH4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EI4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EJ4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EK4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EL4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071113FF-F4CC-9B4C-8A6F-7D9CAF603C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3256C10E-A10E-8A41-8518-92B6DA10342F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="33760" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,6 +184,9 @@
     <t>Hauteur maxi du systeme</t>
   </si>
   <si>
+    <t>Hauteur maxi de la cloison</t>
+  </si>
+  <si>
     <t>Unite hauteur maxi</t>
   </si>
   <si>
@@ -464,9 +467,6 @@
   </si>
   <si>
     <t>Matieres premieres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hauteur maxi de la cloison </t>
   </si>
 </sst>
 </file>
@@ -1044,268 +1044,268 @@
         <v>53</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="EI1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:143" x14ac:dyDescent="0.2">
@@ -1313,130 +1313,130 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CX2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DD2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DE2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DF2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DG2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DH2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DI2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DK2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DL2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DM2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DN2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DO2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DP2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DQ2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DR2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DS2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DT2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DU2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DV2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DW2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DX2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DY2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DZ2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EA2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EB2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EC2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="ED2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EE2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EF2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EG2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EH2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EI2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EJ2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EK2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="EL2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:143" x14ac:dyDescent="0.2">
@@ -1444,112 +1444,112 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CX3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DD3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DE3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DF3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DG3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DH3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DI3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DK3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DL3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DM3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DN3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DO3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DP3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DQ3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DR3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DS3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DT3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DU3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DV3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DW3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DX3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DY3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DZ3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EA3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EB3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EC3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="ED3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EE3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EF3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EG3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EH3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EI3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EJ3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EK3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EL3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:143" x14ac:dyDescent="0.2">
@@ -1557,112 +1557,112 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CX4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DD4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DE4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DF4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DG4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DH4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DI4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DK4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DL4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DM4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DN4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DO4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DP4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DQ4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DR4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DS4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DT4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DU4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DV4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DW4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DX4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DY4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DZ4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EA4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EB4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EC4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="ED4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EE4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EF4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EG4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EH4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EI4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EJ4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EK4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EL4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3256C10E-A10E-8A41-8518-92B6DA10342F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195B314-B718-7643-8B87-7C0E857EFF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="33760" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="820" windowWidth="33760" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -457,23 +457,23 @@
     <t>block</t>
   </si>
   <si>
-    <t>BasicInfo</t>
-  </si>
-  <si>
-    <t>Fournitures</t>
-  </si>
-  <si>
     <t>Debourses fournitures</t>
   </si>
   <si>
     <t>Matieres premieres</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>B1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +485,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -870,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1316,127 +1322,127 @@
         <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="CX2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DD2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DE2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DF2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DG2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DH2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DI2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DK2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DL2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DM2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DN2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DO2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DP2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DQ2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DR2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DS2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DT2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DU2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DV2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DW2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DX2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DY2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DZ2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EA2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EB2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EC2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="ED2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EE2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EF2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EG2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EH2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EI2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EJ2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EK2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EL2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:143" x14ac:dyDescent="0.2">
@@ -1447,109 +1453,109 @@
         <v>143</v>
       </c>
       <c r="CX3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DD3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DE3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DF3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DG3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DH3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DI3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DK3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DL3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DM3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DN3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DO3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DP3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DQ3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DR3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DS3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DT3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DU3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DV3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DW3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DX3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DY3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DZ3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EA3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EB3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EC3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="ED3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EE3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EF3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EG3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EH3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EI3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EJ3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EK3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EL3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:143" x14ac:dyDescent="0.2">
@@ -1560,112 +1566,113 @@
         <v>144</v>
       </c>
       <c r="CX4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DD4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DE4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DF4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DG4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DH4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DI4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DK4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DL4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DM4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DN4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DO4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DP4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DQ4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DR4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DS4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DT4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DU4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DV4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DW4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DX4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DY4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="DZ4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EA4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EB4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EC4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="ED4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EE4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EF4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EG4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EH4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EI4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EJ4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EK4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="EL4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195B314-B718-7643-8B87-7C0E857EFF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854AB6F-8544-E047-BBF8-3FAA0BEE986C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="820" windowWidth="33760" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,10 +463,10 @@
     <t>Matieres premieres</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>B1</t>
+    <t>F.1</t>
+  </si>
+  <si>
+    <t>Basic</t>
   </si>
 </sst>
 </file>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854AB6F-8544-E047-BBF8-3FAA0BEE986C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B8A9C-EF4C-B24D-85C0-89C552619C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="820" windowWidth="33760" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="146">
   <si>
     <t>NameType</t>
   </si>
@@ -455,15 +455,6 @@
   </si>
   <si>
     <t>block</t>
-  </si>
-  <si>
-    <t>Debourses fournitures</t>
-  </si>
-  <si>
-    <t>Matieres premieres</t>
-  </si>
-  <si>
-    <t>F.1</t>
   </si>
   <si>
     <t>Basic</t>
@@ -877,7 +868,7 @@
   <dimension ref="A1:EM4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="EK8" sqref="EK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1322,127 +1313,127 @@
         <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q2" t="s">
-        <v>148</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>147</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>147</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="CX2">
+        <v>2</v>
+      </c>
+      <c r="DD2">
+        <v>2</v>
+      </c>
+      <c r="DE2">
+        <v>2</v>
+      </c>
+      <c r="DF2">
+        <v>2</v>
+      </c>
+      <c r="DG2">
+        <v>2</v>
+      </c>
+      <c r="DH2">
+        <v>2</v>
+      </c>
+      <c r="DI2">
+        <v>2</v>
+      </c>
+      <c r="DK2">
+        <v>2</v>
+      </c>
+      <c r="DL2">
+        <v>2</v>
+      </c>
+      <c r="DM2">
+        <v>2</v>
+      </c>
+      <c r="DN2">
+        <v>2</v>
+      </c>
+      <c r="DO2">
+        <v>2</v>
+      </c>
+      <c r="DP2">
+        <v>2</v>
+      </c>
+      <c r="DQ2">
+        <v>2</v>
+      </c>
+      <c r="DR2">
+        <v>2</v>
+      </c>
+      <c r="DS2">
+        <v>2</v>
+      </c>
+      <c r="DT2">
+        <v>2</v>
+      </c>
+      <c r="DU2">
+        <v>2</v>
+      </c>
+      <c r="DV2">
+        <v>2</v>
+      </c>
+      <c r="DW2">
+        <v>2</v>
+      </c>
+      <c r="DX2">
+        <v>2</v>
+      </c>
+      <c r="DY2">
+        <v>2</v>
+      </c>
+      <c r="DZ2">
+        <v>2</v>
+      </c>
+      <c r="EA2">
+        <v>2</v>
+      </c>
+      <c r="EB2">
+        <v>2</v>
+      </c>
+      <c r="EC2">
+        <v>2</v>
+      </c>
+      <c r="ED2">
+        <v>2</v>
+      </c>
+      <c r="EE2">
+        <v>2</v>
+      </c>
+      <c r="EF2">
+        <v>2</v>
+      </c>
+      <c r="EG2">
+        <v>2</v>
+      </c>
+      <c r="EH2">
+        <v>2</v>
+      </c>
+      <c r="EI2">
+        <v>2</v>
+      </c>
+      <c r="EJ2">
+        <v>2</v>
+      </c>
+      <c r="EK2">
+        <v>2</v>
+      </c>
+      <c r="EL2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:143" x14ac:dyDescent="0.2">
@@ -1452,110 +1443,110 @@
       <c r="B3" t="s">
         <v>143</v>
       </c>
-      <c r="CX3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>145</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>145</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>145</v>
+      <c r="CX3">
+        <v>8</v>
+      </c>
+      <c r="DD3">
+        <v>8</v>
+      </c>
+      <c r="DE3">
+        <v>8</v>
+      </c>
+      <c r="DF3">
+        <v>8</v>
+      </c>
+      <c r="DG3">
+        <v>8</v>
+      </c>
+      <c r="DH3">
+        <v>8</v>
+      </c>
+      <c r="DI3">
+        <v>8</v>
+      </c>
+      <c r="DK3">
+        <v>8</v>
+      </c>
+      <c r="DL3">
+        <v>8</v>
+      </c>
+      <c r="DM3">
+        <v>8</v>
+      </c>
+      <c r="DN3">
+        <v>8</v>
+      </c>
+      <c r="DO3">
+        <v>8</v>
+      </c>
+      <c r="DP3">
+        <v>8</v>
+      </c>
+      <c r="DQ3">
+        <v>8</v>
+      </c>
+      <c r="DR3">
+        <v>8</v>
+      </c>
+      <c r="DS3">
+        <v>8</v>
+      </c>
+      <c r="DT3">
+        <v>8</v>
+      </c>
+      <c r="DU3">
+        <v>8</v>
+      </c>
+      <c r="DV3">
+        <v>8</v>
+      </c>
+      <c r="DW3">
+        <v>8</v>
+      </c>
+      <c r="DX3">
+        <v>8</v>
+      </c>
+      <c r="DY3">
+        <v>8</v>
+      </c>
+      <c r="DZ3">
+        <v>8</v>
+      </c>
+      <c r="EA3">
+        <v>8</v>
+      </c>
+      <c r="EB3">
+        <v>8</v>
+      </c>
+      <c r="EC3">
+        <v>8</v>
+      </c>
+      <c r="ED3">
+        <v>8</v>
+      </c>
+      <c r="EE3">
+        <v>8</v>
+      </c>
+      <c r="EF3">
+        <v>8</v>
+      </c>
+      <c r="EG3">
+        <v>8</v>
+      </c>
+      <c r="EH3">
+        <v>8</v>
+      </c>
+      <c r="EI3">
+        <v>8</v>
+      </c>
+      <c r="EJ3">
+        <v>8</v>
+      </c>
+      <c r="EK3">
+        <v>8</v>
+      </c>
+      <c r="EL3">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:143" x14ac:dyDescent="0.2">
@@ -1565,110 +1556,110 @@
       <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="CX4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>146</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>146</v>
+      <c r="CX4">
+        <v>16</v>
+      </c>
+      <c r="DD4">
+        <v>16</v>
+      </c>
+      <c r="DE4">
+        <v>16</v>
+      </c>
+      <c r="DF4">
+        <v>16</v>
+      </c>
+      <c r="DG4">
+        <v>16</v>
+      </c>
+      <c r="DH4">
+        <v>16</v>
+      </c>
+      <c r="DI4">
+        <v>16</v>
+      </c>
+      <c r="DK4">
+        <v>16</v>
+      </c>
+      <c r="DL4">
+        <v>16</v>
+      </c>
+      <c r="DM4">
+        <v>16</v>
+      </c>
+      <c r="DN4">
+        <v>16</v>
+      </c>
+      <c r="DO4">
+        <v>16</v>
+      </c>
+      <c r="DP4">
+        <v>16</v>
+      </c>
+      <c r="DQ4">
+        <v>16</v>
+      </c>
+      <c r="DR4">
+        <v>16</v>
+      </c>
+      <c r="DS4">
+        <v>16</v>
+      </c>
+      <c r="DT4">
+        <v>16</v>
+      </c>
+      <c r="DU4">
+        <v>16</v>
+      </c>
+      <c r="DV4">
+        <v>16</v>
+      </c>
+      <c r="DW4">
+        <v>16</v>
+      </c>
+      <c r="DX4">
+        <v>16</v>
+      </c>
+      <c r="DY4">
+        <v>16</v>
+      </c>
+      <c r="DZ4">
+        <v>16</v>
+      </c>
+      <c r="EA4">
+        <v>16</v>
+      </c>
+      <c r="EB4">
+        <v>16</v>
+      </c>
+      <c r="EC4">
+        <v>16</v>
+      </c>
+      <c r="ED4">
+        <v>16</v>
+      </c>
+      <c r="EE4">
+        <v>16</v>
+      </c>
+      <c r="EF4">
+        <v>16</v>
+      </c>
+      <c r="EG4">
+        <v>16</v>
+      </c>
+      <c r="EH4">
+        <v>16</v>
+      </c>
+      <c r="EI4">
+        <v>16</v>
+      </c>
+      <c r="EJ4">
+        <v>16</v>
+      </c>
+      <c r="EK4">
+        <v>16</v>
+      </c>
+      <c r="EL4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B8A9C-EF4C-B24D-85C0-89C552619C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5800A929-5885-824B-9EDD-C67A2AE7FE7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,14 +867,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="EK8" sqref="EK8"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="DH4" sqref="DH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" customWidth="1"/>
+    <col min="17" max="17" width="28.5" customWidth="1"/>
+    <col min="18" max="18" width="23.83203125" customWidth="1"/>
+    <col min="19" max="19" width="38.5" customWidth="1"/>
+    <col min="20" max="20" width="26.83203125" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" customWidth="1"/>
+    <col min="22" max="22" width="24" customWidth="1"/>
+    <col min="23" max="23" width="33.83203125" customWidth="1"/>
+    <col min="24" max="24" width="23.6640625" customWidth="1"/>
+    <col min="25" max="25" width="25.83203125" customWidth="1"/>
+    <col min="26" max="26" width="22.83203125" customWidth="1"/>
+    <col min="27" max="27" width="25.33203125" customWidth="1"/>
+    <col min="28" max="28" width="28.83203125" customWidth="1"/>
+    <col min="29" max="29" width="23.1640625" customWidth="1"/>
+    <col min="30" max="30" width="32.5" customWidth="1"/>
+    <col min="31" max="31" width="21.83203125" customWidth="1"/>
+    <col min="32" max="32" width="22" customWidth="1"/>
+    <col min="33" max="33" width="22.1640625" customWidth="1"/>
+    <col min="34" max="34" width="35.83203125" customWidth="1"/>
+    <col min="35" max="35" width="28" customWidth="1"/>
     <col min="55" max="55" width="25.1640625" customWidth="1"/>
     <col min="56" max="56" width="35" customWidth="1"/>
+    <col min="103" max="103" width="27.83203125" customWidth="1"/>
+    <col min="104" max="104" width="32" customWidth="1"/>
+    <col min="105" max="105" width="29.5" customWidth="1"/>
+    <col min="106" max="106" width="41.1640625" customWidth="1"/>
+    <col min="107" max="107" width="42" customWidth="1"/>
+    <col min="108" max="108" width="30.1640625" customWidth="1"/>
+    <col min="109" max="109" width="26.5" customWidth="1"/>
+    <col min="110" max="110" width="26.6640625" customWidth="1"/>
+    <col min="112" max="112" width="27.33203125" customWidth="1"/>
+    <col min="113" max="113" width="32.33203125" customWidth="1"/>
+    <col min="114" max="114" width="29.83203125" customWidth="1"/>
+    <col min="141" max="141" width="39.1640625" customWidth="1"/>
+    <col min="142" max="142" width="23.83203125" customWidth="1"/>
+    <col min="143" max="143" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:143" x14ac:dyDescent="0.2">

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5800A929-5885-824B-9EDD-C67A2AE7FE7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F455B1C7-8A6E-F84D-BEB6-99320E83A134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43000" yWindow="-7940" windowWidth="35840" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="DH4" sqref="DH4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="CX4" sqref="CX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1605,109 +1605,109 @@
         <v>144</v>
       </c>
       <c r="CX4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DD4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DE4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DF4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DG4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DH4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DI4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DK4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DL4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DM4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DN4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DO4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DP4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DQ4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DR4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DS4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DT4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DU4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DV4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DW4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DX4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DY4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DZ4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EA4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EB4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EC4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="ED4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EE4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EF4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EG4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EH4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EI4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EJ4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EK4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="EL4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F455B1C7-8A6E-F84D-BEB6-99320E83A134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCE9CE-557E-7548-99E2-C1B00B85EF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43000" yWindow="-7940" windowWidth="35840" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45560" yWindow="-8500" windowWidth="19120" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
   <si>
     <t>NameType</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Basic</t>
+  </si>
+  <si>
+    <t>width</t>
   </si>
 </sst>
 </file>
@@ -865,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EM4"/>
+  <dimension ref="A1:EM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="CX4" sqref="CX4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1710,6 +1713,24 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCE9CE-557E-7548-99E2-C1B00B85EF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11E402-4619-B740-9892-5BBBB8598024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45560" yWindow="-8500" windowWidth="19120" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38240" yWindow="-8800" windowWidth="19120" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
   <si>
     <t>NameType</t>
   </si>
@@ -461,6 +461,18 @@
   </si>
   <si>
     <t>width</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>dbFields</t>
   </si>
 </sst>
 </file>
@@ -871,7 +883,7 @@
   <dimension ref="A1:EM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1725,6 +1737,18 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A7" s="1">

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11E402-4619-B740-9892-5BBBB8598024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592FA55C-6DAC-C14E-813E-1E869DE8EC7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38240" yWindow="-8800" windowWidth="19120" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>NameType</t>
   </si>
@@ -473,6 +473,24 @@
   </si>
   <si>
     <t>dbFields</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Réf. Ouvrage</t>
+  </si>
+  <si>
+    <t>Libellé</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>Famille</t>
+  </si>
+  <si>
+    <t>Sous-famille</t>
   </si>
 </sst>
 </file>
@@ -883,7 +901,7 @@
   <dimension ref="A1:EM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1754,6 +1772,24 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592FA55C-6DAC-C14E-813E-1E869DE8EC7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6753D0A-483F-2E41-A801-8DF7DE1450FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38240" yWindow="-8800" windowWidth="19120" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35860" yWindow="-9540" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
   <si>
     <t>NameType</t>
   </si>
@@ -43,21 +43,12 @@
     <t>ID Groupe systeme</t>
   </si>
   <si>
-    <t>Libellé Groupe système</t>
-  </si>
-  <si>
     <t>ID famille systeme</t>
   </si>
   <si>
-    <t>Libellé famille systeme</t>
-  </si>
-  <si>
     <t>ID sous famille systeme</t>
   </si>
   <si>
-    <t>Libellé sous famille systeme</t>
-  </si>
-  <si>
     <t>Nom du fabricant</t>
   </si>
   <si>
@@ -491,6 +482,9 @@
   </si>
   <si>
     <t>Sous-famille</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
@@ -900,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -981,409 +975,409 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:143" x14ac:dyDescent="0.2">
@@ -1391,25 +1385,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="N2" t="s">
+        <v>154</v>
       </c>
       <c r="Q2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="CX2">
         <v>2</v>
@@ -1522,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="CX3">
         <v>8</v>
@@ -1635,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="CX4">
         <v>17</v>
@@ -1748,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.2">
@@ -1756,16 +1753,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.2">
@@ -1773,22 +1770,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" t="s">
         <v>151</v>
       </c>
-      <c r="C7" t="s">
+      <c r="K7" t="s">
         <v>152</v>
       </c>
-      <c r="D7" t="s">
+      <c r="M7" t="s">
         <v>153</v>
-      </c>
-      <c r="I7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6753D0A-483F-2E41-A801-8DF7DE1450FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C371E6C7-E46C-8E42-BCB7-A8DCACD85C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35860" yWindow="-9540" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
   <si>
     <t>NameType</t>
   </si>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1764,6 +1764,9 @@
       <c r="M6" t="s">
         <v>146</v>
       </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1786,6 +1789,9 @@
       </c>
       <c r="M7" t="s">
         <v>153</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C371E6C7-E46C-8E42-BCB7-A8DCACD85C33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB54B7-A3D8-4141-9DFB-5C0ECD90FF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="-9540" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37520" yWindow="-7740" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="156">
   <si>
     <t>NameType</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>acoustique</t>
   </si>
 </sst>
 </file>
@@ -894,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -934,8 +937,46 @@
     <col min="33" max="33" width="22.1640625" customWidth="1"/>
     <col min="34" max="34" width="35.83203125" customWidth="1"/>
     <col min="35" max="35" width="28" customWidth="1"/>
+    <col min="36" max="36" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.5" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="25.1640625" customWidth="1"/>
     <col min="56" max="56" width="35" customWidth="1"/>
+    <col min="57" max="57" width="16" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="44" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="25" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26.5" customWidth="1"/>
+    <col min="84" max="84" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="23" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="22" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="27.83203125" customWidth="1"/>
     <col min="104" max="104" width="32" customWidth="1"/>
     <col min="105" max="105" width="29.5" customWidth="1"/>
@@ -947,6 +988,13 @@
     <col min="112" max="112" width="27.33203125" customWidth="1"/>
     <col min="113" max="113" width="32.33203125" customWidth="1"/>
     <col min="114" max="114" width="29.83203125" customWidth="1"/>
+    <col min="122" max="122" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="39.1640625" customWidth="1"/>
     <col min="142" max="142" width="23.83203125" customWidth="1"/>
     <col min="143" max="143" width="17.6640625" customWidth="1"/>
@@ -1408,9 +1456,93 @@
       <c r="Q2" t="s">
         <v>142</v>
       </c>
+      <c r="AH2">
+        <v>6</v>
+      </c>
+      <c r="AL2">
+        <v>6</v>
+      </c>
+      <c r="AM2">
+        <v>6</v>
+      </c>
+      <c r="AP2">
+        <v>6</v>
+      </c>
+      <c r="AY2">
+        <v>6</v>
+      </c>
+      <c r="AZ2">
+        <v>6</v>
+      </c>
+      <c r="BA2">
+        <v>6</v>
+      </c>
+      <c r="BB2">
+        <v>6</v>
+      </c>
+      <c r="BC2">
+        <v>6</v>
+      </c>
+      <c r="BE2">
+        <v>6</v>
+      </c>
+      <c r="BG2">
+        <v>6</v>
+      </c>
+      <c r="BH2">
+        <v>6</v>
+      </c>
+      <c r="BV2">
+        <v>6</v>
+      </c>
+      <c r="BW2">
+        <v>6</v>
+      </c>
+      <c r="BX2">
+        <v>6</v>
+      </c>
+      <c r="BY2">
+        <v>6</v>
+      </c>
+      <c r="BZ2">
+        <v>6</v>
+      </c>
+      <c r="CB2">
+        <v>6</v>
+      </c>
+      <c r="CC2">
+        <v>6</v>
+      </c>
+      <c r="CD2">
+        <v>6</v>
+      </c>
+      <c r="CE2">
+        <v>6</v>
+      </c>
+      <c r="CG2">
+        <v>6</v>
+      </c>
+      <c r="CH2">
+        <v>6</v>
+      </c>
+      <c r="CI2">
+        <v>6</v>
+      </c>
+      <c r="CJ2">
+        <v>6</v>
+      </c>
+      <c r="CK2">
+        <v>6</v>
+      </c>
+      <c r="CR2">
+        <v>6</v>
+      </c>
       <c r="CX2">
         <v>2</v>
       </c>
+      <c r="DC2">
+        <v>2</v>
+      </c>
       <c r="DD2">
         <v>2</v>
       </c>
@@ -1427,6 +1559,9 @@
         <v>2</v>
       </c>
       <c r="DI2">
+        <v>2</v>
+      </c>
+      <c r="DJ2">
         <v>2</v>
       </c>
       <c r="DK2">
@@ -1521,9 +1656,93 @@
       <c r="B3" t="s">
         <v>140</v>
       </c>
+      <c r="AH3">
+        <v>14</v>
+      </c>
+      <c r="AL3">
+        <v>14</v>
+      </c>
+      <c r="AM3">
+        <v>14</v>
+      </c>
+      <c r="AP3">
+        <v>14</v>
+      </c>
+      <c r="AY3">
+        <v>16</v>
+      </c>
+      <c r="AZ3">
+        <v>16</v>
+      </c>
+      <c r="BA3">
+        <v>16</v>
+      </c>
+      <c r="BB3">
+        <v>16</v>
+      </c>
+      <c r="BC3">
+        <v>16</v>
+      </c>
+      <c r="BE3">
+        <v>16</v>
+      </c>
+      <c r="BG3">
+        <v>16</v>
+      </c>
+      <c r="BH3">
+        <v>16</v>
+      </c>
+      <c r="BV3">
+        <v>16</v>
+      </c>
+      <c r="BW3">
+        <v>16</v>
+      </c>
+      <c r="BX3">
+        <v>16</v>
+      </c>
+      <c r="BY3">
+        <v>16</v>
+      </c>
+      <c r="BZ3">
+        <v>16</v>
+      </c>
+      <c r="CB3">
+        <v>16</v>
+      </c>
+      <c r="CC3">
+        <v>16</v>
+      </c>
+      <c r="CD3">
+        <v>16</v>
+      </c>
+      <c r="CE3">
+        <v>16</v>
+      </c>
+      <c r="CG3">
+        <v>16</v>
+      </c>
+      <c r="CH3">
+        <v>16</v>
+      </c>
+      <c r="CI3">
+        <v>16</v>
+      </c>
+      <c r="CJ3">
+        <v>16</v>
+      </c>
+      <c r="CK3">
+        <v>16</v>
+      </c>
+      <c r="CR3">
+        <v>16</v>
+      </c>
       <c r="CX3">
         <v>8</v>
       </c>
+      <c r="DC3">
+        <v>8</v>
+      </c>
       <c r="DD3">
         <v>8</v>
       </c>
@@ -1540,6 +1759,9 @@
         <v>8</v>
       </c>
       <c r="DI3">
+        <v>8</v>
+      </c>
+      <c r="DJ3">
         <v>8</v>
       </c>
       <c r="DK3">
@@ -1634,9 +1856,93 @@
       <c r="B4" t="s">
         <v>141</v>
       </c>
+      <c r="AH4">
+        <v>27</v>
+      </c>
+      <c r="AL4">
+        <v>27</v>
+      </c>
+      <c r="AM4">
+        <v>27</v>
+      </c>
+      <c r="AP4">
+        <v>27</v>
+      </c>
+      <c r="AY4">
+        <v>29</v>
+      </c>
+      <c r="AZ4">
+        <v>29</v>
+      </c>
+      <c r="BA4">
+        <v>29</v>
+      </c>
+      <c r="BB4">
+        <v>29</v>
+      </c>
+      <c r="BC4">
+        <v>29</v>
+      </c>
+      <c r="BE4">
+        <v>29</v>
+      </c>
+      <c r="BG4">
+        <v>29</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV4">
+        <v>32</v>
+      </c>
+      <c r="BW4">
+        <v>31</v>
+      </c>
+      <c r="BX4">
+        <v>31</v>
+      </c>
+      <c r="BY4">
+        <v>31</v>
+      </c>
+      <c r="BZ4">
+        <v>31</v>
+      </c>
+      <c r="CB4">
+        <v>31</v>
+      </c>
+      <c r="CC4">
+        <v>31</v>
+      </c>
+      <c r="CD4">
+        <v>32</v>
+      </c>
+      <c r="CE4">
+        <v>32</v>
+      </c>
+      <c r="CG4">
+        <v>30</v>
+      </c>
+      <c r="CH4">
+        <v>30</v>
+      </c>
+      <c r="CI4">
+        <v>30</v>
+      </c>
+      <c r="CJ4">
+        <v>30</v>
+      </c>
+      <c r="CK4">
+        <v>29</v>
+      </c>
+      <c r="CR4">
+        <v>32</v>
+      </c>
       <c r="CX4">
         <v>17</v>
       </c>
+      <c r="DC4">
+        <v>17</v>
+      </c>
       <c r="DD4">
         <v>17</v>
       </c>
@@ -1653,6 +1959,9 @@
         <v>17</v>
       </c>
       <c r="DI4">
+        <v>17</v>
+      </c>
+      <c r="DJ4">
         <v>17</v>
       </c>
       <c r="DK4">

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB54B7-A3D8-4141-9DFB-5C0ECD90FF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A1AB4-FA79-F34C-8E0B-4C0F3116E66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37520" yWindow="-7740" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
   <si>
     <t>NameType</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>Industry</t>
-  </si>
-  <si>
-    <t>acoustique</t>
   </si>
 </sst>
 </file>
@@ -897,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BH5" sqref="BH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1889,8 +1886,8 @@
       <c r="BG4">
         <v>29</v>
       </c>
-      <c r="BH4" t="s">
-        <v>155</v>
+      <c r="BH4">
+        <v>31</v>
       </c>
       <c r="BV4">
         <v>32</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A1AB4-FA79-F34C-8E0B-4C0F3116E66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D99B2C9-07B1-F647-96D0-5FC22856BED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37520" yWindow="-7740" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46040" yWindow="-7780" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BH5" sqref="BH5"/>
+    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
+      <selection activeCell="CR3" sqref="CR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1666,73 +1666,76 @@
         <v>14</v>
       </c>
       <c r="AY3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BE3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BG3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BH3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BV3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BW3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BX3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BY3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BZ3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CB3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CC3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CD3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CE3">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="CF3">
+        <v>15</v>
       </c>
       <c r="CG3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CH3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CI3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CJ3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CK3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CR3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="CX3">
         <v>8</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D99B2C9-07B1-F647-96D0-5FC22856BED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BD507-98BD-7347-A1E5-717D39FCE8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46040" yWindow="-7780" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="2440" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="160">
   <si>
     <t>NameType</t>
   </si>
@@ -485,6 +485,21 @@
   </si>
   <si>
     <t>Industry</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>Icons/Page-1.png</t>
+  </si>
+  <si>
+    <t>Icons/music.house.png</t>
+  </si>
+  <si>
+    <t>Icons/video.png</t>
+  </si>
+  <si>
+    <t>Icons/list.bullet.be</t>
   </si>
 </sst>
 </file>
@@ -514,15 +529,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -545,15 +566,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EM7"/>
+  <dimension ref="A1:EM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI1" workbookViewId="0">
-      <selection activeCell="CR3" sqref="CR3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -946,8 +983,11 @@
     <col min="55" max="55" width="25.1640625" customWidth="1"/>
     <col min="56" max="56" width="35" customWidth="1"/>
     <col min="57" max="57" width="16" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="44" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="52.6640625" bestFit="1" customWidth="1"/>
@@ -1453,6 +1493,21 @@
       <c r="Q2" t="s">
         <v>142</v>
       </c>
+      <c r="R2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" t="s">
+        <v>154</v>
+      </c>
       <c r="AH2">
         <v>6</v>
       </c>
@@ -2102,6 +2157,35 @@
       <c r="N7" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="8" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="R8" t="s">
+        <v>158</v>
+      </c>
+      <c r="S8" t="s">
+        <v>156</v>
+      </c>
+      <c r="T8" t="s">
+        <v>156</v>
+      </c>
+      <c r="U8" t="s">
+        <v>157</v>
+      </c>
+      <c r="V8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="R9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7BD507-98BD-7347-A1E5-717D39FCE8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C0E582-1771-E146-AC42-8661BEB66653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="2440" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59180" yWindow="-13000" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="173">
   <si>
     <t>NameType</t>
   </si>
@@ -500,6 +500,45 @@
   </si>
   <si>
     <t>Icons/list.bullet.be</t>
+  </si>
+  <si>
+    <t>Classification Uniclass 3</t>
+  </si>
+  <si>
+    <t>Nombre de plaque face 3</t>
+  </si>
+  <si>
+    <t>Pression du vent da N/m131</t>
+  </si>
+  <si>
+    <t>Unité de pression du vent da N/m131</t>
+  </si>
+  <si>
+    <t>Libellé Ossature 3</t>
+  </si>
+  <si>
+    <t>Ratio fabricant mortier adhesif en kg par M131</t>
+  </si>
+  <si>
+    <t>Ratio fabricant suspentes ou appuis en unité par M131</t>
+  </si>
+  <si>
+    <t>Ratio fabricant bande à joints en ML par M131</t>
+  </si>
+  <si>
+    <t>Ratio fabricant Vis auto-perceuse 1 en Unité par M131</t>
+  </si>
+  <si>
+    <t>Ratio fabricant Vis auto-perceuse 2 en Unité par M131</t>
+  </si>
+  <si>
+    <t>Libellé Vis auto-perceuse 3</t>
+  </si>
+  <si>
+    <t>Ratio fabricant Vis auto-tarodeuse en unité par M131</t>
+  </si>
+  <si>
+    <t>Ratio fabricant Pointes pour cloueur en unité par M131</t>
   </si>
 </sst>
 </file>
@@ -931,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
+      <selection activeCell="EM8" sqref="EM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1487,9 +1526,6 @@
       <c r="M2" t="s">
         <v>142</v>
       </c>
-      <c r="N2" t="s">
-        <v>154</v>
-      </c>
       <c r="Q2" t="s">
         <v>142</v>
       </c>
@@ -2111,6 +2147,429 @@
       <c r="B5" t="s">
         <v>143</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>1</v>
+      </c>
+      <c r="CJ5">
+        <v>1</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
+      <c r="DD5">
+        <v>1</v>
+      </c>
+      <c r="DE5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>1</v>
+      </c>
+      <c r="DG5">
+        <v>1</v>
+      </c>
+      <c r="DH5">
+        <v>1</v>
+      </c>
+      <c r="DI5">
+        <v>1</v>
+      </c>
+      <c r="DJ5">
+        <v>1</v>
+      </c>
+      <c r="DK5">
+        <v>1</v>
+      </c>
+      <c r="DL5">
+        <v>1</v>
+      </c>
+      <c r="DM5">
+        <v>1</v>
+      </c>
+      <c r="DN5">
+        <v>1</v>
+      </c>
+      <c r="DO5">
+        <v>1</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>1</v>
+      </c>
+      <c r="DR5">
+        <v>1</v>
+      </c>
+      <c r="DS5">
+        <v>1</v>
+      </c>
+      <c r="DT5">
+        <v>1</v>
+      </c>
+      <c r="DU5">
+        <v>1</v>
+      </c>
+      <c r="DV5">
+        <v>1</v>
+      </c>
+      <c r="DW5">
+        <v>1</v>
+      </c>
+      <c r="DX5">
+        <v>1</v>
+      </c>
+      <c r="DY5">
+        <v>1</v>
+      </c>
+      <c r="DZ5">
+        <v>1</v>
+      </c>
+      <c r="EA5">
+        <v>1</v>
+      </c>
+      <c r="EB5">
+        <v>1</v>
+      </c>
+      <c r="EC5">
+        <v>1</v>
+      </c>
+      <c r="ED5">
+        <v>1</v>
+      </c>
+      <c r="EE5">
+        <v>1</v>
+      </c>
+      <c r="EF5">
+        <v>1</v>
+      </c>
+      <c r="EG5">
+        <v>1</v>
+      </c>
+      <c r="EH5">
+        <v>1</v>
+      </c>
+      <c r="EI5">
+        <v>1</v>
+      </c>
+      <c r="EJ5">
+        <v>1</v>
+      </c>
+      <c r="EK5">
+        <v>1</v>
+      </c>
+      <c r="EL5">
+        <v>1</v>
+      </c>
+      <c r="EM5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:143" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -2119,17 +2578,428 @@
       <c r="B6" t="s">
         <v>147</v>
       </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" t="s">
         <v>144</v>
       </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
       <c r="K6" t="s">
         <v>145</v>
       </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
       <c r="M6" t="s">
         <v>146</v>
       </c>
       <c r="N6" t="s">
         <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>75</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>76</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>88</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>90</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>91</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>92</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>93</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>94</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>95</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>99</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>100</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>101</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>103</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>104</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>105</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>106</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>107</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>110</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>112</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>113</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>114</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>115</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>116</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>117</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>118</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>119</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>120</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>121</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>122</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>123</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>124</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>125</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>126</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>127</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>128</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>129</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>130</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>131</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>132</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>133</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>134</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>135</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>136</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>137</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:143" x14ac:dyDescent="0.2">
@@ -2145,17 +3015,422 @@
       <c r="D7" t="s">
         <v>150</v>
       </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
       <c r="I7" t="s">
         <v>151</v>
       </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
       <c r="K7" t="s">
         <v>152</v>
       </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
       <c r="M7" t="s">
         <v>153</v>
       </c>
       <c r="N7" t="s">
         <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>75</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>76</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>88</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>90</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>91</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>92</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>93</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>94</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>99</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>162</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>163</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>102</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>103</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>104</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>105</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>106</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>107</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>110</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>112</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>113</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>114</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>115</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>116</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>117</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>120</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>119</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>164</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>165</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>122</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>124</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>126</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>127</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>167</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>129</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>168</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>169</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>170</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>171</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>135</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>172</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>137</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:143" x14ac:dyDescent="0.2">

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C0E582-1771-E146-AC42-8661BEB66653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE752D-BE5C-8F4A-886D-230F827D01D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59180" yWindow="-13000" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
-      <selection activeCell="EM8" sqref="EM8"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CH18" sqref="CH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1517,15 +1517,42 @@
       <c r="D2" t="s">
         <v>142</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2" t="s">
         <v>142</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2" t="s">
         <v>142</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2" t="s">
         <v>142</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
       <c r="Q2" t="s">
         <v>142</v>
       </c>
@@ -1544,18 +1571,90 @@
       <c r="V2" t="s">
         <v>154</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
       <c r="AH2">
         <v>6</v>
       </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
       <c r="AL2">
         <v>6</v>
       </c>
       <c r="AM2">
         <v>6</v>
       </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
       <c r="AP2">
         <v>6</v>
       </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
       <c r="AY2">
         <v>6</v>
       </c>
@@ -1571,15 +1670,60 @@
       <c r="BC2">
         <v>6</v>
       </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
       <c r="BE2">
         <v>6</v>
       </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
       <c r="BG2">
         <v>6</v>
       </c>
       <c r="BH2">
         <v>6</v>
       </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
       <c r="BV2">
         <v>6</v>
       </c>
@@ -1594,6 +1738,9 @@
       </c>
       <c r="BZ2">
         <v>6</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
       </c>
       <c r="CB2">
         <v>6</v>
@@ -1744,18 +1891,117 @@
       <c r="B3" t="s">
         <v>140</v>
       </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>16</v>
+      </c>
+      <c r="X3">
+        <v>16</v>
+      </c>
+      <c r="Y3">
+        <v>16</v>
+      </c>
+      <c r="Z3">
+        <v>16</v>
+      </c>
+      <c r="AA3">
+        <v>16</v>
+      </c>
+      <c r="AB3">
+        <v>16</v>
+      </c>
+      <c r="AC3">
+        <v>16</v>
+      </c>
+      <c r="AD3">
+        <v>16</v>
+      </c>
+      <c r="AE3">
+        <v>16</v>
+      </c>
+      <c r="AF3">
+        <v>16</v>
+      </c>
+      <c r="AG3">
+        <v>16</v>
+      </c>
       <c r="AH3">
         <v>14</v>
       </c>
+      <c r="AI3">
+        <v>16</v>
+      </c>
+      <c r="AJ3">
+        <v>16</v>
+      </c>
+      <c r="AK3">
+        <v>16</v>
+      </c>
       <c r="AL3">
         <v>14</v>
       </c>
       <c r="AM3">
         <v>14</v>
       </c>
+      <c r="AN3">
+        <v>16</v>
+      </c>
+      <c r="AO3">
+        <v>16</v>
+      </c>
       <c r="AP3">
         <v>14</v>
       </c>
+      <c r="AQ3">
+        <v>16</v>
+      </c>
+      <c r="AR3">
+        <v>16</v>
+      </c>
+      <c r="AS3">
+        <v>16</v>
+      </c>
+      <c r="AT3">
+        <v>16</v>
+      </c>
+      <c r="AU3">
+        <v>16</v>
+      </c>
+      <c r="AV3">
+        <v>16</v>
+      </c>
+      <c r="AW3">
+        <v>16</v>
+      </c>
+      <c r="AX3">
+        <v>16</v>
+      </c>
       <c r="AY3">
         <v>15</v>
       </c>
@@ -1771,15 +2017,60 @@
       <c r="BC3">
         <v>15</v>
       </c>
+      <c r="BD3">
+        <v>16</v>
+      </c>
       <c r="BE3">
         <v>15</v>
       </c>
+      <c r="BF3">
+        <v>16</v>
+      </c>
       <c r="BG3">
         <v>15</v>
       </c>
       <c r="BH3">
         <v>15</v>
       </c>
+      <c r="BI3">
+        <v>16</v>
+      </c>
+      <c r="BJ3">
+        <v>16</v>
+      </c>
+      <c r="BK3">
+        <v>16</v>
+      </c>
+      <c r="BL3">
+        <v>16</v>
+      </c>
+      <c r="BM3">
+        <v>16</v>
+      </c>
+      <c r="BN3">
+        <v>16</v>
+      </c>
+      <c r="BO3">
+        <v>16</v>
+      </c>
+      <c r="BP3">
+        <v>16</v>
+      </c>
+      <c r="BQ3">
+        <v>16</v>
+      </c>
+      <c r="BR3">
+        <v>16</v>
+      </c>
+      <c r="BS3">
+        <v>16</v>
+      </c>
+      <c r="BT3">
+        <v>16</v>
+      </c>
+      <c r="BU3">
+        <v>16</v>
+      </c>
       <c r="BV3">
         <v>15</v>
       </c>
@@ -1795,6 +2086,9 @@
       <c r="BZ3">
         <v>15</v>
       </c>
+      <c r="CA3">
+        <v>16</v>
+      </c>
       <c r="CB3">
         <v>15</v>
       </c>
@@ -1805,9 +2099,6 @@
         <v>15</v>
       </c>
       <c r="CE3">
-        <v>15</v>
-      </c>
-      <c r="CF3">
         <v>15</v>
       </c>
       <c r="CG3">
@@ -1947,18 +2238,117 @@
       <c r="B4" t="s">
         <v>141</v>
       </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>28</v>
+      </c>
+      <c r="W4">
+        <v>28</v>
+      </c>
+      <c r="X4">
+        <v>28</v>
+      </c>
+      <c r="Y4">
+        <v>28</v>
+      </c>
+      <c r="Z4">
+        <v>28</v>
+      </c>
+      <c r="AA4">
+        <v>28</v>
+      </c>
+      <c r="AB4">
+        <v>28</v>
+      </c>
+      <c r="AC4">
+        <v>28</v>
+      </c>
+      <c r="AD4">
+        <v>28</v>
+      </c>
+      <c r="AE4">
+        <v>28</v>
+      </c>
+      <c r="AF4">
+        <v>28</v>
+      </c>
+      <c r="AG4">
+        <v>28</v>
+      </c>
       <c r="AH4">
         <v>27</v>
       </c>
+      <c r="AI4">
+        <v>28</v>
+      </c>
+      <c r="AJ4">
+        <v>28</v>
+      </c>
+      <c r="AK4">
+        <v>28</v>
+      </c>
       <c r="AL4">
         <v>27</v>
       </c>
       <c r="AM4">
         <v>27</v>
       </c>
+      <c r="AN4">
+        <v>28</v>
+      </c>
+      <c r="AO4">
+        <v>28</v>
+      </c>
       <c r="AP4">
         <v>27</v>
       </c>
+      <c r="AQ4">
+        <v>28</v>
+      </c>
+      <c r="AR4">
+        <v>28</v>
+      </c>
+      <c r="AS4">
+        <v>28</v>
+      </c>
+      <c r="AT4">
+        <v>28</v>
+      </c>
+      <c r="AU4">
+        <v>28</v>
+      </c>
+      <c r="AV4">
+        <v>28</v>
+      </c>
+      <c r="AW4">
+        <v>28</v>
+      </c>
+      <c r="AX4">
+        <v>28</v>
+      </c>
       <c r="AY4">
         <v>29</v>
       </c>
@@ -1974,15 +2364,60 @@
       <c r="BC4">
         <v>29</v>
       </c>
+      <c r="BD4">
+        <v>28</v>
+      </c>
       <c r="BE4">
         <v>29</v>
       </c>
+      <c r="BF4">
+        <v>28</v>
+      </c>
       <c r="BG4">
         <v>29</v>
       </c>
       <c r="BH4">
         <v>31</v>
       </c>
+      <c r="BI4">
+        <v>28</v>
+      </c>
+      <c r="BJ4">
+        <v>28</v>
+      </c>
+      <c r="BK4">
+        <v>28</v>
+      </c>
+      <c r="BL4">
+        <v>28</v>
+      </c>
+      <c r="BM4">
+        <v>28</v>
+      </c>
+      <c r="BN4">
+        <v>28</v>
+      </c>
+      <c r="BO4">
+        <v>28</v>
+      </c>
+      <c r="BP4">
+        <v>28</v>
+      </c>
+      <c r="BQ4">
+        <v>28</v>
+      </c>
+      <c r="BR4">
+        <v>28</v>
+      </c>
+      <c r="BS4">
+        <v>28</v>
+      </c>
+      <c r="BT4">
+        <v>28</v>
+      </c>
+      <c r="BU4">
+        <v>28</v>
+      </c>
       <c r="BV4">
         <v>32</v>
       </c>
@@ -1997,6 +2432,9 @@
       </c>
       <c r="BZ4">
         <v>31</v>
+      </c>
+      <c r="CA4">
+        <v>28</v>
       </c>
       <c r="CB4">
         <v>31</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE752D-BE5C-8F4A-886D-230F827D01D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DE9CE-9667-924B-85B8-7B6F212B9ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59180" yWindow="-13000" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CH18" sqref="CH18"/>
+    <sheetView tabSelected="1" topLeftCell="EJ1" workbookViewId="0">
+      <selection activeCell="EO3" sqref="EO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1769,12 +1769,57 @@
       <c r="CK2">
         <v>6</v>
       </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
       <c r="CR2">
         <v>6</v>
       </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
       <c r="CX2">
         <v>2</v>
       </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
       <c r="DC2">
         <v>2</v>
       </c>
@@ -1882,6 +1927,9 @@
       </c>
       <c r="EL2">
         <v>2</v>
+      </c>
+      <c r="EM2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:143" x14ac:dyDescent="0.2">
@@ -2116,12 +2164,57 @@
       <c r="CK3">
         <v>15</v>
       </c>
+      <c r="CL3">
+        <v>16</v>
+      </c>
+      <c r="CM3">
+        <v>16</v>
+      </c>
+      <c r="CN3">
+        <v>16</v>
+      </c>
+      <c r="CO3">
+        <v>16</v>
+      </c>
+      <c r="CP3">
+        <v>16</v>
+      </c>
+      <c r="CQ3">
+        <v>16</v>
+      </c>
       <c r="CR3">
         <v>15</v>
       </c>
+      <c r="CS3">
+        <v>16</v>
+      </c>
+      <c r="CT3">
+        <v>16</v>
+      </c>
+      <c r="CU3">
+        <v>16</v>
+      </c>
+      <c r="CV3">
+        <v>16</v>
+      </c>
+      <c r="CW3">
+        <v>16</v>
+      </c>
       <c r="CX3">
         <v>8</v>
       </c>
+      <c r="CY3">
+        <v>16</v>
+      </c>
+      <c r="CZ3">
+        <v>16</v>
+      </c>
+      <c r="DA3">
+        <v>16</v>
+      </c>
+      <c r="DB3">
+        <v>16</v>
+      </c>
       <c r="DC3">
         <v>8</v>
       </c>
@@ -2229,6 +2322,9 @@
       </c>
       <c r="EL3">
         <v>8</v>
+      </c>
+      <c r="EM3">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:143" x14ac:dyDescent="0.2">
@@ -2463,12 +2559,57 @@
       <c r="CK4">
         <v>29</v>
       </c>
+      <c r="CL4">
+        <v>28</v>
+      </c>
+      <c r="CM4">
+        <v>28</v>
+      </c>
+      <c r="CN4">
+        <v>28</v>
+      </c>
+      <c r="CO4">
+        <v>28</v>
+      </c>
+      <c r="CP4">
+        <v>28</v>
+      </c>
+      <c r="CQ4">
+        <v>28</v>
+      </c>
       <c r="CR4">
         <v>32</v>
       </c>
+      <c r="CS4">
+        <v>28</v>
+      </c>
+      <c r="CT4">
+        <v>28</v>
+      </c>
+      <c r="CU4">
+        <v>28</v>
+      </c>
+      <c r="CV4">
+        <v>28</v>
+      </c>
+      <c r="CW4">
+        <v>28</v>
+      </c>
       <c r="CX4">
         <v>17</v>
       </c>
+      <c r="CY4">
+        <v>28</v>
+      </c>
+      <c r="CZ4">
+        <v>28</v>
+      </c>
+      <c r="DA4">
+        <v>28</v>
+      </c>
+      <c r="DB4">
+        <v>28</v>
+      </c>
       <c r="DC4">
         <v>17</v>
       </c>
@@ -2576,6 +2717,9 @@
       </c>
       <c r="EL4">
         <v>17</v>
+      </c>
+      <c r="EM4">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:143" x14ac:dyDescent="0.2">

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DE9CE-9667-924B-85B8-7B6F212B9ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED9E027-5915-524F-8417-B58264D0AE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59180" yWindow="-13000" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67640" yWindow="-12660" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="174">
   <si>
     <t>NameType</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>Ratio fabricant Pointes pour cloueur en unité par M131</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -568,21 +571,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -605,31 +602,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9917600024414813E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9917600024414813E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9917600024414813E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9917600024414813E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EJ1" workbookViewId="0">
-      <selection activeCell="EO3" sqref="EO3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4042,7 +4023,432 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>17</v>
+      </c>
+      <c r="T9">
+        <v>18</v>
+      </c>
+      <c r="U9">
+        <v>19</v>
+      </c>
+      <c r="V9">
+        <v>20</v>
+      </c>
+      <c r="W9">
+        <v>21</v>
+      </c>
+      <c r="X9">
+        <v>22</v>
+      </c>
+      <c r="Y9">
+        <v>23</v>
+      </c>
+      <c r="Z9">
+        <v>24</v>
+      </c>
+      <c r="AA9">
+        <v>25</v>
+      </c>
+      <c r="AB9">
+        <v>26</v>
+      </c>
+      <c r="AC9">
+        <v>27</v>
+      </c>
+      <c r="AD9">
+        <v>28</v>
+      </c>
+      <c r="AE9">
+        <v>29</v>
+      </c>
+      <c r="AF9">
+        <v>30</v>
+      </c>
+      <c r="AG9">
+        <v>31</v>
+      </c>
+      <c r="AH9">
+        <v>32</v>
+      </c>
+      <c r="AI9">
+        <v>33</v>
+      </c>
+      <c r="AJ9">
+        <v>34</v>
+      </c>
+      <c r="AK9">
+        <v>35</v>
+      </c>
+      <c r="AL9">
+        <v>36</v>
+      </c>
+      <c r="AM9">
+        <v>37</v>
+      </c>
+      <c r="AN9">
+        <v>38</v>
+      </c>
+      <c r="AO9">
+        <v>39</v>
+      </c>
+      <c r="AP9">
+        <v>40</v>
+      </c>
+      <c r="AQ9">
+        <v>41</v>
+      </c>
+      <c r="AR9">
+        <v>42</v>
+      </c>
+      <c r="AS9">
+        <v>43</v>
+      </c>
+      <c r="AT9">
+        <v>44</v>
+      </c>
+      <c r="AU9">
+        <v>45</v>
+      </c>
+      <c r="AV9">
+        <v>46</v>
+      </c>
+      <c r="AW9">
+        <v>47</v>
+      </c>
+      <c r="AX9">
+        <v>48</v>
+      </c>
+      <c r="AY9">
+        <v>49</v>
+      </c>
+      <c r="AZ9">
+        <v>50</v>
+      </c>
+      <c r="BA9">
+        <v>51</v>
+      </c>
+      <c r="BB9">
+        <v>52</v>
+      </c>
+      <c r="BC9">
+        <v>53</v>
+      </c>
+      <c r="BD9">
+        <v>54</v>
+      </c>
+      <c r="BE9">
+        <v>55</v>
+      </c>
+      <c r="BF9">
+        <v>56</v>
+      </c>
+      <c r="BG9">
+        <v>57</v>
+      </c>
+      <c r="BH9">
+        <v>58</v>
+      </c>
+      <c r="BI9">
+        <v>59</v>
+      </c>
+      <c r="BJ9">
+        <v>60</v>
+      </c>
+      <c r="BK9">
+        <v>61</v>
+      </c>
+      <c r="BL9">
+        <v>62</v>
+      </c>
+      <c r="BM9">
+        <v>63</v>
+      </c>
+      <c r="BN9">
+        <v>64</v>
+      </c>
+      <c r="BO9">
+        <v>65</v>
+      </c>
+      <c r="BP9">
+        <v>66</v>
+      </c>
+      <c r="BQ9">
+        <v>67</v>
+      </c>
+      <c r="BR9">
+        <v>68</v>
+      </c>
+      <c r="BS9">
+        <v>69</v>
+      </c>
+      <c r="BT9">
+        <v>70</v>
+      </c>
+      <c r="BU9">
+        <v>71</v>
+      </c>
+      <c r="BV9">
+        <v>72</v>
+      </c>
+      <c r="BW9">
+        <v>73</v>
+      </c>
+      <c r="BX9">
+        <v>74</v>
+      </c>
+      <c r="BY9">
+        <v>75</v>
+      </c>
+      <c r="BZ9">
+        <v>76</v>
+      </c>
+      <c r="CA9">
+        <v>77</v>
+      </c>
+      <c r="CB9">
+        <v>78</v>
+      </c>
+      <c r="CC9">
+        <v>79</v>
+      </c>
+      <c r="CD9">
+        <v>80</v>
+      </c>
+      <c r="CE9">
+        <v>81</v>
+      </c>
+      <c r="CF9">
+        <v>82</v>
+      </c>
+      <c r="CG9">
+        <v>83</v>
+      </c>
+      <c r="CH9">
+        <v>84</v>
+      </c>
+      <c r="CI9">
+        <v>85</v>
+      </c>
+      <c r="CJ9">
+        <v>86</v>
+      </c>
+      <c r="CK9">
+        <v>87</v>
+      </c>
+      <c r="CL9">
+        <v>88</v>
+      </c>
+      <c r="CM9">
+        <v>89</v>
+      </c>
+      <c r="CN9">
+        <v>90</v>
+      </c>
+      <c r="CO9">
+        <v>91</v>
+      </c>
+      <c r="CP9">
+        <v>92</v>
+      </c>
+      <c r="CQ9">
+        <v>93</v>
+      </c>
+      <c r="CR9">
+        <v>94</v>
+      </c>
+      <c r="CS9">
+        <v>95</v>
+      </c>
+      <c r="CT9">
+        <v>96</v>
+      </c>
+      <c r="CU9">
+        <v>97</v>
+      </c>
+      <c r="CV9">
+        <v>98</v>
+      </c>
+      <c r="CW9">
+        <v>99</v>
+      </c>
+      <c r="CX9">
+        <v>100</v>
+      </c>
+      <c r="CY9">
+        <v>101</v>
+      </c>
+      <c r="CZ9">
+        <v>102</v>
+      </c>
+      <c r="DA9">
+        <v>103</v>
+      </c>
+      <c r="DB9">
+        <v>104</v>
+      </c>
+      <c r="DC9">
+        <v>105</v>
+      </c>
+      <c r="DD9">
+        <v>106</v>
+      </c>
+      <c r="DE9">
+        <v>107</v>
+      </c>
+      <c r="DF9">
+        <v>108</v>
+      </c>
+      <c r="DG9">
+        <v>109</v>
+      </c>
+      <c r="DH9">
+        <v>110</v>
+      </c>
+      <c r="DI9">
+        <v>111</v>
+      </c>
+      <c r="DJ9">
+        <v>112</v>
+      </c>
+      <c r="DK9">
+        <v>113</v>
+      </c>
+      <c r="DL9">
+        <v>114</v>
+      </c>
+      <c r="DM9">
+        <v>115</v>
+      </c>
+      <c r="DN9">
+        <v>116</v>
+      </c>
+      <c r="DO9">
+        <v>117</v>
+      </c>
+      <c r="DP9">
+        <v>118</v>
+      </c>
+      <c r="DQ9">
+        <v>119</v>
+      </c>
+      <c r="DR9">
+        <v>120</v>
+      </c>
+      <c r="DS9">
+        <v>121</v>
+      </c>
+      <c r="DT9">
+        <v>122</v>
+      </c>
+      <c r="DU9">
+        <v>123</v>
+      </c>
+      <c r="DV9">
+        <v>124</v>
+      </c>
+      <c r="DW9">
+        <v>125</v>
+      </c>
+      <c r="DX9">
+        <v>126</v>
+      </c>
+      <c r="DY9">
+        <v>127</v>
+      </c>
+      <c r="DZ9">
+        <v>128</v>
+      </c>
+      <c r="EA9">
+        <v>129</v>
+      </c>
+      <c r="EB9">
+        <v>130</v>
+      </c>
+      <c r="EC9">
+        <v>131</v>
+      </c>
+      <c r="ED9">
+        <v>132</v>
+      </c>
+      <c r="EE9">
+        <v>133</v>
+      </c>
+      <c r="EF9">
+        <v>134</v>
+      </c>
+      <c r="EG9">
+        <v>135</v>
+      </c>
+      <c r="EH9">
+        <v>136</v>
+      </c>
+      <c r="EI9">
+        <v>137</v>
+      </c>
+      <c r="EJ9">
+        <v>138</v>
+      </c>
+      <c r="EK9">
+        <v>139</v>
+      </c>
+      <c r="EL9">
+        <v>140</v>
+      </c>
+      <c r="EM9">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED9E027-5915-524F-8417-B58264D0AE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACFD13B-5C88-014C-9A29-F8EE9F359180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67640" yWindow="-12660" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68280" yWindow="-7060" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+      <selection activeCell="CF2" sqref="CF2:CF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1735,6 +1735,9 @@
       <c r="CE2">
         <v>6</v>
       </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
       <c r="CG2">
         <v>6</v>
       </c>
@@ -2130,6 +2133,9 @@
       <c r="CE3">
         <v>15</v>
       </c>
+      <c r="CF3">
+        <v>16</v>
+      </c>
       <c r="CG3">
         <v>15</v>
       </c>
@@ -2524,6 +2530,9 @@
       </c>
       <c r="CE4">
         <v>32</v>
+      </c>
+      <c r="CF4">
+        <v>28</v>
       </c>
       <c r="CG4">
         <v>30</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACFD13B-5C88-014C-9A29-F8EE9F359180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF066D-7D3B-5746-B6E4-7A89C7D13DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68280" yWindow="-7060" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="174">
   <si>
     <t>NameType</t>
   </si>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CF2" sqref="CF2:CF4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1534,23 +1534,23 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>142</v>
+      <c r="Q2">
+        <v>0</v>
       </c>
       <c r="R2" t="s">
         <v>154</v>
       </c>
-      <c r="S2" t="s">
-        <v>154</v>
-      </c>
-      <c r="T2" t="s">
-        <v>154</v>
-      </c>
-      <c r="U2" t="s">
-        <v>154</v>
-      </c>
-      <c r="V2" t="s">
-        <v>154</v>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1950,6 +1950,21 @@
       <c r="P3">
         <v>16</v>
       </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
+      <c r="T3">
+        <v>16</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
       <c r="W3">
         <v>16</v>
       </c>
@@ -2346,6 +2361,21 @@
         <v>28</v>
       </c>
       <c r="P4">
+        <v>28</v>
+      </c>
+      <c r="Q4">
+        <v>28</v>
+      </c>
+      <c r="S4">
+        <v>28</v>
+      </c>
+      <c r="T4">
+        <v>28</v>
+      </c>
+      <c r="U4">
+        <v>28</v>
+      </c>
+      <c r="V4">
         <v>28</v>
       </c>
       <c r="W4">

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF066D-7D3B-5746-B6E4-7A89C7D13DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081214B1-84F0-0A49-86AC-1593742CC4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68280" yWindow="-7060" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="77600" yWindow="-9640" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="174">
   <si>
     <t>NameType</t>
   </si>
@@ -952,7 +952,7 @@
   <dimension ref="A1:EM9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V4"/>
+      <selection activeCell="R1" sqref="R1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1540,17 +1540,17 @@
       <c r="R2" t="s">
         <v>154</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
+      <c r="S2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" t="s">
+        <v>154</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1953,18 +1953,6 @@
       <c r="Q3">
         <v>16</v>
       </c>
-      <c r="S3">
-        <v>16</v>
-      </c>
-      <c r="T3">
-        <v>16</v>
-      </c>
-      <c r="U3">
-        <v>16</v>
-      </c>
-      <c r="V3">
-        <v>16</v>
-      </c>
       <c r="W3">
         <v>16</v>
       </c>
@@ -2364,18 +2352,6 @@
         <v>28</v>
       </c>
       <c r="Q4">
-        <v>28</v>
-      </c>
-      <c r="S4">
-        <v>28</v>
-      </c>
-      <c r="T4">
-        <v>28</v>
-      </c>
-      <c r="U4">
-        <v>28</v>
-      </c>
-      <c r="V4">
         <v>28</v>
       </c>
       <c r="W4">

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081214B1-84F0-0A49-86AC-1593742CC4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229A06A2-28F2-9540-8DDE-7F5816332BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77600" yWindow="-9640" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60400" yWindow="-8880" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="175">
   <si>
     <t>NameType</t>
   </si>
@@ -499,9 +499,6 @@
     <t>Icons/video.png</t>
   </si>
   <si>
-    <t>Icons/list.bullet.be</t>
-  </si>
-  <si>
     <t>Classification Uniclass 3</t>
   </si>
   <si>
@@ -542,6 +539,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Icons/list.bullet.below.rectangle.png</t>
+  </si>
+  <si>
+    <t>Icons/book.png</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,7 @@
   <dimension ref="A1:EM9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:V1"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3672,7 +3675,7 @@
         <v>25</v>
       </c>
       <c r="AE7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF7" t="s">
         <v>27</v>
@@ -3720,7 +3723,7 @@
         <v>41</v>
       </c>
       <c r="AU7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AV7" t="s">
         <v>43</v>
@@ -3894,10 +3897,10 @@
         <v>99</v>
       </c>
       <c r="DA7" t="s">
+        <v>161</v>
+      </c>
+      <c r="DB7" t="s">
         <v>162</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>163</v>
       </c>
       <c r="DC7" t="s">
         <v>102</v>
@@ -3954,16 +3957,16 @@
         <v>119</v>
       </c>
       <c r="DU7" t="s">
+        <v>163</v>
+      </c>
+      <c r="DV7" t="s">
         <v>164</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>165</v>
       </c>
       <c r="DW7" t="s">
         <v>122</v>
       </c>
       <c r="DX7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DY7" t="s">
         <v>124</v>
@@ -3978,31 +3981,31 @@
         <v>127</v>
       </c>
       <c r="EC7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="ED7" t="s">
         <v>129</v>
       </c>
       <c r="EE7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="EF7" t="s">
         <v>133</v>
       </c>
       <c r="EG7" t="s">
+        <v>168</v>
+      </c>
+      <c r="EH7" t="s">
         <v>169</v>
       </c>
-      <c r="EH7" t="s">
+      <c r="EI7" t="s">
         <v>170</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>171</v>
       </c>
       <c r="EJ7" t="s">
         <v>135</v>
       </c>
       <c r="EK7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="EL7" t="s">
         <v>137</v>
@@ -4022,7 +4025,7 @@
         <v>158</v>
       </c>
       <c r="S8" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="T8" t="s">
         <v>156</v>
@@ -4031,7 +4034,7 @@
         <v>157</v>
       </c>
       <c r="V8" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:143" x14ac:dyDescent="0.2">
@@ -4039,7 +4042,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9">
         <v>1</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229A06A2-28F2-9540-8DDE-7F5816332BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A014D11-FC6B-A24C-AEDB-57B5BF32D1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60400" yWindow="-8880" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="176">
   <si>
     <t>NameType</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>Icons/book.png</t>
+  </si>
+  <si>
+    <t>iconId</t>
   </si>
 </sst>
 </file>
@@ -952,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EM9"/>
+  <dimension ref="A1:EM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4468,6 +4471,29 @@
         <v>141</v>
       </c>
     </row>
+    <row r="10" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A014D11-FC6B-A24C-AEDB-57B5BF32D1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183108FE-1D26-B846-90FB-46D702AA589D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60400" yWindow="-8880" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4028,7 +4028,7 @@
         <v>158</v>
       </c>
       <c r="S8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T8" t="s">
         <v>156</v>
@@ -4037,7 +4037,7 @@
         <v>157</v>
       </c>
       <c r="V8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:143" x14ac:dyDescent="0.2">

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183108FE-1D26-B846-90FB-46D702AA589D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D8424A-C92D-3042-9B8D-62830D86E0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60400" yWindow="-8880" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1555,14 +1555,14 @@
       <c r="U2" t="s">
         <v>154</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
         <v>154</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1959,10 +1959,10 @@
       <c r="Q3">
         <v>16</v>
       </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
       <c r="W3">
-        <v>16</v>
-      </c>
-      <c r="X3">
         <v>16</v>
       </c>
       <c r="Y3">
@@ -2360,10 +2360,10 @@
       <c r="Q4">
         <v>28</v>
       </c>
+      <c r="V4">
+        <v>28</v>
+      </c>
       <c r="W4">
-        <v>28</v>
-      </c>
-      <c r="X4">
         <v>28</v>
       </c>
       <c r="Y4">
@@ -4036,7 +4036,7 @@
       <c r="U8" t="s">
         <v>157</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>174</v>
       </c>
     </row>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D8424A-C92D-3042-9B8D-62830D86E0B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC730C8-D39F-7F4C-B950-A103220CDE9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60400" yWindow="-8880" windowWidth="26420" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46700" yWindow="-15320" windowWidth="57680" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="186">
   <si>
     <t>NameType</t>
   </si>
@@ -548,6 +548,36 @@
   </si>
   <si>
     <t>iconId</t>
+  </si>
+  <si>
+    <t>lien inter colone</t>
+  </si>
+  <si>
+    <t>Parment(s) face 1</t>
+  </si>
+  <si>
+    <t>Parment(s) face 2</t>
+  </si>
+  <si>
+    <t>isolant(s)</t>
+  </si>
+  <si>
+    <t>Mortier colle</t>
+  </si>
+  <si>
+    <t>Suspentes appuis</t>
+  </si>
+  <si>
+    <t>Enduits et bandes</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>ossature</t>
+  </si>
+  <si>
+    <t>accessoires</t>
   </si>
 </sst>
 </file>
@@ -955,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EM10"/>
+  <dimension ref="A1:EM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1031,17 @@
     <col min="37" max="37" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="31" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="31" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="23.5" bestFit="1" customWidth="1"/>
@@ -1014,6 +1054,14 @@
     <col min="60" max="60" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="48" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="48.1640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="44" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="52.6640625" bestFit="1" customWidth="1"/>
@@ -1034,12 +1082,18 @@
     <col min="88" max="88" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="17.5" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20.5" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="23" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="29.5" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="22" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="7" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="27.83203125" customWidth="1"/>
     <col min="104" max="104" width="32" customWidth="1"/>
     <col min="105" max="105" width="29.5" customWidth="1"/>
@@ -1048,10 +1102,29 @@
     <col min="108" max="108" width="30.1640625" customWidth="1"/>
     <col min="109" max="109" width="26.5" customWidth="1"/>
     <col min="110" max="110" width="26.6640625" customWidth="1"/>
+    <col min="111" max="111" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="27.33203125" customWidth="1"/>
     <col min="113" max="113" width="32.33203125" customWidth="1"/>
     <col min="114" max="114" width="29.83203125" customWidth="1"/>
+    <col min="115" max="115" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="43" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="132" width="24" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="17.5" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="41.1640625" bestFit="1" customWidth="1"/>
@@ -1796,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="CX2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CY2">
         <v>0</v>
@@ -1811,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DD2">
         <v>2</v>
@@ -1832,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="DJ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DK2">
         <v>2</v>
@@ -1844,43 +1917,43 @@
         <v>2</v>
       </c>
       <c r="DN2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DO2">
         <v>2</v>
       </c>
       <c r="DP2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
         <v>2</v>
       </c>
       <c r="DR2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DS2">
         <v>2</v>
       </c>
       <c r="DT2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DU2">
         <v>2</v>
       </c>
       <c r="DV2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW2">
         <v>2</v>
       </c>
       <c r="DX2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DY2">
         <v>2</v>
       </c>
       <c r="DZ2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EA2">
         <v>2</v>
@@ -1889,31 +1962,31 @@
         <v>2</v>
       </c>
       <c r="EC2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ED2">
         <v>2</v>
       </c>
       <c r="EE2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EF2">
         <v>2</v>
       </c>
       <c r="EG2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EH2">
         <v>2</v>
       </c>
       <c r="EI2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
         <v>2</v>
       </c>
       <c r="EK2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EL2">
         <v>2</v>
@@ -2197,7 +2270,7 @@
         <v>16</v>
       </c>
       <c r="CX3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="CY3">
         <v>16</v>
@@ -2212,7 +2285,7 @@
         <v>16</v>
       </c>
       <c r="DC3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DD3">
         <v>8</v>
@@ -2233,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="DJ3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DK3">
         <v>8</v>
@@ -2245,43 +2318,43 @@
         <v>8</v>
       </c>
       <c r="DN3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DO3">
         <v>8</v>
       </c>
       <c r="DP3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DQ3">
         <v>8</v>
       </c>
       <c r="DR3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DS3">
         <v>8</v>
       </c>
       <c r="DT3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DU3">
         <v>8</v>
       </c>
       <c r="DV3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DW3">
         <v>8</v>
       </c>
       <c r="DX3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DY3">
         <v>8</v>
       </c>
       <c r="DZ3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="EA3">
         <v>8</v>
@@ -2290,31 +2363,31 @@
         <v>8</v>
       </c>
       <c r="EC3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="ED3">
         <v>8</v>
       </c>
       <c r="EE3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="EF3">
         <v>8</v>
       </c>
       <c r="EG3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="EH3">
         <v>8</v>
       </c>
       <c r="EI3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="EJ3">
         <v>8</v>
       </c>
       <c r="EK3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="EL3">
         <v>8</v>
@@ -2598,7 +2671,7 @@
         <v>28</v>
       </c>
       <c r="CX4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="CY4">
         <v>28</v>
@@ -2613,7 +2686,7 @@
         <v>28</v>
       </c>
       <c r="DC4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DD4">
         <v>17</v>
@@ -2634,7 +2707,7 @@
         <v>17</v>
       </c>
       <c r="DJ4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DK4">
         <v>17</v>
@@ -2646,43 +2719,43 @@
         <v>17</v>
       </c>
       <c r="DN4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DO4">
         <v>17</v>
       </c>
       <c r="DP4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DQ4">
         <v>17</v>
       </c>
       <c r="DR4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DS4">
         <v>17</v>
       </c>
       <c r="DT4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DU4">
         <v>17</v>
       </c>
       <c r="DV4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DW4">
         <v>17</v>
       </c>
       <c r="DX4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DY4">
         <v>17</v>
       </c>
       <c r="DZ4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="EA4">
         <v>17</v>
@@ -2691,31 +2764,31 @@
         <v>17</v>
       </c>
       <c r="EC4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="ED4">
         <v>17</v>
       </c>
       <c r="EE4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="EF4">
         <v>17</v>
       </c>
       <c r="EG4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="EH4">
         <v>17</v>
       </c>
       <c r="EI4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="EJ4">
         <v>17</v>
       </c>
       <c r="EK4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="EL4">
         <v>17</v>
@@ -4492,6 +4565,116 @@
       </c>
       <c r="V10">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>177</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>178</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>178</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>178</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>183</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>183</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>183</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>183</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>184</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>184</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>184</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>180</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>180</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>181</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>181</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>182</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>182</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>182</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>182</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>182</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>185</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>185</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>185</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>185</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>185</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>185</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>185</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC730C8-D39F-7F4C-B950-A103220CDE9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32807BD6-DF97-0E4E-9FDD-443EA1E61684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46700" yWindow="-15320" windowWidth="57680" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45360" yWindow="-14140" windowWidth="57680" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
+      <selection activeCell="EU3" sqref="EU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2135,16 +2135,16 @@
         <v>16</v>
       </c>
       <c r="BE3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BF3">
         <v>16</v>
       </c>
       <c r="BG3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BH3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BI3">
         <v>16</v>
@@ -2186,52 +2186,52 @@
         <v>16</v>
       </c>
       <c r="BV3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BW3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BX3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BY3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BZ3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CA3">
         <v>16</v>
       </c>
       <c r="CB3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CC3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CD3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CE3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CF3">
         <v>16</v>
       </c>
       <c r="CG3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CH3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CI3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CJ3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CK3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CL3">
         <v>16</v>
@@ -2252,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="CR3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CS3">
         <v>16</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32807BD6-DF97-0E4E-9FDD-443EA1E61684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A55151-BC45-A04D-8850-89D60C648D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45360" yWindow="-14140" windowWidth="57680" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
-      <selection activeCell="EU3" sqref="EU3"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2066,7 +2066,7 @@
         <v>16</v>
       </c>
       <c r="AH3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI3">
         <v>16</v>
@@ -2078,10 +2078,10 @@
         <v>16</v>
       </c>
       <c r="AL3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AM3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AN3">
         <v>16</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A55151-BC45-A04D-8850-89D60C648D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367C50C-6181-0D43-AB2B-67621213DBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45360" yWindow="-14140" windowWidth="57680" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2090,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="AP3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AQ3">
         <v>16</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367C50C-6181-0D43-AB2B-67621213DBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC690E9-AD3B-A446-A579-0DF089466102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45360" yWindow="-14140" windowWidth="57680" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="DE1" workbookViewId="0">
+      <selection activeCell="DK25" sqref="DK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2117,19 +2117,19 @@
         <v>16</v>
       </c>
       <c r="AY3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BC3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BD3">
         <v>16</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682A2AAB-3A64-9748-83EE-BBBC550BE3D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F764FF7-D382-D94B-80D3-84B3170838CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44860" yWindow="-7260" windowWidth="38700" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
-      <selection activeCell="EJ3" sqref="EJ3"/>
+    <sheetView tabSelected="1" topLeftCell="GH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="GW32" sqref="GW32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1301,6 +1301,7 @@
     <col min="81" max="81" width="38.5" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="17.5" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -1313,6 +1314,10 @@
     <col min="154" max="154" width="14" bestFit="1" customWidth="1"/>
     <col min="155" max="155" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="203" max="203" width="14" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -3211,7 +3216,7 @@
         <v>8</v>
       </c>
       <c r="EJ3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="EK3">
         <v>8</v>
@@ -7334,5 +7339,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F764FF7-D382-D94B-80D3-84B3170838CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD0989-8C65-124C-B11D-E72BB709F5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44860" yWindow="-7260" windowWidth="38700" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57920" yWindow="-10020" windowWidth="35940" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="292">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -880,14 +880,29 @@
     <t>Ratio fabricant Pointes pour cloueur en unité par M131</t>
   </si>
   <si>
-    <t>labor.skin3</t>
+    <t>Réf.Main doeuvre</t>
+  </si>
+  <si>
+    <t>Pose parment(s) 2ème face</t>
+  </si>
+  <si>
+    <t>Pose ossatures</t>
+  </si>
+  <si>
+    <t>Pose isolant</t>
+  </si>
+  <si>
+    <t>Tracing &amp; implantation</t>
+  </si>
+  <si>
+    <t>Approvisionnement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +920,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -945,11 +967,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,17 +1313,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="GW32" sqref="GW32"/>
+    <sheetView tabSelected="1" topLeftCell="GW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="HI9" sqref="HI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="17" max="17" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="17.5" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -1314,10 +1358,30 @@
     <col min="154" max="154" width="14" bestFit="1" customWidth="1"/>
     <col min="155" max="155" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="18.5" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="19" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="14" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="178" max="179" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="16" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="10" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="15" bestFit="1" customWidth="1"/>
     <col min="202" max="202" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="203" max="203" width="14" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -2218,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ2">
         <v>5</v>
@@ -2524,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="EN2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EO2">
         <v>0</v>
@@ -2538,8 +2602,8 @@
       <c r="ER2">
         <v>0</v>
       </c>
-      <c r="ES2">
-        <v>0</v>
+      <c r="ES2" s="2">
+        <v>3</v>
       </c>
       <c r="ET2">
         <v>0</v>
@@ -2562,8 +2626,8 @@
       <c r="EZ2">
         <v>0</v>
       </c>
-      <c r="FA2">
-        <v>0</v>
+      <c r="FA2" s="2">
+        <v>3</v>
       </c>
       <c r="FB2">
         <v>0</v>
@@ -2619,8 +2683,8 @@
       <c r="FS2">
         <v>0</v>
       </c>
-      <c r="FT2">
-        <v>0</v>
+      <c r="FT2" s="2">
+        <v>3</v>
       </c>
       <c r="FU2">
         <v>0</v>
@@ -2658,8 +2722,8 @@
       <c r="GF2">
         <v>0</v>
       </c>
-      <c r="GG2">
-        <v>0</v>
+      <c r="GG2" s="2">
+        <v>3</v>
       </c>
       <c r="GH2">
         <v>0</v>
@@ -2737,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HH2">
-        <v>0</v>
-      </c>
-      <c r="HI2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>3</v>
       </c>
       <c r="HJ2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HK2">
         <v>0</v>
@@ -2922,7 +2986,7 @@
         <v>16</v>
       </c>
       <c r="AP3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ3">
         <v>17</v>
@@ -3228,7 +3292,7 @@
         <v>8</v>
       </c>
       <c r="EN3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="EO3">
         <v>16</v>
@@ -3242,8 +3306,8 @@
       <c r="ER3">
         <v>16</v>
       </c>
-      <c r="ES3">
-        <v>16</v>
+      <c r="ES3" s="2">
+        <v>8</v>
       </c>
       <c r="ET3">
         <v>16</v>
@@ -3266,8 +3330,8 @@
       <c r="EZ3">
         <v>16</v>
       </c>
-      <c r="FA3">
-        <v>16</v>
+      <c r="FA3" s="2">
+        <v>8</v>
       </c>
       <c r="FB3">
         <v>16</v>
@@ -3323,8 +3387,8 @@
       <c r="FS3">
         <v>16</v>
       </c>
-      <c r="FT3">
-        <v>16</v>
+      <c r="FT3" s="2">
+        <v>8</v>
       </c>
       <c r="FU3">
         <v>16</v>
@@ -3362,8 +3426,8 @@
       <c r="GF3">
         <v>16</v>
       </c>
-      <c r="GG3">
-        <v>16</v>
+      <c r="GG3" s="2">
+        <v>8</v>
       </c>
       <c r="GH3">
         <v>16</v>
@@ -3441,16 +3505,16 @@
         <v>16</v>
       </c>
       <c r="HG3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="HH3">
-        <v>16</v>
-      </c>
-      <c r="HI3">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="HI3" s="2">
+        <v>8</v>
       </c>
       <c r="HJ3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="HK3">
         <v>16</v>
@@ -3626,7 +3690,7 @@
         <v>28</v>
       </c>
       <c r="AP4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ4">
         <v>27</v>
@@ -3932,7 +3996,7 @@
         <v>17</v>
       </c>
       <c r="EN4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="EO4">
         <v>28</v>
@@ -3946,8 +4010,8 @@
       <c r="ER4">
         <v>28</v>
       </c>
-      <c r="ES4">
-        <v>28</v>
+      <c r="ES4" s="2">
+        <v>18</v>
       </c>
       <c r="ET4">
         <v>28</v>
@@ -3970,8 +4034,8 @@
       <c r="EZ4">
         <v>28</v>
       </c>
-      <c r="FA4">
-        <v>28</v>
+      <c r="FA4" s="2">
+        <v>18</v>
       </c>
       <c r="FB4">
         <v>28</v>
@@ -4027,8 +4091,8 @@
       <c r="FS4">
         <v>28</v>
       </c>
-      <c r="FT4">
-        <v>28</v>
+      <c r="FT4" s="2">
+        <v>18</v>
       </c>
       <c r="FU4">
         <v>28</v>
@@ -4066,8 +4130,8 @@
       <c r="GF4">
         <v>28</v>
       </c>
-      <c r="GG4">
-        <v>28</v>
+      <c r="GG4" s="2">
+        <v>18</v>
       </c>
       <c r="GH4">
         <v>28</v>
@@ -4145,16 +4209,16 @@
         <v>28</v>
       </c>
       <c r="HG4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="HH4">
-        <v>28</v>
-      </c>
-      <c r="HI4">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="HI4" s="2">
+        <v>18</v>
       </c>
       <c r="HJ4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="HK4">
         <v>28</v>
@@ -6134,7 +6198,7 @@
         <v>141</v>
       </c>
       <c r="EN7" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="EO7" t="s">
         <v>143</v>
@@ -6149,7 +6213,7 @@
         <v>146</v>
       </c>
       <c r="ES7" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="ET7" t="s">
         <v>148</v>
@@ -6173,7 +6237,7 @@
         <v>154</v>
       </c>
       <c r="FA7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="FB7" t="s">
         <v>156</v>
@@ -6227,7 +6291,7 @@
         <v>172</v>
       </c>
       <c r="FS7" t="s">
-        <v>173</v>
+        <v>288</v>
       </c>
       <c r="FT7" t="s">
         <v>174</v>
@@ -6269,7 +6333,7 @@
         <v>186</v>
       </c>
       <c r="GG7" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="GH7" t="s">
         <v>188</v>
@@ -6347,13 +6411,13 @@
         <v>212</v>
       </c>
       <c r="HG7" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="HH7" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="HI7" t="s">
-        <v>155</v>
+        <v>287</v>
       </c>
       <c r="HJ7" t="s">
         <v>216</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD0989-8C65-124C-B11D-E72BB709F5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F398B-6FDF-CD4A-B5B8-62A0E192A8FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57920" yWindow="-10020" windowWidth="35940" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57900" yWindow="-10020" windowWidth="35940" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab" sheetId="1" r:id="rId1"/>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GW1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="HI9" sqref="HI9"/>
+    <sheetView tabSelected="1" topLeftCell="HS1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CV1" sqref="CV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1342,6 +1342,8 @@
     <col min="87" max="87" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="22" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="22.6640625" bestFit="1" customWidth="1"/>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F398B-6FDF-CD4A-B5B8-62A0E192A8FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E2BD3-C873-0146-AF38-DF671BD08198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57900" yWindow="-10020" windowWidth="35940" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HS1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CV1" sqref="CV1"/>
+    <sheetView tabSelected="1" topLeftCell="HV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="IC30" sqref="IC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1344,6 +1344,8 @@
     <col min="90" max="90" width="17.5" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="29.5" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="22" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -2589,7 +2591,7 @@
       <c r="EM2">
         <v>2</v>
       </c>
-      <c r="EN2">
+      <c r="EN2" s="2">
         <v>3</v>
       </c>
       <c r="EO2">
@@ -2811,7 +2813,7 @@
       <c r="HI2" s="2">
         <v>3</v>
       </c>
-      <c r="HJ2">
+      <c r="HJ2" s="2">
         <v>3</v>
       </c>
       <c r="HK2">
@@ -3293,8 +3295,8 @@
       <c r="EM3">
         <v>8</v>
       </c>
-      <c r="EN3">
-        <v>8</v>
+      <c r="EN3" s="2">
+        <v>9</v>
       </c>
       <c r="EO3">
         <v>16</v>
@@ -3309,7 +3311,7 @@
         <v>16</v>
       </c>
       <c r="ES3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="ET3">
         <v>16</v>
@@ -3333,7 +3335,7 @@
         <v>16</v>
       </c>
       <c r="FA3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="FB3">
         <v>16</v>
@@ -3390,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="FT3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="FU3">
         <v>16</v>
@@ -3429,7 +3431,7 @@
         <v>16</v>
       </c>
       <c r="GG3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="GH3">
         <v>16</v>
@@ -3515,8 +3517,8 @@
       <c r="HI3" s="2">
         <v>8</v>
       </c>
-      <c r="HJ3">
-        <v>8</v>
+      <c r="HJ3" s="2">
+        <v>9</v>
       </c>
       <c r="HK3">
         <v>16</v>
@@ -3997,8 +3999,8 @@
       <c r="EM4">
         <v>17</v>
       </c>
-      <c r="EN4">
-        <v>18</v>
+      <c r="EN4" s="2">
+        <v>19</v>
       </c>
       <c r="EO4">
         <v>28</v>
@@ -4013,7 +4015,7 @@
         <v>28</v>
       </c>
       <c r="ES4" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="ET4">
         <v>28</v>
@@ -4037,7 +4039,7 @@
         <v>28</v>
       </c>
       <c r="FA4" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="FB4">
         <v>28</v>
@@ -4094,7 +4096,7 @@
         <v>28</v>
       </c>
       <c r="FT4" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="FU4">
         <v>28</v>
@@ -4133,7 +4135,7 @@
         <v>28</v>
       </c>
       <c r="GG4" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="GH4">
         <v>28</v>
@@ -4219,8 +4221,8 @@
       <c r="HI4" s="2">
         <v>18</v>
       </c>
-      <c r="HJ4">
-        <v>18</v>
+      <c r="HJ4" s="2">
+        <v>19</v>
       </c>
       <c r="HK4">
         <v>28</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E2BD3-C873-0146-AF38-DF671BD08198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E2CA6-EEC1-7B42-8B57-888E8DB91176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57900" yWindow="-10020" windowWidth="35940" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HV1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="IC30" sqref="IC30"/>
+    <sheetView tabSelected="1" topLeftCell="EE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EN10" sqref="EN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3509,13 +3509,13 @@
         <v>16</v>
       </c>
       <c r="HG3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HH3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HI3" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HJ3" s="2">
         <v>9</v>
@@ -4213,13 +4213,13 @@
         <v>28</v>
       </c>
       <c r="HG4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="HH4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="HI4" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="HJ4" s="2">
         <v>19</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E2CA6-EEC1-7B42-8B57-888E8DB91176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64754673-2673-AF4A-85D7-3DD73FEB1343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57900" yWindow="-10020" windowWidth="35940" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EN10" sqref="EN10"/>
+    <sheetView tabSelected="1" topLeftCell="DW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EJ4" sqref="EJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1346,6 +1346,7 @@
     <col min="101" max="101" width="22" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -3284,7 +3285,7 @@
         <v>8</v>
       </c>
       <c r="EJ3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="EK3">
         <v>8</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64754673-2673-AF4A-85D7-3DD73FEB1343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CBF1EC-16DD-FB43-975D-C32832A7C3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57900" yWindow="-10020" windowWidth="35940" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="291">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -872,9 +872,6 @@
   </si>
   <si>
     <t>Libellé Vis auto-perceuse 3</t>
-  </si>
-  <si>
-    <t>Ratio fabricant Vis auto-tarodeuse en unité par M131</t>
   </si>
   <si>
     <t>Ratio fabricant Pointes pour cloueur en unité par M131</t>
@@ -1313,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DW1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EJ4" sqref="EJ4"/>
+    <sheetView tabSelected="1" topLeftCell="DU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EJ8" sqref="EJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6191,19 +6188,19 @@
         <v>283</v>
       </c>
       <c r="EJ7" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="EK7" t="s">
         <v>139</v>
       </c>
       <c r="EL7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="EM7" t="s">
         <v>141</v>
       </c>
       <c r="EN7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="EO7" t="s">
         <v>143</v>
@@ -6218,7 +6215,7 @@
         <v>146</v>
       </c>
       <c r="ES7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="ET7" t="s">
         <v>148</v>
@@ -6242,7 +6239,7 @@
         <v>154</v>
       </c>
       <c r="FA7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="FB7" t="s">
         <v>156</v>
@@ -6296,7 +6293,7 @@
         <v>172</v>
       </c>
       <c r="FS7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="FT7" t="s">
         <v>174</v>
@@ -6416,13 +6413,13 @@
         <v>212</v>
       </c>
       <c r="HG7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="HH7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="HI7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="HJ7" t="s">
         <v>216</v>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CBF1EC-16DD-FB43-975D-C32832A7C3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC91130-9EC4-AD49-827C-63F2FDBB3284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57900" yWindow="-10020" windowWidth="35940" windowHeight="23880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="32020" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="294">
   <si>
     <t>Unnamed: 0</t>
   </si>
   <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
     <t>NameType</t>
   </si>
   <si>
@@ -451,21 +454,6 @@
     <t>ID pose ouvrage</t>
   </si>
   <si>
-    <t>labor.isolationPUSub</t>
-  </si>
-  <si>
-    <t>labor.isolationPUInt</t>
-  </si>
-  <si>
-    <t>labor.isolationHRatio</t>
-  </si>
-  <si>
-    <t>labor.isolationJRatio</t>
-  </si>
-  <si>
-    <t>labor.isolation</t>
-  </si>
-  <si>
     <t>face1Ext.unit_price</t>
   </si>
   <si>
@@ -475,78 +463,6 @@
     <t>face1Ext.thickness</t>
   </si>
   <si>
-    <t>labor.skin2PUSub</t>
-  </si>
-  <si>
-    <t>labor.skin2PUInt</t>
-  </si>
-  <si>
-    <t>labor.skin2HRatio</t>
-  </si>
-  <si>
-    <t>labor.skin2JRatio</t>
-  </si>
-  <si>
-    <t>labor.skin2</t>
-  </si>
-  <si>
-    <t>labor.frameworkPUSub</t>
-  </si>
-  <si>
-    <t>labor.frameworkPUInt</t>
-  </si>
-  <si>
-    <t>labor.supplyHRatio</t>
-  </si>
-  <si>
-    <t>labor.tracingHRatio</t>
-  </si>
-  <si>
-    <t>labor.frameworkHRatio</t>
-  </si>
-  <si>
-    <t>labor.skin1HRatio</t>
-  </si>
-  <si>
-    <t>labor.cleaningHRatio</t>
-  </si>
-  <si>
-    <t>labor.totalHdworkHRatio</t>
-  </si>
-  <si>
-    <t>labor.jointHRatio</t>
-  </si>
-  <si>
-    <t>labor.totalLaborHRatio</t>
-  </si>
-  <si>
-    <t>labor.supplyJRatio</t>
-  </si>
-  <si>
-    <t>labor.tracingJRatio</t>
-  </si>
-  <si>
-    <t>labor.frameworkJRatio</t>
-  </si>
-  <si>
-    <t>labor.skin1JRatio</t>
-  </si>
-  <si>
-    <t>labor.cleaningJRatio</t>
-  </si>
-  <si>
-    <t>labor.totalHdworkJRatio</t>
-  </si>
-  <si>
-    <t>labor.jointJRatio</t>
-  </si>
-  <si>
-    <t>labor.totalLaborJRatio</t>
-  </si>
-  <si>
-    <t>labor.framework</t>
-  </si>
-  <si>
     <t>face1Ext.height</t>
   </si>
   <si>
@@ -565,341 +481,434 @@
     <t>name</t>
   </si>
   <si>
+    <t>hdworkInfo</t>
+  </si>
+  <si>
+    <t>articleInfo</t>
+  </si>
+  <si>
+    <t>photoUrl</t>
+  </si>
+  <si>
+    <t>face1Ext.id</t>
+  </si>
+  <si>
+    <t>face1Ext.name</t>
+  </si>
+  <si>
+    <t>face1Ext.default_code</t>
+  </si>
+  <si>
+    <t>face1Ext.categ_id</t>
+  </si>
+  <si>
+    <t>face1Ext.list_price</t>
+  </si>
+  <si>
+    <t>face1Ext.produce_delay</t>
+  </si>
+  <si>
+    <t>face1Ext.barcode</t>
+  </si>
+  <si>
+    <t>face1Ext.color</t>
+  </si>
+  <si>
+    <t>face1Ext.description</t>
+  </si>
+  <si>
+    <t>face1Ext.photoUrl</t>
+  </si>
+  <si>
+    <t>face1Ext.conditionnement</t>
+  </si>
+  <si>
+    <t>face1Ext.additionalInformation</t>
+  </si>
+  <si>
+    <t>face1Ext.productFile</t>
+  </si>
+  <si>
+    <t>face1Ext.dopFile</t>
+  </si>
+  <si>
+    <t>face1Ext.fdesFile</t>
+  </si>
+  <si>
+    <t>face1Ext.complementaryInformation</t>
+  </si>
+  <si>
+    <t>face1Ext.application</t>
+  </si>
+  <si>
+    <t>face1Ext.pivotUnity</t>
+  </si>
+  <si>
+    <t>face1Ext.billingUnity</t>
+  </si>
+  <si>
+    <t>face1Ext.conditionningUnity</t>
+  </si>
+  <si>
+    <t>face1Ext.manufacturer</t>
+  </si>
+  <si>
+    <t>face1Ext.manufacturerSite</t>
+  </si>
+  <si>
+    <t>face1Ext.group</t>
+  </si>
+  <si>
+    <t>face1Ext.category</t>
+  </si>
+  <si>
+    <t>face1Ext.subcategory</t>
+  </si>
+  <si>
+    <t>face1Ext.sets</t>
+  </si>
+  <si>
+    <t>labor_isolationPUSub</t>
+  </si>
+  <si>
+    <t>labor_isolationPUInt</t>
+  </si>
+  <si>
+    <t>labor_isolationHRatio</t>
+  </si>
+  <si>
+    <t>labor_isolationJRatio</t>
+  </si>
+  <si>
+    <t>labor_isolation</t>
+  </si>
+  <si>
+    <t>labor_skin2PUSub</t>
+  </si>
+  <si>
+    <t>labor_skin2PUInt</t>
+  </si>
+  <si>
+    <t>labor_skin2HRatio</t>
+  </si>
+  <si>
+    <t>labor_skin2JRatio</t>
+  </si>
+  <si>
+    <t>labor_skin2</t>
+  </si>
+  <si>
+    <t>labor_frameworkPUSub</t>
+  </si>
+  <si>
+    <t>labor_frameworkPUInt</t>
+  </si>
+  <si>
+    <t>labor_supplyHRatio</t>
+  </si>
+  <si>
+    <t>labor_tracingHRatio</t>
+  </si>
+  <si>
+    <t>labor_frameworkHRatio</t>
+  </si>
+  <si>
+    <t>labor_skin1HRatio</t>
+  </si>
+  <si>
+    <t>labor_cleaningHRatio</t>
+  </si>
+  <si>
+    <t>labor_totalHdworkHRatio</t>
+  </si>
+  <si>
+    <t>labor_jointHRatio</t>
+  </si>
+  <si>
+    <t>labor_totalLaborHRatio</t>
+  </si>
+  <si>
+    <t>labor_supplyJRatio</t>
+  </si>
+  <si>
+    <t>labor_tracingJRatio</t>
+  </si>
+  <si>
+    <t>labor_frameworkJRatio</t>
+  </si>
+  <si>
+    <t>labor_skin1JRatio</t>
+  </si>
+  <si>
+    <t>labor_cleaningJRatio</t>
+  </si>
+  <si>
+    <t>labor_totalHdworkJRatio</t>
+  </si>
+  <si>
+    <t>labor_jointJRatio</t>
+  </si>
+  <si>
+    <t>labor_totalLaborJRatio</t>
+  </si>
+  <si>
+    <t>labor_framework</t>
+  </si>
+  <si>
+    <t>labor_d</t>
+  </si>
+  <si>
+    <t>labor_id</t>
+  </si>
+  <si>
+    <t>labor_BIMid</t>
+  </si>
+  <si>
+    <t>labor_name</t>
+  </si>
+  <si>
+    <t>labor_categ_id</t>
+  </si>
+  <si>
+    <t>labor_laborInfo</t>
+  </si>
+  <si>
+    <t>labor_totalHdwork</t>
+  </si>
+  <si>
+    <t>labor_totalPUJoint</t>
+  </si>
+  <si>
+    <t>labor_jointPerMM</t>
+  </si>
+  <si>
+    <t>labor_totalHdworkSub</t>
+  </si>
+  <si>
+    <t>labor_supplyPUSub</t>
+  </si>
+  <si>
+    <t>labor_tracingPUSub</t>
+  </si>
+  <si>
+    <t>labor_skin1PUSub</t>
+  </si>
+  <si>
+    <t>labor_cleaningPUSub</t>
+  </si>
+  <si>
+    <t>labor_totalHdworkInt</t>
+  </si>
+  <si>
+    <t>labor_supplyPUInt</t>
+  </si>
+  <si>
+    <t>labor_tracingPUInt</t>
+  </si>
+  <si>
+    <t>labor_skin1PUInt</t>
+  </si>
+  <si>
+    <t>labor_cleaningPUInt</t>
+  </si>
+  <si>
+    <t>labor_PUJointSub</t>
+  </si>
+  <si>
+    <t>labor_totalJointSub</t>
+  </si>
+  <si>
+    <t>labor_PUJointInt</t>
+  </si>
+  <si>
+    <t>labor_totalJointInt</t>
+  </si>
+  <si>
+    <t>labor_totalLaborSub</t>
+  </si>
+  <si>
+    <t>labor_totalLaborInt</t>
+  </si>
+  <si>
+    <t>labor_ratioSubInt</t>
+  </si>
+  <si>
+    <t>labor_hdworkerPH</t>
+  </si>
+  <si>
+    <t>labor_jointerPH</t>
+  </si>
+  <si>
+    <t>labor_HJRatio</t>
+  </si>
+  <si>
+    <t>labor_supply</t>
+  </si>
+  <si>
+    <t>labor_tracing</t>
+  </si>
+  <si>
+    <t>labor_skin1</t>
+  </si>
+  <si>
+    <t>labor_cleaning</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>dbFields</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>iconId</t>
+  </si>
+  <si>
+    <t>lien inter colone</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Réf. Ouvrage</t>
+  </si>
+  <si>
+    <t>Libellé</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>Famille</t>
+  </si>
+  <si>
+    <t>Sous-famille</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Icons/video.png</t>
+  </si>
+  <si>
+    <t>Icons/list.bullet.below.rectangle.png</t>
+  </si>
+  <si>
+    <t>Icons/Page-1.png</t>
+  </si>
+  <si>
+    <t>Icons/music.house.png</t>
+  </si>
+  <si>
+    <t>Icons/book.png</t>
+  </si>
+  <si>
+    <t>Classification Uniclass 3</t>
+  </si>
+  <si>
+    <t>Nombre de plaque face 3</t>
+  </si>
+  <si>
+    <t>Pression du vent da N/m131</t>
+  </si>
+  <si>
+    <t>Unité de pression du vent da N/m131</t>
+  </si>
+  <si>
+    <t>Parment(s) face 1</t>
+  </si>
+  <si>
+    <t>Parment(s) face 2</t>
+  </si>
+  <si>
+    <t>isolant(s)</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>ossature</t>
+  </si>
+  <si>
+    <t>Libellé Ossature 3</t>
+  </si>
+  <si>
+    <t>Ratio fabricant mortier adhesif en kg par M131</t>
+  </si>
+  <si>
+    <t>Mortier colle</t>
+  </si>
+  <si>
+    <t>Ratio fabricant suspentes ou appuis en unité par M131</t>
+  </si>
+  <si>
+    <t>Suspentes appuis</t>
+  </si>
+  <si>
+    <t>Enduits et bandes</t>
+  </si>
+  <si>
+    <t>Ratio fabricant bande à joints en ML par M131</t>
+  </si>
+  <si>
+    <t>Ratio fabricant Vis auto-perceuse 1 en Unité par M131</t>
+  </si>
+  <si>
+    <t>accessoires</t>
+  </si>
+  <si>
+    <t>Ratio fabricant Vis auto-perceuse 2 en Unité par M131</t>
+  </si>
+  <si>
+    <t>Libellé Vis auto-perceuse 3</t>
+  </si>
+  <si>
+    <t>Ratio fabricant Pointes pour cloueur en unité par M131</t>
+  </si>
+  <si>
+    <t>Réf.Main doeuvre</t>
+  </si>
+  <si>
+    <t>Pose parment(s) 2ème face</t>
+  </si>
+  <si>
+    <t>Pose ossatures</t>
+  </si>
+  <si>
     <t>laborId</t>
   </si>
   <si>
-    <t>hdworkInfo</t>
-  </si>
-  <si>
-    <t>articleInfo</t>
-  </si>
-  <si>
-    <t>photoUrl</t>
-  </si>
-  <si>
     <t>labor.id</t>
   </si>
   <si>
-    <t>labor.BIMid</t>
-  </si>
-  <si>
-    <t>labor.name</t>
-  </si>
-  <si>
-    <t>labor.categ_id</t>
-  </si>
-  <si>
-    <t>labor.laborInfo</t>
-  </si>
-  <si>
-    <t>labor.totalHdwork</t>
-  </si>
-  <si>
-    <t>labor.totalPUJoint</t>
-  </si>
-  <si>
-    <t>labor.jointPerMM</t>
-  </si>
-  <si>
-    <t>labor.totalHdworkSub</t>
-  </si>
-  <si>
-    <t>labor.supplyPUSub</t>
-  </si>
-  <si>
-    <t>labor.tracingPUSub</t>
-  </si>
-  <si>
-    <t>labor.skin1PUSub</t>
-  </si>
-  <si>
-    <t>labor.cleaningPUSub</t>
-  </si>
-  <si>
-    <t>labor.totalHdworkInt</t>
-  </si>
-  <si>
-    <t>labor.supplyPUInt</t>
-  </si>
-  <si>
-    <t>labor.tracingPUInt</t>
-  </si>
-  <si>
-    <t>labor.skin1PUInt</t>
-  </si>
-  <si>
-    <t>labor.cleaningPUInt</t>
-  </si>
-  <si>
-    <t>labor.PUJointSub</t>
-  </si>
-  <si>
-    <t>labor.totalJointSub</t>
-  </si>
-  <si>
-    <t>labor.PUJointInt</t>
-  </si>
-  <si>
-    <t>labor.totalJointInt</t>
-  </si>
-  <si>
-    <t>labor.totalLaborSub</t>
-  </si>
-  <si>
-    <t>labor.totalLaborInt</t>
-  </si>
-  <si>
-    <t>labor.ratioSubInt</t>
-  </si>
-  <si>
-    <t>labor.hdworkerPH</t>
-  </si>
-  <si>
-    <t>labor.jointerPH</t>
-  </si>
-  <si>
-    <t>labor.HJRatio</t>
-  </si>
-  <si>
-    <t>labor.supply</t>
-  </si>
-  <si>
-    <t>labor.tracing</t>
-  </si>
-  <si>
-    <t>labor.skin1</t>
-  </si>
-  <si>
-    <t>labor.cleaning</t>
-  </si>
-  <si>
-    <t>face1Ext.id</t>
-  </si>
-  <si>
-    <t>face1Ext.name</t>
-  </si>
-  <si>
-    <t>face1Ext.default_code</t>
-  </si>
-  <si>
-    <t>face1Ext.categ_id</t>
-  </si>
-  <si>
-    <t>face1Ext.list_price</t>
-  </si>
-  <si>
-    <t>face1Ext.produce_delay</t>
-  </si>
-  <si>
-    <t>face1Ext.barcode</t>
-  </si>
-  <si>
-    <t>face1Ext.color</t>
-  </si>
-  <si>
-    <t>face1Ext.description</t>
-  </si>
-  <si>
-    <t>face1Ext.photoUrl</t>
-  </si>
-  <si>
-    <t>face1Ext.conditionnement</t>
-  </si>
-  <si>
-    <t>face1Ext.additionalInformation</t>
-  </si>
-  <si>
-    <t>face1Ext.productFile</t>
-  </si>
-  <si>
-    <t>face1Ext.dopFile</t>
-  </si>
-  <si>
-    <t>face1Ext.fdesFile</t>
-  </si>
-  <si>
-    <t>face1Ext.complementaryInformation</t>
-  </si>
-  <si>
-    <t>face1Ext.application</t>
-  </si>
-  <si>
-    <t>face1Ext.pivotUnity</t>
-  </si>
-  <si>
-    <t>face1Ext.billingUnity</t>
-  </si>
-  <si>
-    <t>face1Ext.conditionningUnity</t>
-  </si>
-  <si>
-    <t>face1Ext.manufacturer</t>
-  </si>
-  <si>
-    <t>face1Ext.manufacturerSite</t>
-  </si>
-  <si>
-    <t>face1Ext.group</t>
-  </si>
-  <si>
-    <t>face1Ext.category</t>
-  </si>
-  <si>
-    <t>face1Ext.subcategory</t>
-  </si>
-  <si>
-    <t>face1Ext.sets</t>
-  </si>
-  <si>
-    <t>tab</t>
-  </si>
-  <si>
-    <t>panel</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>dbFields</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>icons</t>
-  </si>
-  <si>
-    <t>iconId</t>
-  </si>
-  <si>
-    <t>lien inter colone</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Réf. Ouvrage</t>
-  </si>
-  <si>
-    <t>Libellé</t>
-  </si>
-  <si>
-    <t>Groupe</t>
-  </si>
-  <si>
-    <t>Famille</t>
-  </si>
-  <si>
-    <t>Sous-famille</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Icons/video.png</t>
-  </si>
-  <si>
-    <t>Icons/list.bullet.below.rectangle.png</t>
-  </si>
-  <si>
-    <t>Icons/Page-1.png</t>
-  </si>
-  <si>
-    <t>Icons/music.house.png</t>
-  </si>
-  <si>
-    <t>Icons/book.png</t>
-  </si>
-  <si>
-    <t>Classification Uniclass 3</t>
-  </si>
-  <si>
-    <t>Nombre de plaque face 3</t>
-  </si>
-  <si>
-    <t>Pression du vent da N/m131</t>
-  </si>
-  <si>
-    <t>Unité de pression du vent da N/m131</t>
-  </si>
-  <si>
-    <t>Parment(s) face 1</t>
-  </si>
-  <si>
-    <t>Parment(s) face 2</t>
-  </si>
-  <si>
-    <t>isolant(s)</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ossature</t>
-  </si>
-  <si>
-    <t>Libellé Ossature 3</t>
-  </si>
-  <si>
-    <t>Ratio fabricant mortier adhesif en kg par M131</t>
-  </si>
-  <si>
-    <t>Mortier colle</t>
-  </si>
-  <si>
-    <t>Ratio fabricant suspentes ou appuis en unité par M131</t>
-  </si>
-  <si>
-    <t>Suspentes appuis</t>
-  </si>
-  <si>
-    <t>Enduits et bandes</t>
-  </si>
-  <si>
-    <t>Ratio fabricant bande à joints en ML par M131</t>
-  </si>
-  <si>
-    <t>Ratio fabricant Vis auto-perceuse 1 en Unité par M131</t>
-  </si>
-  <si>
-    <t>accessoires</t>
-  </si>
-  <si>
-    <t>Ratio fabricant Vis auto-perceuse 2 en Unité par M131</t>
-  </si>
-  <si>
-    <t>Libellé Vis auto-perceuse 3</t>
-  </si>
-  <si>
-    <t>Ratio fabricant Pointes pour cloueur en unité par M131</t>
-  </si>
-  <si>
-    <t>Réf.Main doeuvre</t>
-  </si>
-  <si>
-    <t>Pose parment(s) 2ème face</t>
-  </si>
-  <si>
-    <t>Pose ossatures</t>
-  </si>
-  <si>
-    <t>Pose isolant</t>
+    <t>Approvisionnement</t>
   </si>
   <si>
     <t>Tracing &amp; implantation</t>
   </si>
   <si>
-    <t>Approvisionnement</t>
+    <t>labor_skin3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,13 +926,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -964,12 +966,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,127 +1309,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IJ11"/>
+  <dimension ref="A1:IK11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="EJ8" sqref="EJ8"/>
+    <sheetView tabSelected="1" topLeftCell="HS1" workbookViewId="0">
+      <selection activeCell="IL8" sqref="IL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="22" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="14" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="19" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="14" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="178" max="179" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="16" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="10" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="15" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="14" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="16" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="7" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="7.5" bestFit="1" customWidth="1"/>
     <col min="215" max="215" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="11" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="14" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="17" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="22" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:245" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2158,25 +2053,28 @@
       <c r="IJ1" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
-    <row r="2" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>243</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>253</v>
+      </c>
+      <c r="F2" t="s">
+        <v>253</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2187,23 +2085,23 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>252</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>253</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2214,29 +2112,29 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
-        <v>258</v>
+      <c r="S2">
+        <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="U2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V2" t="s">
-        <v>258</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="W2" t="s">
+        <v>259</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>259</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -2263,11 +2161,11 @@
         <v>0</v>
       </c>
       <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
         <v>5</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
         <v>0</v>
       </c>
@@ -2275,22 +2173,22 @@
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>5</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>5</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -2314,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -2329,22 +2227,22 @@
         <v>5</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
         <v>5</v>
       </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
       <c r="BH2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>5</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK2">
         <v>0</v>
@@ -2383,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BX2">
         <v>5</v>
@@ -2398,10 +2296,10 @@
         <v>5</v>
       </c>
       <c r="CB2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CD2">
         <v>5</v>
@@ -2413,10 +2311,10 @@
         <v>5</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CI2">
         <v>5</v>
@@ -2431,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CN2">
         <v>0</v>
@@ -2449,11 +2347,11 @@
         <v>0</v>
       </c>
       <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
         <v>5</v>
       </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
       <c r="CU2">
         <v>0</v>
       </c>
@@ -2485,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="DE2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DF2">
         <v>2</v>
@@ -2503,10 +2401,10 @@
         <v>2</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DM2">
         <v>2</v>
@@ -2515,86 +2413,86 @@
         <v>2</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
         <v>2</v>
       </c>
-      <c r="DQ2">
-        <v>0</v>
-      </c>
       <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
         <v>2</v>
       </c>
-      <c r="DS2">
-        <v>0</v>
-      </c>
       <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
         <v>2</v>
       </c>
-      <c r="DU2">
-        <v>0</v>
-      </c>
       <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
         <v>2</v>
       </c>
-      <c r="DW2">
-        <v>0</v>
-      </c>
       <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
         <v>2</v>
       </c>
-      <c r="DY2">
-        <v>0</v>
-      </c>
       <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
         <v>2</v>
       </c>
-      <c r="EA2">
-        <v>0</v>
-      </c>
       <c r="EB2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC2">
         <v>2</v>
       </c>
       <c r="ED2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
         <v>2</v>
       </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
       <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
         <v>2</v>
       </c>
-      <c r="EH2">
-        <v>0</v>
-      </c>
       <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
         <v>2</v>
       </c>
-      <c r="EJ2">
-        <v>0</v>
-      </c>
       <c r="EK2">
+        <v>0</v>
+      </c>
+      <c r="EL2">
         <v>2</v>
       </c>
-      <c r="EL2">
-        <v>0</v>
-      </c>
       <c r="EM2">
+        <v>0</v>
+      </c>
+      <c r="EN2">
         <v>2</v>
       </c>
-      <c r="EN2" s="2">
+      <c r="EO2">
         <v>3</v>
       </c>
-      <c r="EO2">
-        <v>0</v>
-      </c>
       <c r="EP2">
         <v>0</v>
       </c>
@@ -2604,170 +2502,170 @@
       <c r="ER2">
         <v>0</v>
       </c>
-      <c r="ES2" s="2">
+      <c r="ES2">
+        <v>0</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>0</v>
+      </c>
+      <c r="EV2">
+        <v>0</v>
+      </c>
+      <c r="EW2">
+        <v>0</v>
+      </c>
+      <c r="EX2">
+        <v>0</v>
+      </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="EZ2">
+        <v>0</v>
+      </c>
+      <c r="FA2">
+        <v>0</v>
+      </c>
+      <c r="FB2">
+        <v>0</v>
+      </c>
+      <c r="FC2">
+        <v>0</v>
+      </c>
+      <c r="FD2">
+        <v>0</v>
+      </c>
+      <c r="FE2">
+        <v>0</v>
+      </c>
+      <c r="FF2">
+        <v>0</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2">
+        <v>0</v>
+      </c>
+      <c r="FI2">
+        <v>0</v>
+      </c>
+      <c r="FJ2">
+        <v>0</v>
+      </c>
+      <c r="FK2">
+        <v>0</v>
+      </c>
+      <c r="FL2">
+        <v>0</v>
+      </c>
+      <c r="FM2">
+        <v>0</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FP2">
+        <v>0</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>0</v>
+      </c>
+      <c r="FS2">
+        <v>0</v>
+      </c>
+      <c r="FT2">
+        <v>0</v>
+      </c>
+      <c r="FU2">
+        <v>0</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="FW2">
+        <v>0</v>
+      </c>
+      <c r="FX2">
+        <v>0</v>
+      </c>
+      <c r="FY2">
+        <v>0</v>
+      </c>
+      <c r="FZ2">
+        <v>0</v>
+      </c>
+      <c r="GA2">
+        <v>0</v>
+      </c>
+      <c r="GB2">
+        <v>0</v>
+      </c>
+      <c r="GC2">
+        <v>0</v>
+      </c>
+      <c r="GD2">
+        <v>0</v>
+      </c>
+      <c r="GE2">
+        <v>0</v>
+      </c>
+      <c r="GF2">
         <v>3</v>
       </c>
-      <c r="ET2">
-        <v>0</v>
-      </c>
-      <c r="EU2">
-        <v>0</v>
-      </c>
-      <c r="EV2">
-        <v>0</v>
-      </c>
-      <c r="EW2">
-        <v>0</v>
-      </c>
-      <c r="EX2">
-        <v>0</v>
-      </c>
-      <c r="EY2">
-        <v>0</v>
-      </c>
-      <c r="EZ2">
-        <v>0</v>
-      </c>
-      <c r="FA2" s="2">
+      <c r="GG2">
+        <v>0</v>
+      </c>
+      <c r="GH2">
+        <v>0</v>
+      </c>
+      <c r="GI2">
+        <v>0</v>
+      </c>
+      <c r="GJ2">
+        <v>0</v>
+      </c>
+      <c r="GK2">
         <v>3</v>
       </c>
-      <c r="FB2">
-        <v>0</v>
-      </c>
-      <c r="FC2">
-        <v>0</v>
-      </c>
-      <c r="FD2">
-        <v>0</v>
-      </c>
-      <c r="FE2">
-        <v>0</v>
-      </c>
-      <c r="FF2">
-        <v>0</v>
-      </c>
-      <c r="FG2">
-        <v>0</v>
-      </c>
-      <c r="FH2">
-        <v>0</v>
-      </c>
-      <c r="FI2">
-        <v>0</v>
-      </c>
-      <c r="FJ2">
-        <v>0</v>
-      </c>
-      <c r="FK2">
-        <v>0</v>
-      </c>
-      <c r="FL2">
-        <v>0</v>
-      </c>
-      <c r="FM2">
-        <v>0</v>
-      </c>
-      <c r="FN2">
-        <v>0</v>
-      </c>
-      <c r="FO2">
-        <v>0</v>
-      </c>
-      <c r="FP2">
-        <v>0</v>
-      </c>
-      <c r="FQ2">
-        <v>0</v>
-      </c>
-      <c r="FR2">
-        <v>0</v>
-      </c>
-      <c r="FS2">
-        <v>0</v>
-      </c>
-      <c r="FT2" s="2">
+      <c r="GL2">
+        <v>0</v>
+      </c>
+      <c r="GM2">
+        <v>0</v>
+      </c>
+      <c r="GN2">
+        <v>0</v>
+      </c>
+      <c r="GO2">
+        <v>0</v>
+      </c>
+      <c r="GP2">
+        <v>0</v>
+      </c>
+      <c r="GQ2">
+        <v>0</v>
+      </c>
+      <c r="GR2">
+        <v>0</v>
+      </c>
+      <c r="GS2">
         <v>3</v>
       </c>
-      <c r="FU2">
-        <v>0</v>
-      </c>
-      <c r="FV2">
-        <v>0</v>
-      </c>
-      <c r="FW2">
-        <v>0</v>
-      </c>
-      <c r="FX2">
-        <v>0</v>
-      </c>
-      <c r="FY2">
-        <v>0</v>
-      </c>
-      <c r="FZ2">
-        <v>0</v>
-      </c>
-      <c r="GA2">
-        <v>0</v>
-      </c>
-      <c r="GB2">
-        <v>0</v>
-      </c>
-      <c r="GC2">
-        <v>0</v>
-      </c>
-      <c r="GD2">
-        <v>0</v>
-      </c>
-      <c r="GE2">
-        <v>0</v>
-      </c>
-      <c r="GF2">
-        <v>0</v>
-      </c>
-      <c r="GG2" s="2">
+      <c r="GT2">
         <v>3</v>
       </c>
-      <c r="GH2">
-        <v>0</v>
-      </c>
-      <c r="GI2">
-        <v>0</v>
-      </c>
-      <c r="GJ2">
-        <v>0</v>
-      </c>
-      <c r="GK2">
-        <v>0</v>
-      </c>
-      <c r="GL2">
-        <v>0</v>
-      </c>
-      <c r="GM2">
-        <v>0</v>
-      </c>
-      <c r="GN2">
-        <v>0</v>
-      </c>
-      <c r="GO2">
-        <v>0</v>
-      </c>
-      <c r="GP2">
-        <v>0</v>
-      </c>
-      <c r="GQ2">
-        <v>0</v>
-      </c>
-      <c r="GR2">
-        <v>0</v>
-      </c>
-      <c r="GS2">
-        <v>0</v>
-      </c>
-      <c r="GT2">
-        <v>0</v>
-      </c>
       <c r="GU2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GV2">
         <v>0</v>
@@ -2794,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="HD2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HE2">
         <v>0</v>
@@ -2803,108 +2701,111 @@
         <v>0</v>
       </c>
       <c r="HG2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HH2">
         <v>3</v>
       </c>
-      <c r="HI2" s="2">
+      <c r="HI2">
+        <v>0</v>
+      </c>
+      <c r="HJ2">
+        <v>0</v>
+      </c>
+      <c r="HK2">
+        <v>0</v>
+      </c>
+      <c r="HL2">
+        <v>0</v>
+      </c>
+      <c r="HM2">
+        <v>0</v>
+      </c>
+      <c r="HN2">
+        <v>0</v>
+      </c>
+      <c r="HO2">
+        <v>0</v>
+      </c>
+      <c r="HP2">
+        <v>0</v>
+      </c>
+      <c r="HQ2">
+        <v>0</v>
+      </c>
+      <c r="HR2">
+        <v>0</v>
+      </c>
+      <c r="HS2">
+        <v>0</v>
+      </c>
+      <c r="HT2">
+        <v>0</v>
+      </c>
+      <c r="HU2">
+        <v>0</v>
+      </c>
+      <c r="HV2">
+        <v>0</v>
+      </c>
+      <c r="HW2">
+        <v>0</v>
+      </c>
+      <c r="HX2">
+        <v>0</v>
+      </c>
+      <c r="HY2">
+        <v>0</v>
+      </c>
+      <c r="HZ2">
+        <v>0</v>
+      </c>
+      <c r="IA2">
+        <v>0</v>
+      </c>
+      <c r="IB2">
+        <v>0</v>
+      </c>
+      <c r="IC2">
+        <v>0</v>
+      </c>
+      <c r="ID2">
+        <v>0</v>
+      </c>
+      <c r="IE2">
+        <v>0</v>
+      </c>
+      <c r="IF2">
+        <v>0</v>
+      </c>
+      <c r="IG2">
+        <v>0</v>
+      </c>
+      <c r="IH2">
         <v>3</v>
       </c>
-      <c r="HJ2" s="2">
+      <c r="II2">
         <v>3</v>
       </c>
-      <c r="HK2">
-        <v>0</v>
-      </c>
-      <c r="HL2">
-        <v>0</v>
-      </c>
-      <c r="HM2">
-        <v>0</v>
-      </c>
-      <c r="HN2">
-        <v>0</v>
-      </c>
-      <c r="HO2">
-        <v>0</v>
-      </c>
-      <c r="HP2">
-        <v>0</v>
-      </c>
-      <c r="HQ2">
-        <v>0</v>
-      </c>
-      <c r="HR2">
-        <v>0</v>
-      </c>
-      <c r="HS2">
-        <v>0</v>
-      </c>
-      <c r="HT2">
-        <v>0</v>
-      </c>
-      <c r="HU2">
-        <v>0</v>
-      </c>
-      <c r="HV2">
-        <v>0</v>
-      </c>
-      <c r="HW2">
-        <v>0</v>
-      </c>
-      <c r="HX2">
-        <v>0</v>
-      </c>
-      <c r="HY2">
-        <v>0</v>
-      </c>
-      <c r="HZ2">
-        <v>0</v>
-      </c>
-      <c r="IA2">
-        <v>0</v>
-      </c>
-      <c r="IB2">
-        <v>0</v>
-      </c>
-      <c r="IC2">
-        <v>0</v>
-      </c>
-      <c r="ID2">
-        <v>0</v>
-      </c>
-      <c r="IE2">
-        <v>0</v>
-      </c>
-      <c r="IF2">
-        <v>0</v>
-      </c>
-      <c r="IG2">
-        <v>0</v>
-      </c>
-      <c r="IH2">
-        <v>0</v>
-      </c>
-      <c r="II2">
-        <v>0</v>
-      </c>
       <c r="IJ2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="IK2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
+      <c r="D3" t="s">
+        <v>245</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -2915,13 +2816,13 @@
       <c r="I3">
         <v>16</v>
       </c>
-      <c r="K3">
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>16</v>
-      </c>
-      <c r="O3">
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="N3">
         <v>16</v>
       </c>
       <c r="P3">
@@ -2933,13 +2834,13 @@
       <c r="R3">
         <v>16</v>
       </c>
-      <c r="W3">
+      <c r="S3">
         <v>16</v>
       </c>
       <c r="X3">
         <v>16</v>
       </c>
-      <c r="Z3">
+      <c r="Y3">
         <v>16</v>
       </c>
       <c r="AA3">
@@ -2967,11 +2868,11 @@
         <v>16</v>
       </c>
       <c r="AI3">
+        <v>16</v>
+      </c>
+      <c r="AJ3">
         <v>17</v>
       </c>
-      <c r="AJ3">
-        <v>16</v>
-      </c>
       <c r="AK3">
         <v>16</v>
       </c>
@@ -2979,22 +2880,22 @@
         <v>16</v>
       </c>
       <c r="AM3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN3">
         <v>17</v>
       </c>
       <c r="AO3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ3">
         <v>17</v>
       </c>
       <c r="AR3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS3">
         <v>16</v>
@@ -3018,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="AZ3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA3">
         <v>18</v>
@@ -3033,22 +2934,22 @@
         <v>18</v>
       </c>
       <c r="BE3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BF3">
+        <v>16</v>
+      </c>
+      <c r="BG3">
         <v>18</v>
       </c>
-      <c r="BG3">
-        <v>16</v>
-      </c>
       <c r="BH3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BI3">
         <v>18</v>
       </c>
       <c r="BJ3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BK3">
         <v>16</v>
@@ -3087,7 +2988,7 @@
         <v>16</v>
       </c>
       <c r="BW3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BX3">
         <v>18</v>
@@ -3102,10 +3003,10 @@
         <v>18</v>
       </c>
       <c r="CB3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CC3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="CD3">
         <v>18</v>
@@ -3117,10 +3018,10 @@
         <v>18</v>
       </c>
       <c r="CG3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CH3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="CI3">
         <v>18</v>
@@ -3135,7 +3036,7 @@
         <v>18</v>
       </c>
       <c r="CM3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CN3">
         <v>16</v>
@@ -3153,11 +3054,11 @@
         <v>16</v>
       </c>
       <c r="CS3">
+        <v>16</v>
+      </c>
+      <c r="CT3">
         <v>18</v>
       </c>
-      <c r="CT3">
-        <v>16</v>
-      </c>
       <c r="CU3">
         <v>16</v>
       </c>
@@ -3189,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="DE3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DF3">
         <v>8</v>
@@ -3207,10 +3108,10 @@
         <v>8</v>
       </c>
       <c r="DK3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="DL3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="DM3">
         <v>8</v>
@@ -3219,86 +3120,86 @@
         <v>8</v>
       </c>
       <c r="DO3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="DP3">
+        <v>16</v>
+      </c>
+      <c r="DQ3">
         <v>8</v>
       </c>
-      <c r="DQ3">
-        <v>16</v>
-      </c>
       <c r="DR3">
+        <v>16</v>
+      </c>
+      <c r="DS3">
         <v>8</v>
       </c>
-      <c r="DS3">
-        <v>16</v>
-      </c>
       <c r="DT3">
+        <v>16</v>
+      </c>
+      <c r="DU3">
         <v>8</v>
       </c>
-      <c r="DU3">
-        <v>16</v>
-      </c>
       <c r="DV3">
+        <v>16</v>
+      </c>
+      <c r="DW3">
         <v>8</v>
       </c>
-      <c r="DW3">
-        <v>16</v>
-      </c>
       <c r="DX3">
+        <v>16</v>
+      </c>
+      <c r="DY3">
         <v>8</v>
       </c>
-      <c r="DY3">
-        <v>16</v>
-      </c>
       <c r="DZ3">
+        <v>16</v>
+      </c>
+      <c r="EA3">
         <v>8</v>
       </c>
-      <c r="EA3">
-        <v>16</v>
-      </c>
       <c r="EB3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="EC3">
         <v>8</v>
       </c>
       <c r="ED3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="EE3">
+        <v>16</v>
+      </c>
+      <c r="EF3">
         <v>8</v>
       </c>
-      <c r="EF3">
-        <v>16</v>
-      </c>
       <c r="EG3">
+        <v>16</v>
+      </c>
+      <c r="EH3">
         <v>8</v>
       </c>
-      <c r="EH3">
-        <v>16</v>
-      </c>
       <c r="EI3">
+        <v>16</v>
+      </c>
+      <c r="EJ3">
         <v>8</v>
       </c>
-      <c r="EJ3">
-        <v>16</v>
-      </c>
       <c r="EK3">
+        <v>16</v>
+      </c>
+      <c r="EL3">
         <v>8</v>
       </c>
-      <c r="EL3">
-        <v>16</v>
-      </c>
       <c r="EM3">
+        <v>16</v>
+      </c>
+      <c r="EN3">
         <v>8</v>
       </c>
-      <c r="EN3" s="2">
+      <c r="EO3">
         <v>9</v>
       </c>
-      <c r="EO3">
-        <v>16</v>
-      </c>
       <c r="EP3">
         <v>16</v>
       </c>
@@ -3308,198 +3209,198 @@
       <c r="ER3">
         <v>16</v>
       </c>
-      <c r="ES3" s="2">
+      <c r="ES3">
+        <v>16</v>
+      </c>
+      <c r="ET3">
+        <v>16</v>
+      </c>
+      <c r="EU3">
+        <v>16</v>
+      </c>
+      <c r="EV3">
+        <v>16</v>
+      </c>
+      <c r="EW3">
+        <v>16</v>
+      </c>
+      <c r="EX3">
+        <v>16</v>
+      </c>
+      <c r="EY3">
+        <v>16</v>
+      </c>
+      <c r="EZ3">
+        <v>16</v>
+      </c>
+      <c r="FA3">
+        <v>16</v>
+      </c>
+      <c r="FB3">
+        <v>16</v>
+      </c>
+      <c r="FC3">
+        <v>16</v>
+      </c>
+      <c r="FD3">
+        <v>16</v>
+      </c>
+      <c r="FE3">
+        <v>16</v>
+      </c>
+      <c r="FF3">
+        <v>16</v>
+      </c>
+      <c r="FG3">
+        <v>16</v>
+      </c>
+      <c r="FH3">
+        <v>16</v>
+      </c>
+      <c r="FI3">
+        <v>16</v>
+      </c>
+      <c r="FJ3">
+        <v>16</v>
+      </c>
+      <c r="FK3">
+        <v>16</v>
+      </c>
+      <c r="FL3">
+        <v>16</v>
+      </c>
+      <c r="FM3">
+        <v>16</v>
+      </c>
+      <c r="FN3">
+        <v>16</v>
+      </c>
+      <c r="FO3">
+        <v>16</v>
+      </c>
+      <c r="FP3">
+        <v>16</v>
+      </c>
+      <c r="FQ3">
+        <v>16</v>
+      </c>
+      <c r="FR3">
+        <v>16</v>
+      </c>
+      <c r="FS3">
+        <v>16</v>
+      </c>
+      <c r="FT3">
+        <v>16</v>
+      </c>
+      <c r="FU3">
+        <v>16</v>
+      </c>
+      <c r="FV3">
+        <v>16</v>
+      </c>
+      <c r="FW3">
+        <v>16</v>
+      </c>
+      <c r="FX3">
+        <v>16</v>
+      </c>
+      <c r="FY3">
+        <v>16</v>
+      </c>
+      <c r="FZ3">
+        <v>16</v>
+      </c>
+      <c r="GA3">
+        <v>16</v>
+      </c>
+      <c r="GB3">
+        <v>16</v>
+      </c>
+      <c r="GC3">
+        <v>16</v>
+      </c>
+      <c r="GD3">
+        <v>16</v>
+      </c>
+      <c r="GE3">
+        <v>16</v>
+      </c>
+      <c r="GF3">
         <v>9</v>
       </c>
-      <c r="ET3">
-        <v>16</v>
-      </c>
-      <c r="EU3">
-        <v>16</v>
-      </c>
-      <c r="EV3">
-        <v>16</v>
-      </c>
-      <c r="EW3">
-        <v>16</v>
-      </c>
-      <c r="EX3">
-        <v>16</v>
-      </c>
-      <c r="EY3">
-        <v>16</v>
-      </c>
-      <c r="EZ3">
-        <v>16</v>
-      </c>
-      <c r="FA3" s="2">
+      <c r="GG3">
+        <v>16</v>
+      </c>
+      <c r="GH3">
+        <v>16</v>
+      </c>
+      <c r="GI3">
+        <v>16</v>
+      </c>
+      <c r="GJ3">
+        <v>16</v>
+      </c>
+      <c r="GK3">
         <v>9</v>
       </c>
-      <c r="FB3">
-        <v>16</v>
-      </c>
-      <c r="FC3">
-        <v>16</v>
-      </c>
-      <c r="FD3">
-        <v>16</v>
-      </c>
-      <c r="FE3">
-        <v>16</v>
-      </c>
-      <c r="FF3">
-        <v>16</v>
-      </c>
-      <c r="FG3">
-        <v>16</v>
-      </c>
-      <c r="FH3">
-        <v>16</v>
-      </c>
-      <c r="FI3">
-        <v>16</v>
-      </c>
-      <c r="FJ3">
-        <v>16</v>
-      </c>
-      <c r="FK3">
-        <v>16</v>
-      </c>
-      <c r="FL3">
-        <v>16</v>
-      </c>
-      <c r="FM3">
-        <v>16</v>
-      </c>
-      <c r="FN3">
-        <v>16</v>
-      </c>
-      <c r="FO3">
-        <v>16</v>
-      </c>
-      <c r="FP3">
-        <v>16</v>
-      </c>
-      <c r="FQ3">
-        <v>16</v>
-      </c>
-      <c r="FR3">
-        <v>16</v>
-      </c>
-      <c r="FS3">
-        <v>16</v>
-      </c>
-      <c r="FT3" s="2">
+      <c r="GL3">
+        <v>16</v>
+      </c>
+      <c r="GM3">
+        <v>16</v>
+      </c>
+      <c r="GN3">
+        <v>16</v>
+      </c>
+      <c r="GO3">
+        <v>16</v>
+      </c>
+      <c r="GP3">
+        <v>16</v>
+      </c>
+      <c r="GQ3">
+        <v>16</v>
+      </c>
+      <c r="GR3">
+        <v>16</v>
+      </c>
+      <c r="GS3">
+        <v>10</v>
+      </c>
+      <c r="GT3">
+        <v>10</v>
+      </c>
+      <c r="GU3">
+        <v>10</v>
+      </c>
+      <c r="GV3">
+        <v>16</v>
+      </c>
+      <c r="GW3">
+        <v>16</v>
+      </c>
+      <c r="GX3">
+        <v>16</v>
+      </c>
+      <c r="GY3">
+        <v>16</v>
+      </c>
+      <c r="GZ3">
+        <v>16</v>
+      </c>
+      <c r="HA3">
+        <v>16</v>
+      </c>
+      <c r="HB3">
+        <v>16</v>
+      </c>
+      <c r="HC3">
+        <v>16</v>
+      </c>
+      <c r="HD3">
         <v>9</v>
       </c>
-      <c r="FU3">
-        <v>16</v>
-      </c>
-      <c r="FV3">
-        <v>16</v>
-      </c>
-      <c r="FW3">
-        <v>16</v>
-      </c>
-      <c r="FX3">
-        <v>16</v>
-      </c>
-      <c r="FY3">
-        <v>16</v>
-      </c>
-      <c r="FZ3">
-        <v>16</v>
-      </c>
-      <c r="GA3">
-        <v>16</v>
-      </c>
-      <c r="GB3">
-        <v>16</v>
-      </c>
-      <c r="GC3">
-        <v>16</v>
-      </c>
-      <c r="GD3">
-        <v>16</v>
-      </c>
-      <c r="GE3">
-        <v>16</v>
-      </c>
-      <c r="GF3">
-        <v>16</v>
-      </c>
-      <c r="GG3" s="2">
-        <v>9</v>
-      </c>
-      <c r="GH3">
-        <v>16</v>
-      </c>
-      <c r="GI3">
-        <v>16</v>
-      </c>
-      <c r="GJ3">
-        <v>16</v>
-      </c>
-      <c r="GK3">
-        <v>16</v>
-      </c>
-      <c r="GL3">
-        <v>16</v>
-      </c>
-      <c r="GM3">
-        <v>16</v>
-      </c>
-      <c r="GN3">
-        <v>16</v>
-      </c>
-      <c r="GO3">
-        <v>16</v>
-      </c>
-      <c r="GP3">
-        <v>16</v>
-      </c>
-      <c r="GQ3">
-        <v>16</v>
-      </c>
-      <c r="GR3">
-        <v>16</v>
-      </c>
-      <c r="GS3">
-        <v>16</v>
-      </c>
-      <c r="GT3">
-        <v>16</v>
-      </c>
-      <c r="GU3">
-        <v>16</v>
-      </c>
-      <c r="GV3">
-        <v>16</v>
-      </c>
-      <c r="GW3">
-        <v>16</v>
-      </c>
-      <c r="GX3">
-        <v>16</v>
-      </c>
-      <c r="GY3">
-        <v>16</v>
-      </c>
-      <c r="GZ3">
-        <v>16</v>
-      </c>
-      <c r="HA3">
-        <v>16</v>
-      </c>
-      <c r="HB3">
-        <v>16</v>
-      </c>
-      <c r="HC3">
-        <v>16</v>
-      </c>
-      <c r="HD3">
-        <v>16</v>
-      </c>
       <c r="HE3">
         <v>16</v>
       </c>
@@ -3507,108 +3408,111 @@
         <v>16</v>
       </c>
       <c r="HG3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="HH3">
         <v>9</v>
       </c>
-      <c r="HI3" s="2">
+      <c r="HI3">
+        <v>16</v>
+      </c>
+      <c r="HJ3">
+        <v>16</v>
+      </c>
+      <c r="HK3">
+        <v>16</v>
+      </c>
+      <c r="HL3">
+        <v>16</v>
+      </c>
+      <c r="HM3">
+        <v>16</v>
+      </c>
+      <c r="HN3">
+        <v>16</v>
+      </c>
+      <c r="HO3">
+        <v>16</v>
+      </c>
+      <c r="HP3">
+        <v>16</v>
+      </c>
+      <c r="HQ3">
+        <v>16</v>
+      </c>
+      <c r="HR3">
+        <v>16</v>
+      </c>
+      <c r="HS3">
+        <v>16</v>
+      </c>
+      <c r="HT3">
+        <v>16</v>
+      </c>
+      <c r="HU3">
+        <v>16</v>
+      </c>
+      <c r="HV3">
+        <v>16</v>
+      </c>
+      <c r="HW3">
+        <v>16</v>
+      </c>
+      <c r="HX3">
+        <v>16</v>
+      </c>
+      <c r="HY3">
+        <v>16</v>
+      </c>
+      <c r="HZ3">
+        <v>16</v>
+      </c>
+      <c r="IA3">
+        <v>16</v>
+      </c>
+      <c r="IB3">
+        <v>16</v>
+      </c>
+      <c r="IC3">
+        <v>16</v>
+      </c>
+      <c r="ID3">
+        <v>16</v>
+      </c>
+      <c r="IE3">
+        <v>16</v>
+      </c>
+      <c r="IF3">
+        <v>16</v>
+      </c>
+      <c r="IG3">
+        <v>16</v>
+      </c>
+      <c r="IH3">
         <v>9</v>
       </c>
-      <c r="HJ3" s="2">
+      <c r="II3">
         <v>9</v>
       </c>
-      <c r="HK3">
-        <v>16</v>
-      </c>
-      <c r="HL3">
-        <v>16</v>
-      </c>
-      <c r="HM3">
-        <v>16</v>
-      </c>
-      <c r="HN3">
-        <v>16</v>
-      </c>
-      <c r="HO3">
-        <v>16</v>
-      </c>
-      <c r="HP3">
-        <v>16</v>
-      </c>
-      <c r="HQ3">
-        <v>16</v>
-      </c>
-      <c r="HR3">
-        <v>16</v>
-      </c>
-      <c r="HS3">
-        <v>16</v>
-      </c>
-      <c r="HT3">
-        <v>16</v>
-      </c>
-      <c r="HU3">
-        <v>16</v>
-      </c>
-      <c r="HV3">
-        <v>16</v>
-      </c>
-      <c r="HW3">
-        <v>16</v>
-      </c>
-      <c r="HX3">
-        <v>16</v>
-      </c>
-      <c r="HY3">
-        <v>16</v>
-      </c>
-      <c r="HZ3">
-        <v>16</v>
-      </c>
-      <c r="IA3">
-        <v>16</v>
-      </c>
-      <c r="IB3">
-        <v>16</v>
-      </c>
-      <c r="IC3">
-        <v>16</v>
-      </c>
-      <c r="ID3">
-        <v>16</v>
-      </c>
-      <c r="IE3">
-        <v>16</v>
-      </c>
-      <c r="IF3">
-        <v>16</v>
-      </c>
-      <c r="IG3">
-        <v>16</v>
-      </c>
-      <c r="IH3">
-        <v>16</v>
-      </c>
-      <c r="II3">
-        <v>16</v>
-      </c>
       <c r="IJ3">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="IK3">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
+      <c r="D4" t="s">
+        <v>246</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -3619,13 +3523,13 @@
       <c r="I4">
         <v>28</v>
       </c>
-      <c r="K4">
-        <v>28</v>
-      </c>
-      <c r="M4">
-        <v>28</v>
-      </c>
-      <c r="O4">
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>28</v>
+      </c>
+      <c r="N4">
         <v>28</v>
       </c>
       <c r="P4">
@@ -3637,13 +3541,13 @@
       <c r="R4">
         <v>28</v>
       </c>
-      <c r="W4">
+      <c r="S4">
         <v>28</v>
       </c>
       <c r="X4">
         <v>28</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
         <v>28</v>
       </c>
       <c r="AA4">
@@ -3671,11 +3575,11 @@
         <v>28</v>
       </c>
       <c r="AI4">
+        <v>28</v>
+      </c>
+      <c r="AJ4">
         <v>27</v>
       </c>
-      <c r="AJ4">
-        <v>28</v>
-      </c>
       <c r="AK4">
         <v>28</v>
       </c>
@@ -3683,22 +3587,22 @@
         <v>28</v>
       </c>
       <c r="AM4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN4">
         <v>27</v>
       </c>
       <c r="AO4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ4">
         <v>27</v>
       </c>
       <c r="AR4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS4">
         <v>28</v>
@@ -3722,7 +3626,7 @@
         <v>28</v>
       </c>
       <c r="AZ4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA4">
         <v>29</v>
@@ -3737,23 +3641,23 @@
         <v>29</v>
       </c>
       <c r="BE4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BF4">
+        <v>28</v>
+      </c>
+      <c r="BG4">
         <v>29</v>
       </c>
-      <c r="BG4">
-        <v>28</v>
-      </c>
       <c r="BH4">
+        <v>28</v>
+      </c>
+      <c r="BI4">
         <v>29</v>
       </c>
-      <c r="BI4">
+      <c r="BJ4">
         <v>31</v>
       </c>
-      <c r="BJ4">
-        <v>28</v>
-      </c>
       <c r="BK4">
         <v>28</v>
       </c>
@@ -3791,10 +3695,10 @@
         <v>28</v>
       </c>
       <c r="BW4">
+        <v>28</v>
+      </c>
+      <c r="BX4">
         <v>32</v>
-      </c>
-      <c r="BX4">
-        <v>31</v>
       </c>
       <c r="BY4">
         <v>31</v>
@@ -3806,25 +3710,25 @@
         <v>31</v>
       </c>
       <c r="CB4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CC4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="CD4">
         <v>31</v>
       </c>
       <c r="CE4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CF4">
         <v>32</v>
       </c>
       <c r="CG4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="CH4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="CI4">
         <v>30</v>
@@ -3836,11 +3740,11 @@
         <v>30</v>
       </c>
       <c r="CL4">
+        <v>30</v>
+      </c>
+      <c r="CM4">
         <v>29</v>
       </c>
-      <c r="CM4">
-        <v>28</v>
-      </c>
       <c r="CN4">
         <v>28</v>
       </c>
@@ -3857,11 +3761,11 @@
         <v>28</v>
       </c>
       <c r="CS4">
+        <v>28</v>
+      </c>
+      <c r="CT4">
         <v>32</v>
       </c>
-      <c r="CT4">
-        <v>28</v>
-      </c>
       <c r="CU4">
         <v>28</v>
       </c>
@@ -3893,7 +3797,7 @@
         <v>28</v>
       </c>
       <c r="DE4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DF4">
         <v>17</v>
@@ -3911,10 +3815,10 @@
         <v>17</v>
       </c>
       <c r="DK4">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="DL4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="DM4">
         <v>17</v>
@@ -3923,86 +3827,86 @@
         <v>17</v>
       </c>
       <c r="DO4">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="DP4">
+        <v>28</v>
+      </c>
+      <c r="DQ4">
         <v>17</v>
       </c>
-      <c r="DQ4">
-        <v>28</v>
-      </c>
       <c r="DR4">
+        <v>28</v>
+      </c>
+      <c r="DS4">
         <v>17</v>
       </c>
-      <c r="DS4">
-        <v>28</v>
-      </c>
       <c r="DT4">
+        <v>28</v>
+      </c>
+      <c r="DU4">
         <v>17</v>
       </c>
-      <c r="DU4">
-        <v>28</v>
-      </c>
       <c r="DV4">
+        <v>28</v>
+      </c>
+      <c r="DW4">
         <v>17</v>
       </c>
-      <c r="DW4">
-        <v>28</v>
-      </c>
       <c r="DX4">
+        <v>28</v>
+      </c>
+      <c r="DY4">
         <v>17</v>
       </c>
-      <c r="DY4">
-        <v>28</v>
-      </c>
       <c r="DZ4">
+        <v>28</v>
+      </c>
+      <c r="EA4">
         <v>17</v>
       </c>
-      <c r="EA4">
-        <v>28</v>
-      </c>
       <c r="EB4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="EC4">
         <v>17</v>
       </c>
       <c r="ED4">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="EE4">
+        <v>28</v>
+      </c>
+      <c r="EF4">
         <v>17</v>
       </c>
-      <c r="EF4">
-        <v>28</v>
-      </c>
       <c r="EG4">
+        <v>28</v>
+      </c>
+      <c r="EH4">
         <v>17</v>
       </c>
-      <c r="EH4">
-        <v>28</v>
-      </c>
       <c r="EI4">
+        <v>28</v>
+      </c>
+      <c r="EJ4">
         <v>17</v>
       </c>
-      <c r="EJ4">
-        <v>28</v>
-      </c>
       <c r="EK4">
+        <v>28</v>
+      </c>
+      <c r="EL4">
         <v>17</v>
       </c>
-      <c r="EL4">
-        <v>28</v>
-      </c>
       <c r="EM4">
+        <v>28</v>
+      </c>
+      <c r="EN4">
         <v>17</v>
       </c>
-      <c r="EN4" s="2">
+      <c r="EO4">
         <v>19</v>
       </c>
-      <c r="EO4">
-        <v>28</v>
-      </c>
       <c r="EP4">
         <v>28</v>
       </c>
@@ -4012,198 +3916,198 @@
       <c r="ER4">
         <v>28</v>
       </c>
-      <c r="ES4" s="2">
+      <c r="ES4">
+        <v>28</v>
+      </c>
+      <c r="ET4">
+        <v>28</v>
+      </c>
+      <c r="EU4">
+        <v>28</v>
+      </c>
+      <c r="EV4">
+        <v>28</v>
+      </c>
+      <c r="EW4">
+        <v>28</v>
+      </c>
+      <c r="EX4">
+        <v>28</v>
+      </c>
+      <c r="EY4">
+        <v>28</v>
+      </c>
+      <c r="EZ4">
+        <v>28</v>
+      </c>
+      <c r="FA4">
+        <v>28</v>
+      </c>
+      <c r="FB4">
+        <v>28</v>
+      </c>
+      <c r="FC4">
+        <v>28</v>
+      </c>
+      <c r="FD4">
+        <v>28</v>
+      </c>
+      <c r="FE4">
+        <v>28</v>
+      </c>
+      <c r="FF4">
+        <v>28</v>
+      </c>
+      <c r="FG4">
+        <v>28</v>
+      </c>
+      <c r="FH4">
+        <v>28</v>
+      </c>
+      <c r="FI4">
+        <v>28</v>
+      </c>
+      <c r="FJ4">
+        <v>28</v>
+      </c>
+      <c r="FK4">
+        <v>28</v>
+      </c>
+      <c r="FL4">
+        <v>28</v>
+      </c>
+      <c r="FM4">
+        <v>28</v>
+      </c>
+      <c r="FN4">
+        <v>28</v>
+      </c>
+      <c r="FO4">
+        <v>28</v>
+      </c>
+      <c r="FP4">
+        <v>28</v>
+      </c>
+      <c r="FQ4">
+        <v>28</v>
+      </c>
+      <c r="FR4">
+        <v>28</v>
+      </c>
+      <c r="FS4">
+        <v>28</v>
+      </c>
+      <c r="FT4">
+        <v>28</v>
+      </c>
+      <c r="FU4">
+        <v>28</v>
+      </c>
+      <c r="FV4">
+        <v>28</v>
+      </c>
+      <c r="FW4">
+        <v>28</v>
+      </c>
+      <c r="FX4">
+        <v>28</v>
+      </c>
+      <c r="FY4">
+        <v>28</v>
+      </c>
+      <c r="FZ4">
+        <v>28</v>
+      </c>
+      <c r="GA4">
+        <v>28</v>
+      </c>
+      <c r="GB4">
+        <v>28</v>
+      </c>
+      <c r="GC4">
+        <v>28</v>
+      </c>
+      <c r="GD4">
+        <v>28</v>
+      </c>
+      <c r="GE4">
+        <v>28</v>
+      </c>
+      <c r="GF4">
         <v>19</v>
       </c>
-      <c r="ET4">
-        <v>28</v>
-      </c>
-      <c r="EU4">
-        <v>28</v>
-      </c>
-      <c r="EV4">
-        <v>28</v>
-      </c>
-      <c r="EW4">
-        <v>28</v>
-      </c>
-      <c r="EX4">
-        <v>28</v>
-      </c>
-      <c r="EY4">
-        <v>28</v>
-      </c>
-      <c r="EZ4">
-        <v>28</v>
-      </c>
-      <c r="FA4" s="2">
+      <c r="GG4">
+        <v>28</v>
+      </c>
+      <c r="GH4">
+        <v>28</v>
+      </c>
+      <c r="GI4">
+        <v>28</v>
+      </c>
+      <c r="GJ4">
+        <v>28</v>
+      </c>
+      <c r="GK4">
         <v>19</v>
       </c>
-      <c r="FB4">
-        <v>28</v>
-      </c>
-      <c r="FC4">
-        <v>28</v>
-      </c>
-      <c r="FD4">
-        <v>28</v>
-      </c>
-      <c r="FE4">
-        <v>28</v>
-      </c>
-      <c r="FF4">
-        <v>28</v>
-      </c>
-      <c r="FG4">
-        <v>28</v>
-      </c>
-      <c r="FH4">
-        <v>28</v>
-      </c>
-      <c r="FI4">
-        <v>28</v>
-      </c>
-      <c r="FJ4">
-        <v>28</v>
-      </c>
-      <c r="FK4">
-        <v>28</v>
-      </c>
-      <c r="FL4">
-        <v>28</v>
-      </c>
-      <c r="FM4">
-        <v>28</v>
-      </c>
-      <c r="FN4">
-        <v>28</v>
-      </c>
-      <c r="FO4">
-        <v>28</v>
-      </c>
-      <c r="FP4">
-        <v>28</v>
-      </c>
-      <c r="FQ4">
-        <v>28</v>
-      </c>
-      <c r="FR4">
-        <v>28</v>
-      </c>
-      <c r="FS4">
-        <v>28</v>
-      </c>
-      <c r="FT4" s="2">
+      <c r="GL4">
+        <v>28</v>
+      </c>
+      <c r="GM4">
+        <v>28</v>
+      </c>
+      <c r="GN4">
+        <v>28</v>
+      </c>
+      <c r="GO4">
+        <v>28</v>
+      </c>
+      <c r="GP4">
+        <v>28</v>
+      </c>
+      <c r="GQ4">
+        <v>28</v>
+      </c>
+      <c r="GR4">
+        <v>28</v>
+      </c>
+      <c r="GS4">
+        <v>22</v>
+      </c>
+      <c r="GT4">
+        <v>22</v>
+      </c>
+      <c r="GU4">
+        <v>22</v>
+      </c>
+      <c r="GV4">
+        <v>28</v>
+      </c>
+      <c r="GW4">
+        <v>28</v>
+      </c>
+      <c r="GX4">
+        <v>28</v>
+      </c>
+      <c r="GY4">
+        <v>28</v>
+      </c>
+      <c r="GZ4">
+        <v>28</v>
+      </c>
+      <c r="HA4">
+        <v>28</v>
+      </c>
+      <c r="HB4">
+        <v>28</v>
+      </c>
+      <c r="HC4">
+        <v>28</v>
+      </c>
+      <c r="HD4">
         <v>19</v>
       </c>
-      <c r="FU4">
-        <v>28</v>
-      </c>
-      <c r="FV4">
-        <v>28</v>
-      </c>
-      <c r="FW4">
-        <v>28</v>
-      </c>
-      <c r="FX4">
-        <v>28</v>
-      </c>
-      <c r="FY4">
-        <v>28</v>
-      </c>
-      <c r="FZ4">
-        <v>28</v>
-      </c>
-      <c r="GA4">
-        <v>28</v>
-      </c>
-      <c r="GB4">
-        <v>28</v>
-      </c>
-      <c r="GC4">
-        <v>28</v>
-      </c>
-      <c r="GD4">
-        <v>28</v>
-      </c>
-      <c r="GE4">
-        <v>28</v>
-      </c>
-      <c r="GF4">
-        <v>28</v>
-      </c>
-      <c r="GG4" s="2">
-        <v>19</v>
-      </c>
-      <c r="GH4">
-        <v>28</v>
-      </c>
-      <c r="GI4">
-        <v>28</v>
-      </c>
-      <c r="GJ4">
-        <v>28</v>
-      </c>
-      <c r="GK4">
-        <v>28</v>
-      </c>
-      <c r="GL4">
-        <v>28</v>
-      </c>
-      <c r="GM4">
-        <v>28</v>
-      </c>
-      <c r="GN4">
-        <v>28</v>
-      </c>
-      <c r="GO4">
-        <v>28</v>
-      </c>
-      <c r="GP4">
-        <v>28</v>
-      </c>
-      <c r="GQ4">
-        <v>28</v>
-      </c>
-      <c r="GR4">
-        <v>28</v>
-      </c>
-      <c r="GS4">
-        <v>28</v>
-      </c>
-      <c r="GT4">
-        <v>28</v>
-      </c>
-      <c r="GU4">
-        <v>28</v>
-      </c>
-      <c r="GV4">
-        <v>28</v>
-      </c>
-      <c r="GW4">
-        <v>28</v>
-      </c>
-      <c r="GX4">
-        <v>28</v>
-      </c>
-      <c r="GY4">
-        <v>28</v>
-      </c>
-      <c r="GZ4">
-        <v>28</v>
-      </c>
-      <c r="HA4">
-        <v>28</v>
-      </c>
-      <c r="HB4">
-        <v>28</v>
-      </c>
-      <c r="HC4">
-        <v>28</v>
-      </c>
-      <c r="HD4">
-        <v>28</v>
-      </c>
       <c r="HE4">
         <v>28</v>
       </c>
@@ -4211,108 +4115,111 @@
         <v>28</v>
       </c>
       <c r="HG4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="HH4">
         <v>19</v>
       </c>
-      <c r="HI4" s="2">
+      <c r="HI4">
+        <v>28</v>
+      </c>
+      <c r="HJ4">
+        <v>28</v>
+      </c>
+      <c r="HK4">
+        <v>28</v>
+      </c>
+      <c r="HL4">
+        <v>28</v>
+      </c>
+      <c r="HM4">
+        <v>28</v>
+      </c>
+      <c r="HN4">
+        <v>28</v>
+      </c>
+      <c r="HO4">
+        <v>28</v>
+      </c>
+      <c r="HP4">
+        <v>28</v>
+      </c>
+      <c r="HQ4">
+        <v>28</v>
+      </c>
+      <c r="HR4">
+        <v>28</v>
+      </c>
+      <c r="HS4">
+        <v>28</v>
+      </c>
+      <c r="HT4">
+        <v>28</v>
+      </c>
+      <c r="HU4">
+        <v>28</v>
+      </c>
+      <c r="HV4">
+        <v>28</v>
+      </c>
+      <c r="HW4">
+        <v>28</v>
+      </c>
+      <c r="HX4">
+        <v>28</v>
+      </c>
+      <c r="HY4">
+        <v>28</v>
+      </c>
+      <c r="HZ4">
+        <v>28</v>
+      </c>
+      <c r="IA4">
+        <v>28</v>
+      </c>
+      <c r="IB4">
+        <v>28</v>
+      </c>
+      <c r="IC4">
+        <v>28</v>
+      </c>
+      <c r="ID4">
+        <v>28</v>
+      </c>
+      <c r="IE4">
+        <v>28</v>
+      </c>
+      <c r="IF4">
+        <v>28</v>
+      </c>
+      <c r="IG4">
+        <v>28</v>
+      </c>
+      <c r="IH4">
         <v>19</v>
       </c>
-      <c r="HJ4" s="2">
+      <c r="II4">
         <v>19</v>
       </c>
-      <c r="HK4">
-        <v>28</v>
-      </c>
-      <c r="HL4">
-        <v>28</v>
-      </c>
-      <c r="HM4">
-        <v>28</v>
-      </c>
-      <c r="HN4">
-        <v>28</v>
-      </c>
-      <c r="HO4">
-        <v>28</v>
-      </c>
-      <c r="HP4">
-        <v>28</v>
-      </c>
-      <c r="HQ4">
-        <v>28</v>
-      </c>
-      <c r="HR4">
-        <v>28</v>
-      </c>
-      <c r="HS4">
-        <v>28</v>
-      </c>
-      <c r="HT4">
-        <v>28</v>
-      </c>
-      <c r="HU4">
-        <v>28</v>
-      </c>
-      <c r="HV4">
-        <v>28</v>
-      </c>
-      <c r="HW4">
-        <v>28</v>
-      </c>
-      <c r="HX4">
-        <v>28</v>
-      </c>
-      <c r="HY4">
-        <v>28</v>
-      </c>
-      <c r="HZ4">
-        <v>28</v>
-      </c>
-      <c r="IA4">
-        <v>28</v>
-      </c>
-      <c r="IB4">
-        <v>28</v>
-      </c>
-      <c r="IC4">
-        <v>28</v>
-      </c>
-      <c r="ID4">
-        <v>28</v>
-      </c>
-      <c r="IE4">
-        <v>28</v>
-      </c>
-      <c r="IF4">
-        <v>28</v>
-      </c>
-      <c r="IG4">
-        <v>28</v>
-      </c>
-      <c r="IH4">
-        <v>28</v>
-      </c>
-      <c r="II4">
-        <v>28</v>
-      </c>
       <c r="IJ4">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="IK4">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>247</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5034,19 +4941,22 @@
       <c r="IJ5">
         <v>1</v>
       </c>
+      <c r="IK5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>247</v>
-      </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -5768,25 +5678,28 @@
       <c r="IJ6" t="s">
         <v>242</v>
       </c>
+      <c r="IK6" t="s">
+        <v>243</v>
+      </c>
     </row>
-    <row r="7" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>248</v>
-      </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
         <v>254</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -5798,22 +5711,22 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>256</v>
       </c>
       <c r="L7" t="s">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="N7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="O7" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="P7" t="s">
         <v>14</v>
@@ -5864,10 +5777,10 @@
         <v>29</v>
       </c>
       <c r="AF7" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="AH7" t="s">
         <v>32</v>
@@ -5900,10 +5813,10 @@
         <v>41</v>
       </c>
       <c r="AR7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AS7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AT7" t="s">
         <v>44</v>
@@ -5912,10 +5825,10 @@
         <v>45</v>
       </c>
       <c r="AV7" t="s">
-        <v>265</v>
+        <v>46</v>
       </c>
       <c r="AW7" t="s">
-        <v>47</v>
+        <v>266</v>
       </c>
       <c r="AX7" t="s">
         <v>48</v>
@@ -6086,13 +5999,13 @@
         <v>103</v>
       </c>
       <c r="DB7" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="DC7" t="s">
         <v>267</v>
       </c>
       <c r="DD7" t="s">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="DE7" t="s">
         <v>107</v>
@@ -6140,25 +6053,25 @@
         <v>121</v>
       </c>
       <c r="DT7" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>125</v>
+      </c>
+      <c r="DV7" t="s">
         <v>124</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>273</v>
       </c>
       <c r="DW7" t="s">
         <v>274</v>
       </c>
       <c r="DX7" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="DY7" t="s">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="DZ7" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="EA7" t="s">
         <v>129</v>
@@ -6170,40 +6083,40 @@
         <v>131</v>
       </c>
       <c r="ED7" t="s">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="EE7" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="EF7" t="s">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="EG7" t="s">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="EH7" t="s">
-        <v>282</v>
+        <v>138</v>
       </c>
       <c r="EI7" t="s">
         <v>283</v>
       </c>
       <c r="EJ7" t="s">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="EK7" t="s">
         <v>139</v>
       </c>
       <c r="EL7" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="EM7" t="s">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="EN7" t="s">
-        <v>285</v>
+        <v>142</v>
       </c>
       <c r="EO7" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="EP7" t="s">
         <v>144</v>
@@ -6215,7 +6128,7 @@
         <v>146</v>
       </c>
       <c r="ES7" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="ET7" t="s">
         <v>148</v>
@@ -6239,7 +6152,7 @@
         <v>154</v>
       </c>
       <c r="FA7" t="s">
-        <v>286</v>
+        <v>155</v>
       </c>
       <c r="FB7" t="s">
         <v>156</v>
@@ -6293,7 +6206,7 @@
         <v>172</v>
       </c>
       <c r="FS7" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="FT7" t="s">
         <v>174</v>
@@ -6335,7 +6248,7 @@
         <v>186</v>
       </c>
       <c r="GG7" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="GH7" t="s">
         <v>188</v>
@@ -6347,7 +6260,7 @@
         <v>190</v>
       </c>
       <c r="GK7" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="GL7" t="s">
         <v>192</v>
@@ -6401,25 +6314,25 @@
         <v>208</v>
       </c>
       <c r="HC7" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="HD7" t="s">
         <v>210</v>
       </c>
       <c r="HE7" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="HF7" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="HG7" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="HH7" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="HI7" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="HJ7" t="s">
         <v>216</v>
@@ -6494,27 +6407,30 @@
         <v>239</v>
       </c>
       <c r="IH7" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="II7" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="IJ7" t="s">
-        <v>242</v>
+        <v>287</v>
+      </c>
+      <c r="IK7" t="s">
+        <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>249</v>
-      </c>
-      <c r="S8" t="s">
-        <v>259</v>
+      <c r="D8" t="s">
+        <v>250</v>
       </c>
       <c r="T8" t="s">
         <v>260</v>
@@ -6525,886 +6441,897 @@
       <c r="V8" t="s">
         <v>262</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="W8" t="s">
         <v>263</v>
       </c>
+      <c r="Z8" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="9" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+      <c r="R9">
+        <v>14</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <v>16</v>
+      </c>
+      <c r="U9">
+        <v>17</v>
+      </c>
+      <c r="V9">
+        <v>18</v>
+      </c>
+      <c r="W9">
+        <v>19</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>21</v>
+      </c>
+      <c r="Z9">
+        <v>22</v>
+      </c>
+      <c r="AA9">
+        <v>23</v>
+      </c>
+      <c r="AB9">
+        <v>24</v>
+      </c>
+      <c r="AC9">
+        <v>25</v>
+      </c>
+      <c r="AD9">
+        <v>26</v>
+      </c>
+      <c r="AE9">
+        <v>27</v>
+      </c>
+      <c r="AF9">
+        <v>28</v>
+      </c>
+      <c r="AG9">
+        <v>29</v>
+      </c>
+      <c r="AH9">
+        <v>30</v>
+      </c>
+      <c r="AI9">
+        <v>31</v>
+      </c>
+      <c r="AJ9">
+        <v>32</v>
+      </c>
+      <c r="AK9">
+        <v>33</v>
+      </c>
+      <c r="AL9">
+        <v>34</v>
+      </c>
+      <c r="AM9">
+        <v>35</v>
+      </c>
+      <c r="AN9">
+        <v>36</v>
+      </c>
+      <c r="AO9">
+        <v>37</v>
+      </c>
+      <c r="AP9">
+        <v>38</v>
+      </c>
+      <c r="AQ9">
+        <v>39</v>
+      </c>
+      <c r="AR9">
+        <v>40</v>
+      </c>
+      <c r="AS9">
+        <v>41</v>
+      </c>
+      <c r="AT9">
+        <v>42</v>
+      </c>
+      <c r="AU9">
+        <v>43</v>
+      </c>
+      <c r="AV9">
+        <v>44</v>
+      </c>
+      <c r="AW9">
+        <v>45</v>
+      </c>
+      <c r="AX9">
+        <v>46</v>
+      </c>
+      <c r="AY9">
+        <v>47</v>
+      </c>
+      <c r="AZ9">
+        <v>48</v>
+      </c>
+      <c r="BA9">
+        <v>49</v>
+      </c>
+      <c r="BB9">
+        <v>50</v>
+      </c>
+      <c r="BC9">
+        <v>51</v>
+      </c>
+      <c r="BD9">
+        <v>52</v>
+      </c>
+      <c r="BE9">
+        <v>53</v>
+      </c>
+      <c r="BF9">
+        <v>54</v>
+      </c>
+      <c r="BG9">
+        <v>55</v>
+      </c>
+      <c r="BH9">
+        <v>56</v>
+      </c>
+      <c r="BI9">
+        <v>57</v>
+      </c>
+      <c r="BJ9">
+        <v>58</v>
+      </c>
+      <c r="BK9">
+        <v>59</v>
+      </c>
+      <c r="BL9">
+        <v>60</v>
+      </c>
+      <c r="BM9">
+        <v>61</v>
+      </c>
+      <c r="BN9">
+        <v>62</v>
+      </c>
+      <c r="BO9">
+        <v>63</v>
+      </c>
+      <c r="BP9">
+        <v>64</v>
+      </c>
+      <c r="BQ9">
+        <v>65</v>
+      </c>
+      <c r="BR9">
+        <v>66</v>
+      </c>
+      <c r="BS9">
+        <v>67</v>
+      </c>
+      <c r="BT9">
+        <v>68</v>
+      </c>
+      <c r="BU9">
+        <v>69</v>
+      </c>
+      <c r="BV9">
+        <v>70</v>
+      </c>
+      <c r="BW9">
+        <v>71</v>
+      </c>
+      <c r="BX9">
+        <v>72</v>
+      </c>
+      <c r="BY9">
+        <v>73</v>
+      </c>
+      <c r="BZ9">
+        <v>74</v>
+      </c>
+      <c r="CA9">
+        <v>75</v>
+      </c>
+      <c r="CB9">
+        <v>76</v>
+      </c>
+      <c r="CC9">
+        <v>77</v>
+      </c>
+      <c r="CD9">
+        <v>78</v>
+      </c>
+      <c r="CE9">
+        <v>79</v>
+      </c>
+      <c r="CF9">
+        <v>80</v>
+      </c>
+      <c r="CG9">
+        <v>81</v>
+      </c>
+      <c r="CH9">
+        <v>82</v>
+      </c>
+      <c r="CI9">
+        <v>83</v>
+      </c>
+      <c r="CJ9">
+        <v>84</v>
+      </c>
+      <c r="CK9">
+        <v>85</v>
+      </c>
+      <c r="CL9">
+        <v>86</v>
+      </c>
+      <c r="CM9">
+        <v>87</v>
+      </c>
+      <c r="CN9">
+        <v>88</v>
+      </c>
+      <c r="CO9">
+        <v>89</v>
+      </c>
+      <c r="CP9">
+        <v>90</v>
+      </c>
+      <c r="CQ9">
+        <v>91</v>
+      </c>
+      <c r="CR9">
+        <v>92</v>
+      </c>
+      <c r="CS9">
+        <v>93</v>
+      </c>
+      <c r="CT9">
+        <v>94</v>
+      </c>
+      <c r="CU9">
+        <v>95</v>
+      </c>
+      <c r="CV9">
+        <v>96</v>
+      </c>
+      <c r="CW9">
+        <v>97</v>
+      </c>
+      <c r="CX9">
+        <v>98</v>
+      </c>
+      <c r="CY9">
+        <v>99</v>
+      </c>
+      <c r="CZ9">
+        <v>100</v>
+      </c>
+      <c r="DA9">
+        <v>101</v>
+      </c>
+      <c r="DB9">
+        <v>102</v>
+      </c>
+      <c r="DC9">
+        <v>103</v>
+      </c>
+      <c r="DD9">
+        <v>104</v>
+      </c>
+      <c r="DE9">
+        <v>105</v>
+      </c>
+      <c r="DF9">
+        <v>106</v>
+      </c>
+      <c r="DG9">
+        <v>107</v>
+      </c>
+      <c r="DH9">
+        <v>108</v>
+      </c>
+      <c r="DI9">
+        <v>109</v>
+      </c>
+      <c r="DJ9">
+        <v>110</v>
+      </c>
+      <c r="DK9">
+        <v>111</v>
+      </c>
+      <c r="DL9">
+        <v>112</v>
+      </c>
+      <c r="DM9">
+        <v>113</v>
+      </c>
+      <c r="DN9">
+        <v>114</v>
+      </c>
+      <c r="DO9">
+        <v>115</v>
+      </c>
+      <c r="DP9">
+        <v>116</v>
+      </c>
+      <c r="DQ9">
+        <v>117</v>
+      </c>
+      <c r="DR9">
+        <v>118</v>
+      </c>
+      <c r="DS9">
+        <v>119</v>
+      </c>
+      <c r="DT9">
+        <v>120</v>
+      </c>
+      <c r="DU9">
+        <v>121</v>
+      </c>
+      <c r="DV9">
+        <v>122</v>
+      </c>
+      <c r="DW9">
+        <v>123</v>
+      </c>
+      <c r="DX9">
+        <v>124</v>
+      </c>
+      <c r="DY9">
+        <v>125</v>
+      </c>
+      <c r="DZ9">
+        <v>126</v>
+      </c>
+      <c r="EA9">
+        <v>127</v>
+      </c>
+      <c r="EB9">
+        <v>128</v>
+      </c>
+      <c r="EC9">
+        <v>129</v>
+      </c>
+      <c r="ED9">
+        <v>130</v>
+      </c>
+      <c r="EE9">
+        <v>131</v>
+      </c>
+      <c r="EF9">
+        <v>132</v>
+      </c>
+      <c r="EG9">
+        <v>133</v>
+      </c>
+      <c r="EH9">
+        <v>134</v>
+      </c>
+      <c r="EI9">
+        <v>135</v>
+      </c>
+      <c r="EJ9">
+        <v>136</v>
+      </c>
+      <c r="EK9">
+        <v>137</v>
+      </c>
+      <c r="EL9">
+        <v>138</v>
+      </c>
+      <c r="EM9">
+        <v>139</v>
+      </c>
+      <c r="EN9">
+        <v>140</v>
+      </c>
+      <c r="EO9">
+        <v>141</v>
+      </c>
+      <c r="EP9">
+        <v>147</v>
+      </c>
+      <c r="EQ9">
+        <v>148</v>
+      </c>
+      <c r="ER9">
+        <v>149</v>
+      </c>
+      <c r="ES9">
+        <v>174</v>
+      </c>
+      <c r="ET9">
+        <v>175</v>
+      </c>
+      <c r="EU9">
+        <v>176</v>
+      </c>
+      <c r="EV9">
+        <v>177</v>
+      </c>
+      <c r="EW9">
+        <v>178</v>
+      </c>
+      <c r="EX9">
         <v>179</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="N9">
-        <v>11</v>
-      </c>
-      <c r="O9">
-        <v>12</v>
-      </c>
-      <c r="P9">
-        <v>13</v>
-      </c>
-      <c r="Q9">
-        <v>14</v>
-      </c>
-      <c r="R9">
-        <v>15</v>
-      </c>
-      <c r="S9">
-        <v>16</v>
-      </c>
-      <c r="T9">
-        <v>17</v>
-      </c>
-      <c r="U9">
-        <v>18</v>
-      </c>
-      <c r="V9">
-        <v>19</v>
-      </c>
-      <c r="W9">
-        <v>20</v>
-      </c>
-      <c r="X9">
-        <v>21</v>
-      </c>
-      <c r="Y9">
-        <v>22</v>
-      </c>
-      <c r="Z9">
-        <v>23</v>
-      </c>
-      <c r="AA9">
-        <v>24</v>
-      </c>
-      <c r="AB9">
-        <v>25</v>
-      </c>
-      <c r="AC9">
-        <v>26</v>
-      </c>
-      <c r="AD9">
-        <v>27</v>
-      </c>
-      <c r="AE9">
-        <v>28</v>
-      </c>
-      <c r="AF9">
-        <v>29</v>
-      </c>
-      <c r="AG9">
-        <v>30</v>
-      </c>
-      <c r="AH9">
-        <v>31</v>
-      </c>
-      <c r="AI9">
-        <v>32</v>
-      </c>
-      <c r="AJ9">
-        <v>33</v>
-      </c>
-      <c r="AK9">
-        <v>34</v>
-      </c>
-      <c r="AL9">
-        <v>35</v>
-      </c>
-      <c r="AM9">
-        <v>36</v>
-      </c>
-      <c r="AN9">
-        <v>37</v>
-      </c>
-      <c r="AO9">
-        <v>38</v>
-      </c>
-      <c r="AP9">
-        <v>39</v>
-      </c>
-      <c r="AQ9">
-        <v>40</v>
-      </c>
-      <c r="AR9">
-        <v>41</v>
-      </c>
-      <c r="AS9">
-        <v>42</v>
-      </c>
-      <c r="AT9">
-        <v>43</v>
-      </c>
-      <c r="AU9">
-        <v>44</v>
-      </c>
-      <c r="AV9">
-        <v>45</v>
-      </c>
-      <c r="AW9">
-        <v>46</v>
-      </c>
-      <c r="AX9">
-        <v>47</v>
-      </c>
-      <c r="AY9">
-        <v>48</v>
-      </c>
-      <c r="AZ9">
-        <v>49</v>
-      </c>
-      <c r="BA9">
-        <v>50</v>
-      </c>
-      <c r="BB9">
-        <v>51</v>
-      </c>
-      <c r="BC9">
-        <v>52</v>
-      </c>
-      <c r="BD9">
-        <v>53</v>
-      </c>
-      <c r="BE9">
-        <v>54</v>
-      </c>
-      <c r="BF9">
-        <v>55</v>
-      </c>
-      <c r="BG9">
-        <v>56</v>
-      </c>
-      <c r="BH9">
-        <v>57</v>
-      </c>
-      <c r="BI9">
-        <v>58</v>
-      </c>
-      <c r="BJ9">
-        <v>59</v>
-      </c>
-      <c r="BK9">
-        <v>60</v>
-      </c>
-      <c r="BL9">
-        <v>61</v>
-      </c>
-      <c r="BM9">
-        <v>62</v>
-      </c>
-      <c r="BN9">
-        <v>63</v>
-      </c>
-      <c r="BO9">
-        <v>64</v>
-      </c>
-      <c r="BP9">
-        <v>65</v>
-      </c>
-      <c r="BQ9">
-        <v>66</v>
-      </c>
-      <c r="BR9">
-        <v>67</v>
-      </c>
-      <c r="BS9">
-        <v>68</v>
-      </c>
-      <c r="BT9">
-        <v>69</v>
-      </c>
-      <c r="BU9">
-        <v>70</v>
-      </c>
-      <c r="BV9">
-        <v>71</v>
-      </c>
-      <c r="BW9">
-        <v>72</v>
-      </c>
-      <c r="BX9">
-        <v>73</v>
-      </c>
-      <c r="BY9">
-        <v>74</v>
-      </c>
-      <c r="BZ9">
-        <v>75</v>
-      </c>
-      <c r="CA9">
-        <v>76</v>
-      </c>
-      <c r="CB9">
-        <v>77</v>
-      </c>
-      <c r="CC9">
-        <v>78</v>
-      </c>
-      <c r="CD9">
-        <v>79</v>
-      </c>
-      <c r="CE9">
-        <v>80</v>
-      </c>
-      <c r="CF9">
-        <v>81</v>
-      </c>
-      <c r="CG9">
-        <v>82</v>
-      </c>
-      <c r="CH9">
-        <v>83</v>
-      </c>
-      <c r="CI9">
-        <v>84</v>
-      </c>
-      <c r="CJ9">
-        <v>85</v>
-      </c>
-      <c r="CK9">
-        <v>86</v>
-      </c>
-      <c r="CL9">
-        <v>87</v>
-      </c>
-      <c r="CM9">
-        <v>88</v>
-      </c>
-      <c r="CN9">
-        <v>89</v>
-      </c>
-      <c r="CO9">
-        <v>90</v>
-      </c>
-      <c r="CP9">
-        <v>91</v>
-      </c>
-      <c r="CQ9">
-        <v>92</v>
-      </c>
-      <c r="CR9">
-        <v>93</v>
-      </c>
-      <c r="CS9">
-        <v>94</v>
-      </c>
-      <c r="CT9">
-        <v>95</v>
-      </c>
-      <c r="CU9">
-        <v>96</v>
-      </c>
-      <c r="CV9">
-        <v>97</v>
-      </c>
-      <c r="CW9">
-        <v>98</v>
-      </c>
-      <c r="CX9">
-        <v>99</v>
-      </c>
-      <c r="CY9">
-        <v>100</v>
-      </c>
-      <c r="CZ9">
-        <v>101</v>
-      </c>
-      <c r="DA9">
-        <v>102</v>
-      </c>
-      <c r="DB9">
-        <v>103</v>
-      </c>
-      <c r="DC9">
-        <v>104</v>
-      </c>
-      <c r="DD9">
-        <v>105</v>
-      </c>
-      <c r="DE9">
-        <v>106</v>
-      </c>
-      <c r="DF9">
-        <v>107</v>
-      </c>
-      <c r="DG9">
-        <v>108</v>
-      </c>
-      <c r="DH9">
-        <v>109</v>
-      </c>
-      <c r="DI9">
-        <v>110</v>
-      </c>
-      <c r="DJ9">
-        <v>111</v>
-      </c>
-      <c r="DK9">
-        <v>112</v>
-      </c>
-      <c r="DL9">
-        <v>113</v>
-      </c>
-      <c r="DM9">
-        <v>114</v>
-      </c>
-      <c r="DN9">
-        <v>115</v>
-      </c>
-      <c r="DO9">
-        <v>116</v>
-      </c>
-      <c r="DP9">
-        <v>117</v>
-      </c>
-      <c r="DQ9">
-        <v>118</v>
-      </c>
-      <c r="DR9">
-        <v>119</v>
-      </c>
-      <c r="DS9">
-        <v>120</v>
-      </c>
-      <c r="DT9">
-        <v>121</v>
-      </c>
-      <c r="DU9">
-        <v>122</v>
-      </c>
-      <c r="DV9">
-        <v>123</v>
-      </c>
-      <c r="DW9">
-        <v>124</v>
-      </c>
-      <c r="DX9">
-        <v>125</v>
-      </c>
-      <c r="DY9">
-        <v>126</v>
-      </c>
-      <c r="DZ9">
-        <v>127</v>
-      </c>
-      <c r="EA9">
-        <v>128</v>
-      </c>
-      <c r="EB9">
-        <v>129</v>
-      </c>
-      <c r="EC9">
-        <v>130</v>
-      </c>
-      <c r="ED9">
-        <v>131</v>
-      </c>
-      <c r="EE9">
-        <v>132</v>
-      </c>
-      <c r="EF9">
-        <v>133</v>
-      </c>
-      <c r="EG9">
-        <v>134</v>
-      </c>
-      <c r="EH9">
-        <v>135</v>
-      </c>
-      <c r="EI9">
-        <v>136</v>
-      </c>
-      <c r="EJ9">
-        <v>137</v>
-      </c>
-      <c r="EK9">
-        <v>138</v>
-      </c>
-      <c r="EL9">
-        <v>139</v>
-      </c>
-      <c r="EM9">
-        <v>140</v>
-      </c>
-      <c r="EN9">
-        <v>141</v>
-      </c>
-      <c r="EO9">
+      <c r="EY9">
+        <v>181</v>
+      </c>
+      <c r="EZ9">
+        <v>182</v>
+      </c>
+      <c r="FA9">
+        <v>183</v>
+      </c>
+      <c r="FB9">
+        <v>216</v>
+      </c>
+      <c r="FC9">
+        <v>217</v>
+      </c>
+      <c r="FD9">
+        <v>218</v>
+      </c>
+      <c r="FE9">
+        <v>219</v>
+      </c>
+      <c r="FF9">
+        <v>220</v>
+      </c>
+      <c r="FG9">
+        <v>221</v>
+      </c>
+      <c r="FH9">
+        <v>222</v>
+      </c>
+      <c r="FI9">
+        <v>223</v>
+      </c>
+      <c r="FJ9">
+        <v>224</v>
+      </c>
+      <c r="FK9">
+        <v>225</v>
+      </c>
+      <c r="FL9">
+        <v>226</v>
+      </c>
+      <c r="FM9">
+        <v>227</v>
+      </c>
+      <c r="FN9">
+        <v>228</v>
+      </c>
+      <c r="FO9">
+        <v>229</v>
+      </c>
+      <c r="FP9">
+        <v>230</v>
+      </c>
+      <c r="FQ9">
+        <v>231</v>
+      </c>
+      <c r="FR9">
+        <v>232</v>
+      </c>
+      <c r="FS9">
+        <v>233</v>
+      </c>
+      <c r="FT9">
+        <v>234</v>
+      </c>
+      <c r="FU9">
+        <v>235</v>
+      </c>
+      <c r="FV9">
+        <v>236</v>
+      </c>
+      <c r="FW9">
+        <v>237</v>
+      </c>
+      <c r="FX9">
+        <v>238</v>
+      </c>
+      <c r="FY9">
+        <v>239</v>
+      </c>
+      <c r="FZ9">
+        <v>240</v>
+      </c>
+      <c r="GA9">
+        <v>241</v>
+      </c>
+      <c r="GB9">
         <v>142</v>
       </c>
-      <c r="EP9">
+      <c r="GC9">
         <v>143</v>
       </c>
-      <c r="EQ9">
+      <c r="GD9">
         <v>144</v>
       </c>
-      <c r="ER9">
+      <c r="GE9">
         <v>145</v>
       </c>
-      <c r="ES9">
+      <c r="GF9">
         <v>146</v>
       </c>
-      <c r="ET9">
-        <v>147</v>
-      </c>
-      <c r="EU9">
-        <v>148</v>
-      </c>
-      <c r="EV9">
-        <v>149</v>
-      </c>
-      <c r="EW9">
+      <c r="GG9">
         <v>150</v>
       </c>
-      <c r="EX9">
+      <c r="GH9">
         <v>151</v>
       </c>
-      <c r="EY9">
+      <c r="GI9">
         <v>152</v>
       </c>
-      <c r="EZ9">
+      <c r="GJ9">
         <v>153</v>
       </c>
-      <c r="FA9">
+      <c r="GK9">
         <v>154</v>
       </c>
-      <c r="FB9">
+      <c r="GL9">
         <v>155</v>
       </c>
-      <c r="FC9">
+      <c r="GM9">
         <v>156</v>
       </c>
-      <c r="FD9">
+      <c r="GN9">
         <v>157</v>
       </c>
-      <c r="FE9">
+      <c r="GO9">
         <v>158</v>
       </c>
-      <c r="FF9">
+      <c r="GP9">
         <v>159</v>
       </c>
-      <c r="FG9">
+      <c r="GQ9">
         <v>160</v>
       </c>
-      <c r="FH9">
+      <c r="GR9">
         <v>161</v>
       </c>
-      <c r="FI9">
+      <c r="GS9">
         <v>162</v>
       </c>
-      <c r="FJ9">
+      <c r="GT9">
         <v>163</v>
       </c>
-      <c r="FK9">
+      <c r="GU9">
         <v>164</v>
       </c>
-      <c r="FL9">
+      <c r="GV9">
         <v>165</v>
       </c>
-      <c r="FM9">
+      <c r="GW9">
         <v>166</v>
       </c>
-      <c r="FN9">
+      <c r="GX9">
         <v>167</v>
       </c>
-      <c r="FO9">
+      <c r="GY9">
         <v>168</v>
       </c>
-      <c r="FP9">
+      <c r="GZ9">
         <v>169</v>
       </c>
-      <c r="FQ9">
+      <c r="HA9">
         <v>170</v>
       </c>
-      <c r="FR9">
+      <c r="HB9">
         <v>171</v>
       </c>
-      <c r="FS9">
+      <c r="HC9">
         <v>172</v>
       </c>
-      <c r="FT9">
+      <c r="HD9">
         <v>173</v>
       </c>
-      <c r="FU9">
-        <v>174</v>
-      </c>
-      <c r="FV9">
-        <v>175</v>
-      </c>
-      <c r="FW9">
-        <v>176</v>
-      </c>
-      <c r="FX9">
-        <v>177</v>
-      </c>
-      <c r="FY9">
-        <v>178</v>
-      </c>
-      <c r="FZ9">
-        <v>179</v>
-      </c>
-      <c r="GA9">
+      <c r="HE9">
         <v>180</v>
       </c>
-      <c r="GB9">
-        <v>181</v>
-      </c>
-      <c r="GC9">
-        <v>182</v>
-      </c>
-      <c r="GD9">
-        <v>183</v>
-      </c>
-      <c r="GE9">
+      <c r="HF9">
         <v>184</v>
       </c>
-      <c r="GF9">
+      <c r="HG9">
         <v>185</v>
       </c>
-      <c r="GG9">
+      <c r="HH9">
         <v>186</v>
       </c>
-      <c r="GH9">
+      <c r="HI9">
         <v>187</v>
       </c>
-      <c r="GI9">
+      <c r="HJ9">
         <v>188</v>
       </c>
-      <c r="GJ9">
+      <c r="HK9">
         <v>189</v>
       </c>
-      <c r="GK9">
+      <c r="HL9">
         <v>190</v>
       </c>
-      <c r="GL9">
+      <c r="HM9">
         <v>191</v>
       </c>
-      <c r="GM9">
+      <c r="HN9">
         <v>192</v>
       </c>
-      <c r="GN9">
+      <c r="HO9">
         <v>193</v>
       </c>
-      <c r="GO9">
+      <c r="HP9">
         <v>194</v>
       </c>
-      <c r="GP9">
+      <c r="HQ9">
         <v>195</v>
       </c>
-      <c r="GQ9">
+      <c r="HR9">
         <v>196</v>
       </c>
-      <c r="GR9">
+      <c r="HS9">
         <v>197</v>
       </c>
-      <c r="GS9">
+      <c r="HT9">
         <v>198</v>
       </c>
-      <c r="GT9">
+      <c r="HU9">
         <v>199</v>
       </c>
-      <c r="GU9">
+      <c r="HV9">
         <v>200</v>
       </c>
-      <c r="GV9">
+      <c r="HW9">
         <v>201</v>
       </c>
-      <c r="GW9">
+      <c r="HX9">
         <v>202</v>
       </c>
-      <c r="GX9">
+      <c r="HY9">
         <v>203</v>
       </c>
-      <c r="GY9">
+      <c r="HZ9">
         <v>204</v>
       </c>
-      <c r="GZ9">
+      <c r="IA9">
         <v>205</v>
       </c>
-      <c r="HA9">
+      <c r="IB9">
         <v>206</v>
       </c>
-      <c r="HB9">
+      <c r="IC9">
         <v>207</v>
       </c>
-      <c r="HC9">
+      <c r="ID9">
         <v>208</v>
       </c>
-      <c r="HD9">
+      <c r="IE9">
         <v>209</v>
       </c>
-      <c r="HE9">
+      <c r="IF9">
         <v>210</v>
       </c>
-      <c r="HF9">
+      <c r="IG9">
         <v>211</v>
       </c>
-      <c r="HG9">
+      <c r="IH9">
         <v>212</v>
       </c>
-      <c r="HH9">
+      <c r="II9">
         <v>213</v>
       </c>
-      <c r="HI9">
+      <c r="IJ9">
         <v>214</v>
       </c>
-      <c r="HJ9">
+      <c r="IK9">
         <v>215</v>
       </c>
-      <c r="HK9">
-        <v>216</v>
-      </c>
-      <c r="HL9">
-        <v>217</v>
-      </c>
-      <c r="HM9">
-        <v>218</v>
-      </c>
-      <c r="HN9">
-        <v>219</v>
-      </c>
-      <c r="HO9">
-        <v>220</v>
-      </c>
-      <c r="HP9">
-        <v>221</v>
-      </c>
-      <c r="HQ9">
-        <v>222</v>
-      </c>
-      <c r="HR9">
-        <v>223</v>
-      </c>
-      <c r="HS9">
-        <v>224</v>
-      </c>
-      <c r="HT9">
-        <v>225</v>
-      </c>
-      <c r="HU9">
-        <v>226</v>
-      </c>
-      <c r="HV9">
-        <v>227</v>
-      </c>
-      <c r="HW9">
-        <v>228</v>
-      </c>
-      <c r="HX9">
-        <v>229</v>
-      </c>
-      <c r="HY9">
-        <v>230</v>
-      </c>
-      <c r="HZ9">
-        <v>231</v>
-      </c>
-      <c r="IA9">
-        <v>232</v>
-      </c>
-      <c r="IB9">
-        <v>233</v>
-      </c>
-      <c r="IC9">
-        <v>234</v>
-      </c>
-      <c r="ID9">
-        <v>235</v>
-      </c>
-      <c r="IE9">
-        <v>236</v>
-      </c>
-      <c r="IF9">
-        <v>237</v>
-      </c>
-      <c r="IG9">
-        <v>238</v>
-      </c>
-      <c r="IH9">
-        <v>239</v>
-      </c>
-      <c r="II9">
-        <v>240</v>
-      </c>
-      <c r="IJ9">
-        <v>241</v>
-      </c>
     </row>
-    <row r="10" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>250</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>251</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>2</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>3</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:244" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:245" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>251</v>
-      </c>
-      <c r="DE11" t="s">
-        <v>268</v>
+      <c r="D11" t="s">
+        <v>252</v>
       </c>
       <c r="DF11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DG11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DH11" t="s">
         <v>269</v>
       </c>
       <c r="DI11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DJ11" t="s">
-        <v>269</v>
-      </c>
-      <c r="DL11" t="s">
         <v>270</v>
       </c>
+      <c r="DK11" t="s">
+        <v>270</v>
+      </c>
       <c r="DM11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DN11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DO11" t="s">
         <v>271</v>
       </c>
       <c r="DP11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DQ11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DR11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DS11" t="s">
         <v>272</v>
       </c>
       <c r="DT11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DU11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DV11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DW11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="DX11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="DY11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="EA11" t="s">
         <v>278</v>
       </c>
       <c r="EB11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EC11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="ED11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EE11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EF11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="EG11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EH11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EI11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EJ11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EK11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EL11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EM11" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC91130-9EC4-AD49-827C-63F2FDBB3284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DDD72D-F901-F94F-AD7F-6009D934FDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="32020" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36880" yWindow="-4460" windowWidth="32020" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="292">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -655,9 +655,6 @@
     <t>labor_framework</t>
   </si>
   <si>
-    <t>labor_d</t>
-  </si>
-  <si>
     <t>labor_id</t>
   </si>
   <si>
@@ -887,9 +884,6 @@
   </si>
   <si>
     <t>Pose ossatures</t>
-  </si>
-  <si>
-    <t>laborId</t>
   </si>
   <si>
     <t>labor.id</t>
@@ -1309,21 +1303,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IK11"/>
+  <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HS1" workbookViewId="0">
-      <selection activeCell="IL8" sqref="IL8"/>
+    <sheetView tabSelected="1" topLeftCell="GQ1" workbookViewId="0">
+      <selection activeCell="HE1" sqref="HE1:HE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="145" max="145" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="7" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:244" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2053,28 +2048,25 @@
       <c r="IJ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="IK1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:244" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:245" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>244</v>
-      </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2089,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2116,16 +2108,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2134,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -2701,85 +2693,85 @@
         <v>0</v>
       </c>
       <c r="HG2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HH2">
+        <v>0</v>
+      </c>
+      <c r="HI2">
+        <v>0</v>
+      </c>
+      <c r="HJ2">
+        <v>0</v>
+      </c>
+      <c r="HK2">
+        <v>0</v>
+      </c>
+      <c r="HL2">
+        <v>0</v>
+      </c>
+      <c r="HM2">
+        <v>0</v>
+      </c>
+      <c r="HN2">
+        <v>0</v>
+      </c>
+      <c r="HO2">
+        <v>0</v>
+      </c>
+      <c r="HP2">
+        <v>0</v>
+      </c>
+      <c r="HQ2">
+        <v>0</v>
+      </c>
+      <c r="HR2">
+        <v>0</v>
+      </c>
+      <c r="HS2">
+        <v>0</v>
+      </c>
+      <c r="HT2">
+        <v>0</v>
+      </c>
+      <c r="HU2">
+        <v>0</v>
+      </c>
+      <c r="HV2">
+        <v>0</v>
+      </c>
+      <c r="HW2">
+        <v>0</v>
+      </c>
+      <c r="HX2">
+        <v>0</v>
+      </c>
+      <c r="HY2">
+        <v>0</v>
+      </c>
+      <c r="HZ2">
+        <v>0</v>
+      </c>
+      <c r="IA2">
+        <v>0</v>
+      </c>
+      <c r="IB2">
+        <v>0</v>
+      </c>
+      <c r="IC2">
+        <v>0</v>
+      </c>
+      <c r="ID2">
+        <v>0</v>
+      </c>
+      <c r="IE2">
+        <v>0</v>
+      </c>
+      <c r="IF2">
+        <v>0</v>
+      </c>
+      <c r="IG2">
         <v>3</v>
-      </c>
-      <c r="HI2">
-        <v>0</v>
-      </c>
-      <c r="HJ2">
-        <v>0</v>
-      </c>
-      <c r="HK2">
-        <v>0</v>
-      </c>
-      <c r="HL2">
-        <v>0</v>
-      </c>
-      <c r="HM2">
-        <v>0</v>
-      </c>
-      <c r="HN2">
-        <v>0</v>
-      </c>
-      <c r="HO2">
-        <v>0</v>
-      </c>
-      <c r="HP2">
-        <v>0</v>
-      </c>
-      <c r="HQ2">
-        <v>0</v>
-      </c>
-      <c r="HR2">
-        <v>0</v>
-      </c>
-      <c r="HS2">
-        <v>0</v>
-      </c>
-      <c r="HT2">
-        <v>0</v>
-      </c>
-      <c r="HU2">
-        <v>0</v>
-      </c>
-      <c r="HV2">
-        <v>0</v>
-      </c>
-      <c r="HW2">
-        <v>0</v>
-      </c>
-      <c r="HX2">
-        <v>0</v>
-      </c>
-      <c r="HY2">
-        <v>0</v>
-      </c>
-      <c r="HZ2">
-        <v>0</v>
-      </c>
-      <c r="IA2">
-        <v>0</v>
-      </c>
-      <c r="IB2">
-        <v>0</v>
-      </c>
-      <c r="IC2">
-        <v>0</v>
-      </c>
-      <c r="ID2">
-        <v>0</v>
-      </c>
-      <c r="IE2">
-        <v>0</v>
-      </c>
-      <c r="IF2">
-        <v>0</v>
-      </c>
-      <c r="IG2">
-        <v>0</v>
       </c>
       <c r="IH2">
         <v>3</v>
@@ -2790,11 +2782,8 @@
       <c r="IJ2">
         <v>3</v>
       </c>
-      <c r="IK2">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2805,7 +2794,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3408,85 +3397,85 @@
         <v>16</v>
       </c>
       <c r="HG3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="HH3">
+        <v>16</v>
+      </c>
+      <c r="HI3">
+        <v>16</v>
+      </c>
+      <c r="HJ3">
+        <v>16</v>
+      </c>
+      <c r="HK3">
+        <v>16</v>
+      </c>
+      <c r="HL3">
+        <v>16</v>
+      </c>
+      <c r="HM3">
+        <v>16</v>
+      </c>
+      <c r="HN3">
+        <v>16</v>
+      </c>
+      <c r="HO3">
+        <v>16</v>
+      </c>
+      <c r="HP3">
+        <v>16</v>
+      </c>
+      <c r="HQ3">
+        <v>16</v>
+      </c>
+      <c r="HR3">
+        <v>16</v>
+      </c>
+      <c r="HS3">
+        <v>16</v>
+      </c>
+      <c r="HT3">
+        <v>16</v>
+      </c>
+      <c r="HU3">
+        <v>16</v>
+      </c>
+      <c r="HV3">
+        <v>16</v>
+      </c>
+      <c r="HW3">
+        <v>16</v>
+      </c>
+      <c r="HX3">
+        <v>16</v>
+      </c>
+      <c r="HY3">
+        <v>16</v>
+      </c>
+      <c r="HZ3">
+        <v>16</v>
+      </c>
+      <c r="IA3">
+        <v>16</v>
+      </c>
+      <c r="IB3">
+        <v>16</v>
+      </c>
+      <c r="IC3">
+        <v>16</v>
+      </c>
+      <c r="ID3">
+        <v>16</v>
+      </c>
+      <c r="IE3">
+        <v>16</v>
+      </c>
+      <c r="IF3">
+        <v>16</v>
+      </c>
+      <c r="IG3">
         <v>9</v>
-      </c>
-      <c r="HI3">
-        <v>16</v>
-      </c>
-      <c r="HJ3">
-        <v>16</v>
-      </c>
-      <c r="HK3">
-        <v>16</v>
-      </c>
-      <c r="HL3">
-        <v>16</v>
-      </c>
-      <c r="HM3">
-        <v>16</v>
-      </c>
-      <c r="HN3">
-        <v>16</v>
-      </c>
-      <c r="HO3">
-        <v>16</v>
-      </c>
-      <c r="HP3">
-        <v>16</v>
-      </c>
-      <c r="HQ3">
-        <v>16</v>
-      </c>
-      <c r="HR3">
-        <v>16</v>
-      </c>
-      <c r="HS3">
-        <v>16</v>
-      </c>
-      <c r="HT3">
-        <v>16</v>
-      </c>
-      <c r="HU3">
-        <v>16</v>
-      </c>
-      <c r="HV3">
-        <v>16</v>
-      </c>
-      <c r="HW3">
-        <v>16</v>
-      </c>
-      <c r="HX3">
-        <v>16</v>
-      </c>
-      <c r="HY3">
-        <v>16</v>
-      </c>
-      <c r="HZ3">
-        <v>16</v>
-      </c>
-      <c r="IA3">
-        <v>16</v>
-      </c>
-      <c r="IB3">
-        <v>16</v>
-      </c>
-      <c r="IC3">
-        <v>16</v>
-      </c>
-      <c r="ID3">
-        <v>16</v>
-      </c>
-      <c r="IE3">
-        <v>16</v>
-      </c>
-      <c r="IF3">
-        <v>16</v>
-      </c>
-      <c r="IG3">
-        <v>16</v>
       </c>
       <c r="IH3">
         <v>9</v>
@@ -3497,11 +3486,8 @@
       <c r="IJ3">
         <v>9</v>
       </c>
-      <c r="IK3">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3512,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -4115,85 +4101,85 @@
         <v>28</v>
       </c>
       <c r="HG4">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="HH4">
+        <v>28</v>
+      </c>
+      <c r="HI4">
+        <v>28</v>
+      </c>
+      <c r="HJ4">
+        <v>28</v>
+      </c>
+      <c r="HK4">
+        <v>28</v>
+      </c>
+      <c r="HL4">
+        <v>28</v>
+      </c>
+      <c r="HM4">
+        <v>28</v>
+      </c>
+      <c r="HN4">
+        <v>28</v>
+      </c>
+      <c r="HO4">
+        <v>28</v>
+      </c>
+      <c r="HP4">
+        <v>28</v>
+      </c>
+      <c r="HQ4">
+        <v>28</v>
+      </c>
+      <c r="HR4">
+        <v>28</v>
+      </c>
+      <c r="HS4">
+        <v>28</v>
+      </c>
+      <c r="HT4">
+        <v>28</v>
+      </c>
+      <c r="HU4">
+        <v>28</v>
+      </c>
+      <c r="HV4">
+        <v>28</v>
+      </c>
+      <c r="HW4">
+        <v>28</v>
+      </c>
+      <c r="HX4">
+        <v>28</v>
+      </c>
+      <c r="HY4">
+        <v>28</v>
+      </c>
+      <c r="HZ4">
+        <v>28</v>
+      </c>
+      <c r="IA4">
+        <v>28</v>
+      </c>
+      <c r="IB4">
+        <v>28</v>
+      </c>
+      <c r="IC4">
+        <v>28</v>
+      </c>
+      <c r="ID4">
+        <v>28</v>
+      </c>
+      <c r="IE4">
+        <v>28</v>
+      </c>
+      <c r="IF4">
+        <v>28</v>
+      </c>
+      <c r="IG4">
         <v>19</v>
-      </c>
-      <c r="HI4">
-        <v>28</v>
-      </c>
-      <c r="HJ4">
-        <v>28</v>
-      </c>
-      <c r="HK4">
-        <v>28</v>
-      </c>
-      <c r="HL4">
-        <v>28</v>
-      </c>
-      <c r="HM4">
-        <v>28</v>
-      </c>
-      <c r="HN4">
-        <v>28</v>
-      </c>
-      <c r="HO4">
-        <v>28</v>
-      </c>
-      <c r="HP4">
-        <v>28</v>
-      </c>
-      <c r="HQ4">
-        <v>28</v>
-      </c>
-      <c r="HR4">
-        <v>28</v>
-      </c>
-      <c r="HS4">
-        <v>28</v>
-      </c>
-      <c r="HT4">
-        <v>28</v>
-      </c>
-      <c r="HU4">
-        <v>28</v>
-      </c>
-      <c r="HV4">
-        <v>28</v>
-      </c>
-      <c r="HW4">
-        <v>28</v>
-      </c>
-      <c r="HX4">
-        <v>28</v>
-      </c>
-      <c r="HY4">
-        <v>28</v>
-      </c>
-      <c r="HZ4">
-        <v>28</v>
-      </c>
-      <c r="IA4">
-        <v>28</v>
-      </c>
-      <c r="IB4">
-        <v>28</v>
-      </c>
-      <c r="IC4">
-        <v>28</v>
-      </c>
-      <c r="ID4">
-        <v>28</v>
-      </c>
-      <c r="IE4">
-        <v>28</v>
-      </c>
-      <c r="IF4">
-        <v>28</v>
-      </c>
-      <c r="IG4">
-        <v>28</v>
       </c>
       <c r="IH4">
         <v>19</v>
@@ -4204,11 +4190,8 @@
       <c r="IJ4">
         <v>19</v>
       </c>
-      <c r="IK4">
-        <v>19</v>
-      </c>
     </row>
-    <row r="5" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4219,7 +4202,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4941,11 +4924,8 @@
       <c r="IJ5">
         <v>1</v>
       </c>
-      <c r="IK5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4956,7 +4936,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -5678,11 +5658,8 @@
       <c r="IJ6" t="s">
         <v>242</v>
       </c>
-      <c r="IK6" t="s">
-        <v>243</v>
-      </c>
     </row>
-    <row r="7" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5693,13 +5670,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" t="s">
         <v>254</v>
-      </c>
-      <c r="F7" t="s">
-        <v>255</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -5714,19 +5691,19 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
       </c>
       <c r="O7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P7" t="s">
         <v>14</v>
@@ -5780,7 +5757,7 @@
         <v>30</v>
       </c>
       <c r="AG7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH7" t="s">
         <v>32</v>
@@ -5828,7 +5805,7 @@
         <v>46</v>
       </c>
       <c r="AW7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AX7" t="s">
         <v>48</v>
@@ -6002,10 +5979,10 @@
         <v>104</v>
       </c>
       <c r="DC7" t="s">
+        <v>266</v>
+      </c>
+      <c r="DD7" t="s">
         <v>267</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>268</v>
       </c>
       <c r="DE7" t="s">
         <v>107</v>
@@ -6062,16 +6039,16 @@
         <v>124</v>
       </c>
       <c r="DW7" t="s">
+        <v>273</v>
+      </c>
+      <c r="DX7" t="s">
         <v>274</v>
-      </c>
-      <c r="DX7" t="s">
-        <v>275</v>
       </c>
       <c r="DY7" t="s">
         <v>127</v>
       </c>
       <c r="DZ7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="EA7" t="s">
         <v>129</v>
@@ -6086,22 +6063,22 @@
         <v>132</v>
       </c>
       <c r="EE7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="EF7" t="s">
         <v>134</v>
       </c>
       <c r="EG7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="EH7" t="s">
         <v>138</v>
       </c>
       <c r="EI7" t="s">
+        <v>282</v>
+      </c>
+      <c r="EJ7" t="s">
         <v>283</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>284</v>
       </c>
       <c r="EK7" t="s">
         <v>139</v>
@@ -6110,13 +6087,13 @@
         <v>140</v>
       </c>
       <c r="EM7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="EN7" t="s">
         <v>142</v>
       </c>
       <c r="EO7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="EP7" t="s">
         <v>144</v>
@@ -6260,7 +6237,7 @@
         <v>190</v>
       </c>
       <c r="GK7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="GL7" t="s">
         <v>192</v>
@@ -6314,22 +6291,22 @@
         <v>208</v>
       </c>
       <c r="HC7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="HD7" t="s">
         <v>210</v>
       </c>
       <c r="HE7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="HF7" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="HG7" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="HH7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="HI7" t="s">
         <v>215</v>
@@ -6404,22 +6381,19 @@
         <v>238</v>
       </c>
       <c r="IG7" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="IH7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="II7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="IJ7" t="s">
-        <v>287</v>
-      </c>
-      <c r="IK7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6430,25 +6404,25 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T8" t="s">
+        <v>259</v>
+      </c>
+      <c r="U8" t="s">
         <v>260</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>261</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>262</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Z8" t="s">
         <v>263</v>
       </c>
-      <c r="Z8" t="s">
-        <v>264</v>
-      </c>
     </row>
-    <row r="9" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7086,106 +7060,103 @@
         <v>173</v>
       </c>
       <c r="HE9">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="HF9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="HG9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="HH9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="HI9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="HJ9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="HK9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="HL9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="HM9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="HN9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="HO9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="HP9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="HQ9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="HR9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="HS9">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="HT9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="HU9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="HV9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="HW9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="HX9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="HY9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="HZ9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="IA9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="IB9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="IC9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="ID9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="IE9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="IF9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="IG9">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="IH9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="II9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="IJ9">
-        <v>214</v>
-      </c>
-      <c r="IK9">
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7196,7 +7167,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -7214,7 +7185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:245" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:244" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7225,109 +7196,109 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="DF11" t="s">
+        <v>268</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>268</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>268</v>
+      </c>
+      <c r="DI11" t="s">
         <v>269</v>
       </c>
-      <c r="DG11" t="s">
+      <c r="DJ11" t="s">
         <v>269</v>
       </c>
-      <c r="DH11" t="s">
+      <c r="DK11" t="s">
         <v>269</v>
       </c>
-      <c r="DI11" t="s">
+      <c r="DM11" t="s">
         <v>270</v>
       </c>
-      <c r="DJ11" t="s">
+      <c r="DN11" t="s">
         <v>270</v>
       </c>
-      <c r="DK11" t="s">
+      <c r="DO11" t="s">
         <v>270</v>
       </c>
-      <c r="DM11" t="s">
+      <c r="DP11" t="s">
         <v>271</v>
       </c>
-      <c r="DN11" t="s">
+      <c r="DQ11" t="s">
         <v>271</v>
       </c>
-      <c r="DO11" t="s">
+      <c r="DR11" t="s">
         <v>271</v>
       </c>
-      <c r="DP11" t="s">
+      <c r="DS11" t="s">
+        <v>271</v>
+      </c>
+      <c r="DT11" t="s">
         <v>272</v>
       </c>
-      <c r="DQ11" t="s">
+      <c r="DU11" t="s">
         <v>272</v>
       </c>
-      <c r="DR11" t="s">
+      <c r="DV11" t="s">
         <v>272</v>
       </c>
-      <c r="DS11" t="s">
+      <c r="DW11" t="s">
         <v>272</v>
       </c>
-      <c r="DT11" t="s">
-        <v>273</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>273</v>
-      </c>
-      <c r="DV11" t="s">
-        <v>273</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>273</v>
-      </c>
       <c r="DX11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="DY11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="DZ11" t="s">
+        <v>277</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>277</v>
+      </c>
+      <c r="EB11" t="s">
         <v>278</v>
       </c>
-      <c r="EA11" t="s">
+      <c r="EC11" t="s">
         <v>278</v>
       </c>
-      <c r="EB11" t="s">
-        <v>279</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>279</v>
-      </c>
       <c r="ED11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="EE11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="EF11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="EG11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="EH11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="EI11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="EJ11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="EK11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="EL11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="EM11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="EN11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/tabPanelBlock.xlsx
+++ b/tabPanelBlock.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mainhi/Documents/back/BaseDeDonneesViews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DDD72D-F901-F94F-AD7F-6009D934FDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F74B2E0-5751-7546-88DA-1C3C694A2E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36880" yWindow="-4460" windowWidth="32020" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1305,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="GQ1" workbookViewId="0">
-      <selection activeCell="HE1" sqref="HE1:HE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="HK1" workbookViewId="0">
+      <selection activeCell="IJ11" sqref="IJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6859,301 +6869,301 @@
         <v>141</v>
       </c>
       <c r="EP9">
+        <v>142</v>
+      </c>
+      <c r="EQ9">
+        <v>143</v>
+      </c>
+      <c r="ER9">
+        <v>144</v>
+      </c>
+      <c r="ES9">
+        <v>145</v>
+      </c>
+      <c r="ET9">
+        <v>146</v>
+      </c>
+      <c r="EU9">
         <v>147</v>
       </c>
-      <c r="EQ9">
+      <c r="EV9">
         <v>148</v>
       </c>
-      <c r="ER9">
+      <c r="EW9">
         <v>149</v>
       </c>
-      <c r="ES9">
+      <c r="EX9">
+        <v>150</v>
+      </c>
+      <c r="EY9">
+        <v>151</v>
+      </c>
+      <c r="EZ9">
+        <v>152</v>
+      </c>
+      <c r="FA9">
+        <v>153</v>
+      </c>
+      <c r="FB9">
+        <v>154</v>
+      </c>
+      <c r="FC9">
+        <v>155</v>
+      </c>
+      <c r="FD9">
+        <v>156</v>
+      </c>
+      <c r="FE9">
+        <v>157</v>
+      </c>
+      <c r="FF9">
+        <v>158</v>
+      </c>
+      <c r="FG9">
+        <v>159</v>
+      </c>
+      <c r="FH9">
+        <v>160</v>
+      </c>
+      <c r="FI9">
+        <v>161</v>
+      </c>
+      <c r="FJ9">
+        <v>162</v>
+      </c>
+      <c r="FK9">
+        <v>163</v>
+      </c>
+      <c r="FL9">
+        <v>164</v>
+      </c>
+      <c r="FM9">
+        <v>165</v>
+      </c>
+      <c r="FN9">
+        <v>166</v>
+      </c>
+      <c r="FO9">
+        <v>167</v>
+      </c>
+      <c r="FP9">
+        <v>168</v>
+      </c>
+      <c r="FQ9">
+        <v>169</v>
+      </c>
+      <c r="FR9">
+        <v>170</v>
+      </c>
+      <c r="FS9">
+        <v>171</v>
+      </c>
+      <c r="FT9">
+        <v>172</v>
+      </c>
+      <c r="FU9">
+        <v>173</v>
+      </c>
+      <c r="FV9">
         <v>174</v>
       </c>
-      <c r="ET9">
+      <c r="FW9">
         <v>175</v>
       </c>
-      <c r="EU9">
+      <c r="FX9">
         <v>176</v>
       </c>
-      <c r="EV9">
+      <c r="FY9">
         <v>177</v>
       </c>
-      <c r="EW9">
+      <c r="FZ9">
         <v>178</v>
       </c>
-      <c r="EX9">
+      <c r="GA9">
         <v>179</v>
       </c>
-      <c r="EY9">
+      <c r="GB9">
+        <v>180</v>
+      </c>
+      <c r="GC9">
         <v>181</v>
       </c>
-      <c r="EZ9">
+      <c r="GD9">
         <v>182</v>
       </c>
-      <c r="FA9">
+      <c r="GE9">
         <v>183</v>
       </c>
-      <c r="FB9">
+      <c r="GF9">
+        <v>184</v>
+      </c>
+      <c r="GG9">
+        <v>185</v>
+      </c>
+      <c r="GH9">
+        <v>186</v>
+      </c>
+      <c r="GI9">
+        <v>187</v>
+      </c>
+      <c r="GJ9">
+        <v>188</v>
+      </c>
+      <c r="GK9">
+        <v>189</v>
+      </c>
+      <c r="GL9">
+        <v>190</v>
+      </c>
+      <c r="GM9">
+        <v>191</v>
+      </c>
+      <c r="GN9">
+        <v>192</v>
+      </c>
+      <c r="GO9">
+        <v>193</v>
+      </c>
+      <c r="GP9">
+        <v>194</v>
+      </c>
+      <c r="GQ9">
+        <v>195</v>
+      </c>
+      <c r="GR9">
+        <v>196</v>
+      </c>
+      <c r="GS9">
+        <v>197</v>
+      </c>
+      <c r="GT9">
+        <v>198</v>
+      </c>
+      <c r="GU9">
+        <v>199</v>
+      </c>
+      <c r="GV9">
+        <v>200</v>
+      </c>
+      <c r="GW9">
+        <v>201</v>
+      </c>
+      <c r="GX9">
+        <v>202</v>
+      </c>
+      <c r="GY9">
+        <v>203</v>
+      </c>
+      <c r="GZ9">
+        <v>204</v>
+      </c>
+      <c r="HA9">
+        <v>205</v>
+      </c>
+      <c r="HB9">
+        <v>206</v>
+      </c>
+      <c r="HC9">
+        <v>207</v>
+      </c>
+      <c r="HD9">
+        <v>208</v>
+      </c>
+      <c r="HE9">
+        <v>209</v>
+      </c>
+      <c r="HF9">
+        <v>210</v>
+      </c>
+      <c r="HG9">
+        <v>211</v>
+      </c>
+      <c r="HH9">
+        <v>212</v>
+      </c>
+      <c r="HI9">
+        <v>213</v>
+      </c>
+      <c r="HJ9">
+        <v>214</v>
+      </c>
+      <c r="HK9">
+        <v>215</v>
+      </c>
+      <c r="HL9">
         <v>216</v>
       </c>
-      <c r="FC9">
+      <c r="HM9">
         <v>217</v>
       </c>
-      <c r="FD9">
+      <c r="HN9">
         <v>218</v>
       </c>
-      <c r="FE9">
+      <c r="HO9">
         <v>219</v>
       </c>
-      <c r="FF9">
+      <c r="HP9">
         <v>220</v>
       </c>
-      <c r="FG9">
+      <c r="HQ9">
         <v>221</v>
       </c>
-      <c r="FH9">
+      <c r="HR9">
         <v>222</v>
       </c>
-      <c r="FI9">
+      <c r="HS9">
         <v>223</v>
       </c>
-      <c r="FJ9">
+      <c r="HT9">
         <v>224</v>
       </c>
-      <c r="FK9">
+      <c r="HU9">
         <v>225</v>
       </c>
-      <c r="FL9">
+      <c r="HV9">
         <v>226</v>
       </c>
-      <c r="FM9">
+      <c r="HW9">
         <v>227</v>
       </c>
-      <c r="FN9">
+      <c r="HX9">
         <v>228</v>
       </c>
-      <c r="FO9">
+      <c r="HY9">
         <v>229</v>
       </c>
-      <c r="FP9">
+      <c r="HZ9">
         <v>230</v>
       </c>
-      <c r="FQ9">
+      <c r="IA9">
         <v>231</v>
       </c>
-      <c r="FR9">
+      <c r="IB9">
         <v>232</v>
       </c>
-      <c r="FS9">
+      <c r="IC9">
         <v>233</v>
       </c>
-      <c r="FT9">
+      <c r="ID9">
         <v>234</v>
       </c>
-      <c r="FU9">
+      <c r="IE9">
         <v>235</v>
       </c>
-      <c r="FV9">
+      <c r="IF9">
         <v>236</v>
       </c>
-      <c r="FW9">
+      <c r="IG9">
         <v>237</v>
       </c>
-      <c r="FX9">
+      <c r="IH9">
         <v>238</v>
       </c>
-      <c r="FY9">
+      <c r="II9">
         <v>239</v>
       </c>
-      <c r="FZ9">
+      <c r="IJ9">
         <v>240</v>
-      </c>
-      <c r="GA9">
-        <v>241</v>
-      </c>
-      <c r="GB9">
-        <v>142</v>
-      </c>
-      <c r="GC9">
-        <v>143</v>
-      </c>
-      <c r="GD9">
-        <v>144</v>
-      </c>
-      <c r="GE9">
-        <v>145</v>
-      </c>
-      <c r="GF9">
-        <v>146</v>
-      </c>
-      <c r="GG9">
-        <v>150</v>
-      </c>
-      <c r="GH9">
-        <v>151</v>
-      </c>
-      <c r="GI9">
-        <v>152</v>
-      </c>
-      <c r="GJ9">
-        <v>153</v>
-      </c>
-      <c r="GK9">
-        <v>154</v>
-      </c>
-      <c r="GL9">
-        <v>155</v>
-      </c>
-      <c r="GM9">
-        <v>156</v>
-      </c>
-      <c r="GN9">
-        <v>157</v>
-      </c>
-      <c r="GO9">
-        <v>158</v>
-      </c>
-      <c r="GP9">
-        <v>159</v>
-      </c>
-      <c r="GQ9">
-        <v>160</v>
-      </c>
-      <c r="GR9">
-        <v>161</v>
-      </c>
-      <c r="GS9">
-        <v>162</v>
-      </c>
-      <c r="GT9">
-        <v>163</v>
-      </c>
-      <c r="GU9">
-        <v>164</v>
-      </c>
-      <c r="GV9">
-        <v>165</v>
-      </c>
-      <c r="GW9">
-        <v>166</v>
-      </c>
-      <c r="GX9">
-        <v>167</v>
-      </c>
-      <c r="GY9">
-        <v>168</v>
-      </c>
-      <c r="GZ9">
-        <v>169</v>
-      </c>
-      <c r="HA9">
-        <v>170</v>
-      </c>
-      <c r="HB9">
-        <v>171</v>
-      </c>
-      <c r="HC9">
-        <v>172</v>
-      </c>
-      <c r="HD9">
-        <v>173</v>
-      </c>
-      <c r="HE9">
-        <v>184</v>
-      </c>
-      <c r="HF9">
-        <v>185</v>
-      </c>
-      <c r="HG9">
-        <v>186</v>
-      </c>
-      <c r="HH9">
-        <v>187</v>
-      </c>
-      <c r="HI9">
-        <v>188</v>
-      </c>
-      <c r="HJ9">
-        <v>189</v>
-      </c>
-      <c r="HK9">
-        <v>190</v>
-      </c>
-      <c r="HL9">
-        <v>191</v>
-      </c>
-      <c r="HM9">
-        <v>192</v>
-      </c>
-      <c r="HN9">
-        <v>193</v>
-      </c>
-      <c r="HO9">
-        <v>194</v>
-      </c>
-      <c r="HP9">
-        <v>195</v>
-      </c>
-      <c r="HQ9">
-        <v>196</v>
-      </c>
-      <c r="HR9">
-        <v>197</v>
-      </c>
-      <c r="HS9">
-        <v>198</v>
-      </c>
-      <c r="HT9">
-        <v>199</v>
-      </c>
-      <c r="HU9">
-        <v>200</v>
-      </c>
-      <c r="HV9">
-        <v>201</v>
-      </c>
-      <c r="HW9">
-        <v>202</v>
-      </c>
-      <c r="HX9">
-        <v>203</v>
-      </c>
-      <c r="HY9">
-        <v>204</v>
-      </c>
-      <c r="HZ9">
-        <v>205</v>
-      </c>
-      <c r="IA9">
-        <v>206</v>
-      </c>
-      <c r="IB9">
-        <v>207</v>
-      </c>
-      <c r="IC9">
-        <v>208</v>
-      </c>
-      <c r="ID9">
-        <v>209</v>
-      </c>
-      <c r="IE9">
-        <v>210</v>
-      </c>
-      <c r="IF9">
-        <v>211</v>
-      </c>
-      <c r="IG9">
-        <v>212</v>
-      </c>
-      <c r="IH9">
-        <v>213</v>
-      </c>
-      <c r="II9">
-        <v>214</v>
-      </c>
-      <c r="IJ9">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:244" x14ac:dyDescent="0.2">
